--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8771EE20-89E3-4A21-9E5E-66F6AC6D314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BEEC57-BD28-439B-B075-FF35537148E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="32">
   <si>
     <t>Species:</t>
   </si>
@@ -85,6 +85,42 @@
   </si>
   <si>
     <t>62mm TL</t>
+  </si>
+  <si>
+    <t>34mm SL</t>
+  </si>
+  <si>
+    <t>27mm SL</t>
+  </si>
+  <si>
+    <t>28mm SL</t>
+  </si>
+  <si>
+    <t>31mm SL</t>
+  </si>
+  <si>
+    <t>35mm SL</t>
+  </si>
+  <si>
+    <t>29mm SL</t>
+  </si>
+  <si>
+    <t>30mm SL</t>
+  </si>
+  <si>
+    <t>33mm SL</t>
+  </si>
+  <si>
+    <t>26mm SL</t>
+  </si>
+  <si>
+    <t>42mm SL</t>
+  </si>
+  <si>
+    <t>32mm SL</t>
+  </si>
+  <si>
+    <t>25mm SL</t>
   </si>
 </sst>
 </file>
@@ -420,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,6 +735,510 @@
         <v>2</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BEEC57-BD28-439B-B075-FF35537148E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD68FE4-8DE2-4B9B-A9AB-62B802FC0AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="139">
   <si>
     <t>Species:</t>
   </si>
@@ -121,13 +121,334 @@
   </si>
   <si>
     <t>25mm SL</t>
+  </si>
+  <si>
+    <t>Well No.</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>24mm SL</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>36mm SL</t>
+  </si>
+  <si>
+    <t>22mm SL</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>86mm SL</t>
+  </si>
+  <si>
+    <t>76mm SL</t>
+  </si>
+  <si>
+    <t>82mm SL</t>
+  </si>
+  <si>
+    <t>67mm SL</t>
+  </si>
+  <si>
+    <t>85mm SL</t>
+  </si>
+  <si>
+    <t>75mm SL</t>
+  </si>
+  <si>
+    <t>Argyropelecus olfersii</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +468,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -456,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +796,7 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -482,8 +809,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -496,8 +826,11 @@
       <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -510,8 +843,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -524,8 +860,11 @@
       <c r="D4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -538,8 +877,11 @@
       <c r="D5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -552,8 +894,11 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -566,8 +911,11 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -580,8 +928,11 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -594,8 +945,11 @@
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -608,8 +962,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -622,8 +979,11 @@
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -636,8 +996,11 @@
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -650,8 +1013,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -664,8 +1030,11 @@
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -678,8 +1047,11 @@
       <c r="D15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -692,8 +1064,11 @@
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -706,8 +1081,11 @@
       <c r="D17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -720,8 +1098,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -734,8 +1115,11 @@
       <c r="D19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -748,8 +1132,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -762,8 +1149,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -776,8 +1166,11 @@
       <c r="D22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -790,8 +1183,11 @@
       <c r="D23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -804,8 +1200,11 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -818,8 +1217,11 @@
       <c r="D25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -832,8 +1234,11 @@
       <c r="D26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -846,8 +1251,11 @@
       <c r="D27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -860,8 +1268,11 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -874,8 +1285,11 @@
       <c r="D29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -888,8 +1302,11 @@
       <c r="D30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -902,8 +1319,11 @@
       <c r="D31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -916,8 +1336,11 @@
       <c r="D32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -930,8 +1353,11 @@
       <c r="D33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -944,8 +1370,11 @@
       <c r="D34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -958,8 +1387,11 @@
       <c r="D35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -972,8 +1404,11 @@
       <c r="D36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -986,8 +1421,11 @@
       <c r="D37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1000,8 +1438,11 @@
       <c r="D38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1014,8 +1455,11 @@
       <c r="D39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1028,8 +1472,11 @@
       <c r="D40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1042,8 +1489,11 @@
       <c r="D41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1056,8 +1506,11 @@
       <c r="D42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1070,8 +1523,11 @@
       <c r="D43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1084,8 +1540,11 @@
       <c r="D44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1098,8 +1557,11 @@
       <c r="D45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1112,8 +1574,11 @@
       <c r="D46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1126,8 +1591,11 @@
       <c r="D47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1140,8 +1608,11 @@
       <c r="D48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1154,8 +1625,11 @@
       <c r="D49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1168,8 +1642,11 @@
       <c r="D50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1182,8 +1659,11 @@
       <c r="D51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1196,8 +1676,11 @@
       <c r="D52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1210,8 +1693,11 @@
       <c r="D53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1224,8 +1710,11 @@
       <c r="D54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1238,8 +1727,2154 @@
       <c r="D55">
         <v>2</v>
       </c>
+      <c r="E55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>28</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>2</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>31</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>92</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>31</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>31</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>128</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>22</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>21</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>25</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>2</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>31</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>28</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>92</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>129</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>18</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>27</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>28</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C161" t="s">
+        <v>28</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" t="s">
+        <v>25</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C164" t="s">
+        <v>25</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C166" t="s">
+        <v>30</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C167" t="s">
+        <v>25</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" t="s">
+        <v>26</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" t="s">
+        <v>132</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C170" t="s">
+        <v>133</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>2</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C172" t="s">
+        <v>134</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>135</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>2</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C174" t="s">
+        <v>136</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C175" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C176" t="s">
+        <v>137</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>2</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>7</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C179" t="s">
+        <v>18</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>7</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C180" t="s">
+        <v>18</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>2</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C181" t="s">
+        <v>29</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+      <c r="E181" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD68FE4-8DE2-4B9B-A9AB-62B802FC0AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6FAD49-854D-4290-AFF4-F05CF4C88643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="155">
   <si>
     <t>Species:</t>
   </si>
@@ -442,6 +442,54 @@
   </si>
   <si>
     <t>Argyropelecus olfersii</t>
+  </si>
+  <si>
+    <t>Arctozenus risso</t>
+  </si>
+  <si>
+    <t>Plate No.</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>52mm SL</t>
+  </si>
+  <si>
+    <t>96mm SL</t>
+  </si>
+  <si>
+    <t>104mm SL</t>
+  </si>
+  <si>
+    <t>100mm SL</t>
+  </si>
+  <si>
+    <t>130mm SL</t>
+  </si>
+  <si>
+    <t>50mm SL</t>
+  </si>
+  <si>
+    <t>46mm SL</t>
+  </si>
+  <si>
+    <t>45mm SL</t>
+  </si>
+  <si>
+    <t>48mm SL</t>
+  </si>
+  <si>
+    <t>43mm SL</t>
+  </si>
+  <si>
+    <t>47mm SL</t>
   </si>
 </sst>
 </file>
@@ -783,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="F127" sqref="F127"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +844,7 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -812,8 +860,11 @@
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -829,8 +880,11 @@
       <c r="E2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -846,8 +900,11 @@
       <c r="E3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -863,8 +920,11 @@
       <c r="E4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -880,8 +940,11 @@
       <c r="E5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -897,8 +960,11 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -914,8 +980,11 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -931,8 +1000,11 @@
       <c r="E8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -948,8 +1020,11 @@
       <c r="E9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -965,8 +1040,11 @@
       <c r="E10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -982,8 +1060,11 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -999,8 +1080,11 @@
       <c r="E12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1016,8 +1100,11 @@
       <c r="E13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1033,8 +1120,11 @@
       <c r="E14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1050,8 +1140,11 @@
       <c r="E15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1067,8 +1160,11 @@
       <c r="E16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1084,8 +1180,11 @@
       <c r="E17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1101,8 +1200,11 @@
       <c r="E18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1118,8 +1220,11 @@
       <c r="E19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1135,8 +1240,11 @@
       <c r="E20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1152,8 +1260,11 @@
       <c r="E21" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1169,8 +1280,11 @@
       <c r="E22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1186,8 +1300,11 @@
       <c r="E23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1203,8 +1320,11 @@
       <c r="E24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1220,8 +1340,11 @@
       <c r="E25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1237,8 +1360,11 @@
       <c r="E26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1254,8 +1380,11 @@
       <c r="E27" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1271,8 +1400,11 @@
       <c r="E28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1288,8 +1420,11 @@
       <c r="E29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1305,8 +1440,11 @@
       <c r="E30" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1322,8 +1460,11 @@
       <c r="E31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1339,8 +1480,11 @@
       <c r="E32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1356,8 +1500,11 @@
       <c r="E33" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1373,8 +1520,11 @@
       <c r="E34" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1390,8 +1540,11 @@
       <c r="E35" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1407,8 +1560,11 @@
       <c r="E36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1424,8 +1580,11 @@
       <c r="E37" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1441,8 +1600,11 @@
       <c r="E38" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1458,8 +1620,11 @@
       <c r="E39" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1475,8 +1640,11 @@
       <c r="E40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1492,8 +1660,11 @@
       <c r="E41" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1509,8 +1680,11 @@
       <c r="E42" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1526,8 +1700,11 @@
       <c r="E43" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1543,8 +1720,11 @@
       <c r="E44" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1560,8 +1740,11 @@
       <c r="E45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1577,8 +1760,11 @@
       <c r="E46" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1594,8 +1780,11 @@
       <c r="E47" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1611,8 +1800,11 @@
       <c r="E48" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1628,8 +1820,11 @@
       <c r="E49" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1645,8 +1840,11 @@
       <c r="E50" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1662,8 +1860,11 @@
       <c r="E51" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1679,8 +1880,11 @@
       <c r="E52" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1696,8 +1900,11 @@
       <c r="E53" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1713,8 +1920,11 @@
       <c r="E54" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1730,8 +1940,11 @@
       <c r="E55" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1739,373 +1952,439 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>31</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>86</v>
+      </c>
+      <c r="F63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>87</v>
+      </c>
+      <c r="F64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>88</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>2</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
         <v>21</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>2</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>95</v>
+      </c>
+      <c r="F71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
+        <v>28</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>98</v>
+      </c>
+      <c r="F74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>31</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
+        <v>28</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
         <v>22</v>
       </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>2</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>2</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" t="s">
-        <v>22</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>2</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C66" t="s">
-        <v>27</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" t="s">
-        <v>28</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C68" t="s">
-        <v>25</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>2</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>2</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" t="s">
-        <v>26</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>2</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" t="s">
-        <v>30</v>
-      </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2119,10 +2398,13 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="F78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2130,16 +2412,19 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="F79" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2147,16 +2432,19 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="F80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2164,16 +2452,19 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="F81" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2187,10 +2478,13 @@
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="F82" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2198,16 +2492,19 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="F83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2215,16 +2512,19 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F84" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2238,10 +2538,13 @@
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="F85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2</v>
       </c>
@@ -2249,33 +2552,39 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>110</v>
+      </c>
+      <c r="F86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
         <v>18</v>
       </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>2</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C87" t="s">
-        <v>30</v>
-      </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="F87" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2</v>
       </c>
@@ -2283,16 +2592,19 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2306,10 +2618,13 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="F89" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2</v>
       </c>
@@ -2317,16 +2632,19 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="F90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2334,16 +2652,19 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F91" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2</v>
       </c>
@@ -2357,10 +2678,13 @@
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="F92" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2368,16 +2692,19 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="F93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2385,16 +2712,19 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F94" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2402,16 +2732,19 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="F95" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2425,10 +2758,13 @@
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F96" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2436,16 +2772,19 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F97" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2453,84 +2792,99 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>122</v>
+      </c>
+      <c r="F98" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>123</v>
+      </c>
+      <c r="F99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>18</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>124</v>
+      </c>
+      <c r="F100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>125</v>
+      </c>
+      <c r="F101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" t="s">
         <v>31</v>
       </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>2</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>2</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="E100" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>2</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" t="s">
-        <v>25</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>2</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" t="s">
-        <v>23</v>
-      </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="F102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2544,10 +2898,13 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="F103" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2</v>
       </c>
@@ -2555,16 +2912,19 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="D104">
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="F104" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -2572,50 +2932,59 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
         <v>21</v>
       </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>2</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>2</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" t="s">
-        <v>25</v>
-      </c>
       <c r="D107">
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="F107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2</v>
       </c>
@@ -2623,16 +2992,19 @@
         <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="F108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2</v>
       </c>
@@ -2646,10 +3018,13 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2</v>
       </c>
@@ -2657,16 +3032,19 @@
         <v>12</v>
       </c>
       <c r="C110" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F110" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -2674,16 +3052,19 @@
         <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="D111">
         <v>2</v>
       </c>
       <c r="E111" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2</v>
       </c>
@@ -2691,16 +3072,19 @@
         <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2</v>
       </c>
@@ -2708,67 +3092,79 @@
         <v>12</v>
       </c>
       <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>42</v>
+      </c>
+      <c r="F113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>130</v>
+      </c>
+      <c r="F114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>21</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>131</v>
+      </c>
+      <c r="F115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
         <v>22</v>
       </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-      <c r="E113" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>2</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>30</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>2</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>23</v>
-      </c>
-      <c r="D115">
-        <v>2</v>
-      </c>
-      <c r="E115" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>2</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
-        <v>25</v>
-      </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="F116" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2</v>
       </c>
@@ -2776,16 +3172,19 @@
         <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
       <c r="E117" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="F117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2</v>
       </c>
@@ -2793,16 +3192,19 @@
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D118">
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F118" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2</v>
       </c>
@@ -2810,16 +3212,19 @@
         <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
       <c r="E119" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="F119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2</v>
       </c>
@@ -2833,10 +3238,13 @@
         <v>2</v>
       </c>
       <c r="E120" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F120" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2</v>
       </c>
@@ -2844,118 +3252,139 @@
         <v>12</v>
       </c>
       <c r="C121" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>121</v>
+      </c>
+      <c r="F121" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>122</v>
+      </c>
+      <c r="F122" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>123</v>
+      </c>
+      <c r="F123" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
         <v>21</v>
       </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>2</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>124</v>
+      </c>
+      <c r="F124" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>125</v>
+      </c>
+      <c r="F125" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
         <v>22</v>
       </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>2</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>2</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>126</v>
+      </c>
+      <c r="F126" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
         <v>25</v>
       </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-      <c r="E124" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>2</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="s">
-        <v>25</v>
-      </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-      <c r="E125" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>2</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>25</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>2</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" t="s">
-        <v>28</v>
-      </c>
       <c r="D127">
         <v>2</v>
       </c>
       <c r="E127" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="F127" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2</v>
       </c>
@@ -2969,10 +3398,13 @@
         <v>2</v>
       </c>
       <c r="E128" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F128" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2</v>
       </c>
@@ -2980,16 +3412,19 @@
         <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D129">
         <v>2</v>
       </c>
       <c r="E129" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="F129" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2</v>
       </c>
@@ -2997,16 +3432,19 @@
         <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D130">
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F130" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2</v>
       </c>
@@ -3014,16 +3452,19 @@
         <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D131">
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F131" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2</v>
       </c>
@@ -3031,846 +3472,856 @@
         <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="F132" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D133">
         <v>2</v>
       </c>
       <c r="E133" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="F133" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="D134">
         <v>2</v>
       </c>
       <c r="E134" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="F134" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D135">
         <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="F135" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
+        <v>134</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>135</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>47</v>
+      </c>
+      <c r="F137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>136</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138" t="s">
+        <v>48</v>
+      </c>
+      <c r="F138" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
         <v>18</v>
       </c>
-      <c r="D136">
-        <v>2</v>
-      </c>
-      <c r="E136" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>2</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>26</v>
-      </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="E137" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>2</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>31</v>
-      </c>
-      <c r="D138">
-        <v>2</v>
-      </c>
-      <c r="E138" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>2</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>20</v>
-      </c>
       <c r="D139">
         <v>2</v>
       </c>
       <c r="E139" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="F139" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D140">
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="F140" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="F141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D142">
         <v>2</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="F142" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C143" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="F143" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D144">
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="F144" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="F145" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="C146" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D146">
         <v>2</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="F146" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="C147" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="D147">
         <v>2</v>
       </c>
       <c r="E147" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="F147" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="C148" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D148">
         <v>2</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="F148" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="C149" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D149">
         <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F149" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="C150" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>96</v>
+      </c>
+      <c r="F150" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>6</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C151" t="s">
+        <v>144</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151" t="s">
+        <v>97</v>
+      </c>
+      <c r="F151" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C152" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>98</v>
+      </c>
+      <c r="F152" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C153" t="s">
+        <v>146</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>99</v>
+      </c>
+      <c r="F153" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>100</v>
+      </c>
+      <c r="F154" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C155" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>101</v>
+      </c>
+      <c r="F155" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C156" t="s">
+        <v>147</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>102</v>
+      </c>
+      <c r="F156" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C157" t="s">
+        <v>148</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>103</v>
+      </c>
+      <c r="F157" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C158" t="s">
+        <v>5</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>104</v>
+      </c>
+      <c r="F158" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>1</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
         <v>18</v>
       </c>
-      <c r="D150">
-        <v>2</v>
-      </c>
-      <c r="E150" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>2</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" t="s">
-        <v>21</v>
-      </c>
-      <c r="D151">
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>55</v>
+      </c>
+      <c r="F159" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
         <v>1</v>
       </c>
-      <c r="E151" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>2</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>22</v>
-      </c>
-      <c r="D152">
-        <v>2</v>
-      </c>
-      <c r="E152" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>2</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>18</v>
-      </c>
-      <c r="D153">
-        <v>2</v>
-      </c>
-      <c r="E153" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>2</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>20</v>
-      </c>
-      <c r="D154">
-        <v>2</v>
-      </c>
-      <c r="E154" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>2</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" t="s">
-        <v>27</v>
-      </c>
-      <c r="D155">
-        <v>2</v>
-      </c>
-      <c r="E155" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>2</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" t="s">
-        <v>22</v>
-      </c>
-      <c r="D156">
-        <v>2</v>
-      </c>
-      <c r="E156" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>2</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>18</v>
-      </c>
-      <c r="D157">
-        <v>2</v>
-      </c>
-      <c r="E157" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>2</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" t="s">
-        <v>18</v>
-      </c>
-      <c r="D158">
-        <v>2</v>
-      </c>
-      <c r="E158" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>2</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" t="s">
-        <v>28</v>
-      </c>
-      <c r="D159">
-        <v>2</v>
-      </c>
-      <c r="E159" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>2</v>
-      </c>
       <c r="B160" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>21</v>
+        <v>149</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
       <c r="E160" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F160" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="D161">
         <v>2</v>
       </c>
       <c r="E161" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F161" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="D162">
         <v>2</v>
       </c>
       <c r="E162" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F162" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="D163">
         <v>2</v>
       </c>
       <c r="E163" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F163" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F164" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>23</v>
+        <v>152</v>
       </c>
       <c r="D165">
         <v>2</v>
       </c>
       <c r="E165" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="F165" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="D166">
         <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="F166" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="D167">
         <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F167" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C168" t="s">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F168" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="F169" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="D170">
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F170" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C171" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="D171">
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="F171" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C172" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="F172" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="F173" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D174">
         <v>2</v>
       </c>
       <c r="E174" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>2</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175" t="s">
-        <v>18</v>
-      </c>
-      <c r="D175">
-        <v>2</v>
-      </c>
-      <c r="E175" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>2</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" t="s">
-        <v>137</v>
-      </c>
-      <c r="D176">
-        <v>2</v>
-      </c>
-      <c r="E176" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>2</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C177" t="s">
-        <v>7</v>
-      </c>
-      <c r="D177">
-        <v>2</v>
-      </c>
-      <c r="E177" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>2</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C178" t="s">
-        <v>8</v>
-      </c>
-      <c r="D178">
-        <v>2</v>
-      </c>
-      <c r="E178" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>7</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C179" t="s">
-        <v>18</v>
-      </c>
-      <c r="D179">
-        <v>1</v>
-      </c>
-      <c r="E179" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>7</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C180" t="s">
-        <v>18</v>
-      </c>
-      <c r="D180">
-        <v>2</v>
-      </c>
-      <c r="E180" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>2</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C181" t="s">
-        <v>29</v>
-      </c>
-      <c r="D181">
-        <v>1</v>
-      </c>
-      <c r="E181" t="s">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="F174" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6FAD49-854D-4290-AFF4-F05CF4C88643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8108529-869C-43FC-A061-4E797AD6E337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="174">
   <si>
     <t>Species:</t>
   </si>
@@ -490,6 +490,63 @@
   </si>
   <si>
     <t>47mm SL</t>
+  </si>
+  <si>
+    <t>Macroparalepis affinis</t>
+  </si>
+  <si>
+    <t>127mm SL</t>
+  </si>
+  <si>
+    <t>98mm SL</t>
+  </si>
+  <si>
+    <t>93mm SL</t>
+  </si>
+  <si>
+    <t>112mm SL</t>
+  </si>
+  <si>
+    <t>113mm SL</t>
+  </si>
+  <si>
+    <t>122mm SL</t>
+  </si>
+  <si>
+    <t>111mm SL</t>
+  </si>
+  <si>
+    <t>91mm SL</t>
+  </si>
+  <si>
+    <t>103mm SL</t>
+  </si>
+  <si>
+    <t>95mm SL</t>
+  </si>
+  <si>
+    <t>118mm SL</t>
+  </si>
+  <si>
+    <t>115mm SL</t>
+  </si>
+  <si>
+    <t>136mm SL</t>
+  </si>
+  <si>
+    <t>Trachurus trachurus</t>
+  </si>
+  <si>
+    <t>63mm SL</t>
+  </si>
+  <si>
+    <t>64mm SL</t>
+  </si>
+  <si>
+    <t>44mm SL</t>
+  </si>
+  <si>
+    <t>49mm SL</t>
   </si>
 </sst>
 </file>
@@ -831,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4324,6 +4381,826 @@
         <v>141</v>
       </c>
     </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C175" t="s">
+        <v>145</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175" t="s">
+        <v>55</v>
+      </c>
+      <c r="F175" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C176" t="s">
+        <v>156</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>56</v>
+      </c>
+      <c r="F176" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>6</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C177" t="s">
+        <v>145</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s">
+        <v>57</v>
+      </c>
+      <c r="F177" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>6</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C178" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>58</v>
+      </c>
+      <c r="F178" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>6</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179" t="s">
+        <v>59</v>
+      </c>
+      <c r="F179" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>6</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C180" t="s">
+        <v>157</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s">
+        <v>60</v>
+      </c>
+      <c r="F180" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>6</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>61</v>
+      </c>
+      <c r="F181" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>6</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C182" t="s">
+        <v>158</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s">
+        <v>62</v>
+      </c>
+      <c r="F182" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>6</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C183" t="s">
+        <v>159</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183" t="s">
+        <v>63</v>
+      </c>
+      <c r="F183" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>6</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C184" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184" t="s">
+        <v>64</v>
+      </c>
+      <c r="F184" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>6</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C185" t="s">
+        <v>160</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185" t="s">
+        <v>65</v>
+      </c>
+      <c r="F185" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>6</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C186" t="s">
+        <v>134</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+      <c r="E186" t="s">
+        <v>66</v>
+      </c>
+      <c r="F186" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>6</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C187" t="s">
+        <v>161</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+      <c r="E187" t="s">
+        <v>79</v>
+      </c>
+      <c r="F187" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>6</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C188" t="s">
+        <v>162</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+      <c r="E188" t="s">
+        <v>80</v>
+      </c>
+      <c r="F188" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>6</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C189" t="s">
+        <v>163</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189" t="s">
+        <v>81</v>
+      </c>
+      <c r="F189" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>6</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C190" t="s">
+        <v>164</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+      <c r="E190" t="s">
+        <v>82</v>
+      </c>
+      <c r="F190" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>6</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C191" t="s">
+        <v>165</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+      <c r="E191" t="s">
+        <v>83</v>
+      </c>
+      <c r="F191" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>6</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C192" t="s">
+        <v>166</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192" t="s">
+        <v>84</v>
+      </c>
+      <c r="F192" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>6</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C193" t="s">
+        <v>167</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193" t="s">
+        <v>85</v>
+      </c>
+      <c r="F193" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>6</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C194" t="s">
+        <v>168</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194" t="s">
+        <v>86</v>
+      </c>
+      <c r="F194" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C195" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195" t="s">
+        <v>70</v>
+      </c>
+      <c r="F195" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>8</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C196" t="s">
+        <v>170</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196" t="s">
+        <v>116</v>
+      </c>
+      <c r="F196" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C197" t="s">
+        <v>171</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="E197" t="s">
+        <v>117</v>
+      </c>
+      <c r="F197" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198" t="s">
+        <v>79</v>
+      </c>
+      <c r="F198" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>4</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C199" t="s">
+        <v>29</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199" t="s">
+        <v>80</v>
+      </c>
+      <c r="F199" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>4</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C200" t="s">
+        <v>18</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200" t="s">
+        <v>81</v>
+      </c>
+      <c r="F200" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>4</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" t="s">
+        <v>151</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201" t="s">
+        <v>82</v>
+      </c>
+      <c r="F201" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>4</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C202" t="s">
+        <v>154</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202" t="s">
+        <v>83</v>
+      </c>
+      <c r="F202" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>4</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>150</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s">
+        <v>84</v>
+      </c>
+      <c r="F203" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>4</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204" t="s">
+        <v>85</v>
+      </c>
+      <c r="F204" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C205" t="s">
+        <v>154</v>
+      </c>
+      <c r="D205">
+        <v>2</v>
+      </c>
+      <c r="E205" t="s">
+        <v>86</v>
+      </c>
+      <c r="F205" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>151</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206" t="s">
+        <v>87</v>
+      </c>
+      <c r="F206" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>4</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>173</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+      <c r="E207" t="s">
+        <v>88</v>
+      </c>
+      <c r="F207" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>4</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>154</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208" t="s">
+        <v>89</v>
+      </c>
+      <c r="F208" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C209" t="s">
+        <v>151</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209" t="s">
+        <v>90</v>
+      </c>
+      <c r="F209" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>4</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" t="s">
+        <v>154</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210" t="s">
+        <v>91</v>
+      </c>
+      <c r="F210" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>4</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" t="s">
+        <v>173</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211" t="s">
+        <v>93</v>
+      </c>
+      <c r="F211" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212" t="s">
+        <v>94</v>
+      </c>
+      <c r="F212" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C213" t="s">
+        <v>150</v>
+      </c>
+      <c r="D213">
+        <v>2</v>
+      </c>
+      <c r="E213" t="s">
+        <v>95</v>
+      </c>
+      <c r="F213" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>4</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C214" t="s">
+        <v>172</v>
+      </c>
+      <c r="D214">
+        <v>2</v>
+      </c>
+      <c r="E214" t="s">
+        <v>96</v>
+      </c>
+      <c r="F214" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C215" t="s">
+        <v>173</v>
+      </c>
+      <c r="D215">
+        <v>2</v>
+      </c>
+      <c r="E215" t="s">
+        <v>97</v>
+      </c>
+      <c r="F215" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8108529-869C-43FC-A061-4E797AD6E337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489BDF41-993F-444F-9A76-0DBB49734BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13548" yWindow="4152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="178">
   <si>
     <t>Species:</t>
   </si>
@@ -547,6 +547,18 @@
   </si>
   <si>
     <t>49mm SL</t>
+  </si>
+  <si>
+    <t>54mm SL</t>
+  </si>
+  <si>
+    <t>Electrona risso</t>
+  </si>
+  <si>
+    <t>21mm SL</t>
+  </si>
+  <si>
+    <t>TC4</t>
   </si>
 </sst>
 </file>
@@ -888,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="D231" sqref="D231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5201,6 +5213,326 @@
         <v>143</v>
       </c>
     </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>4</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" t="s">
+        <v>154</v>
+      </c>
+      <c r="D216">
+        <v>2</v>
+      </c>
+      <c r="E216" t="s">
+        <v>98</v>
+      </c>
+      <c r="F216" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>4</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C217" t="s">
+        <v>150</v>
+      </c>
+      <c r="D217">
+        <v>2</v>
+      </c>
+      <c r="E217" t="s">
+        <v>99</v>
+      </c>
+      <c r="F217" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>4</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C218" t="s">
+        <v>173</v>
+      </c>
+      <c r="D218">
+        <v>2</v>
+      </c>
+      <c r="E218" t="s">
+        <v>100</v>
+      </c>
+      <c r="F218" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>4</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" t="s">
+        <v>152</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="E219" t="s">
+        <v>101</v>
+      </c>
+      <c r="F219" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>4</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" t="s">
+        <v>149</v>
+      </c>
+      <c r="D220">
+        <v>2</v>
+      </c>
+      <c r="E220" t="s">
+        <v>102</v>
+      </c>
+      <c r="F220" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>4</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C221" t="s">
+        <v>144</v>
+      </c>
+      <c r="D221">
+        <v>2</v>
+      </c>
+      <c r="E221" t="s">
+        <v>103</v>
+      </c>
+      <c r="F221" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>4</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C222" t="s">
+        <v>174</v>
+      </c>
+      <c r="D222">
+        <v>2</v>
+      </c>
+      <c r="E222" t="s">
+        <v>104</v>
+      </c>
+      <c r="F222" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>6</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C223" t="s">
+        <v>129</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+      <c r="E223" t="s">
+        <v>113</v>
+      </c>
+      <c r="F223" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>6</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C224" t="s">
+        <v>176</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+      <c r="E224" t="s">
+        <v>114</v>
+      </c>
+      <c r="F224" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>6</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C225" t="s">
+        <v>18</v>
+      </c>
+      <c r="D225">
+        <v>2</v>
+      </c>
+      <c r="E225" t="s">
+        <v>115</v>
+      </c>
+      <c r="F225" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>6</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C226" t="s">
+        <v>153</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>33</v>
+      </c>
+      <c r="F226" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>6</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C227" t="s">
+        <v>154</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>34</v>
+      </c>
+      <c r="F227" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>6</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C228" t="s">
+        <v>173</v>
+      </c>
+      <c r="D228">
+        <v>2</v>
+      </c>
+      <c r="E228" t="s">
+        <v>35</v>
+      </c>
+      <c r="F228" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>6</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C229" t="s">
+        <v>153</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229" t="s">
+        <v>36</v>
+      </c>
+      <c r="F229" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>6</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C230" t="s">
+        <v>144</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>37</v>
+      </c>
+      <c r="F230" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>6</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C231" t="s">
+        <v>18</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231" t="s">
+        <v>38</v>
+      </c>
+      <c r="F231" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489BDF41-993F-444F-9A76-0DBB49734BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874F47A-C87C-4340-92F7-4CC455DFB6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13548" yWindow="4152" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="409">
   <si>
     <t>Species:</t>
   </si>
@@ -559,6 +559,699 @@
   </si>
   <si>
     <t>TC4</t>
+  </si>
+  <si>
+    <t>Code:</t>
+  </si>
+  <si>
+    <t>TCNG001</t>
+  </si>
+  <si>
+    <t>TCNG002</t>
+  </si>
+  <si>
+    <t>TCNG003</t>
+  </si>
+  <si>
+    <t>TCNG004</t>
+  </si>
+  <si>
+    <t>TCNG005</t>
+  </si>
+  <si>
+    <t>TCNG006</t>
+  </si>
+  <si>
+    <t>TCNG007</t>
+  </si>
+  <si>
+    <t>TCNG008</t>
+  </si>
+  <si>
+    <t>TCMM001</t>
+  </si>
+  <si>
+    <t>TCMM002</t>
+  </si>
+  <si>
+    <t>TCMM003</t>
+  </si>
+  <si>
+    <t>TCMM004</t>
+  </si>
+  <si>
+    <t>TCMM005</t>
+  </si>
+  <si>
+    <t>TCMM006</t>
+  </si>
+  <si>
+    <t>TCMM007</t>
+  </si>
+  <si>
+    <t>TCMM008</t>
+  </si>
+  <si>
+    <t>TCMM009</t>
+  </si>
+  <si>
+    <t>TCMM010</t>
+  </si>
+  <si>
+    <t>TCMM011</t>
+  </si>
+  <si>
+    <t>TCMM012</t>
+  </si>
+  <si>
+    <t>TCMM013</t>
+  </si>
+  <si>
+    <t>TCMM014</t>
+  </si>
+  <si>
+    <t>TCMM015</t>
+  </si>
+  <si>
+    <t>TCMM016</t>
+  </si>
+  <si>
+    <t>TCMM017</t>
+  </si>
+  <si>
+    <t>TCMM018</t>
+  </si>
+  <si>
+    <t>TCMM019</t>
+  </si>
+  <si>
+    <t>TCMM020</t>
+  </si>
+  <si>
+    <t>TCMM021</t>
+  </si>
+  <si>
+    <t>TCMM022</t>
+  </si>
+  <si>
+    <t>TCMM023</t>
+  </si>
+  <si>
+    <t>TCMM024</t>
+  </si>
+  <si>
+    <t>TCMM025</t>
+  </si>
+  <si>
+    <t>TCMM026</t>
+  </si>
+  <si>
+    <t>TCMM027</t>
+  </si>
+  <si>
+    <t>TCMM028</t>
+  </si>
+  <si>
+    <t>TCMM029</t>
+  </si>
+  <si>
+    <t>TCMM030</t>
+  </si>
+  <si>
+    <t>TCMM031</t>
+  </si>
+  <si>
+    <t>TCMM032</t>
+  </si>
+  <si>
+    <t>TCMM033</t>
+  </si>
+  <si>
+    <t>TCMM034</t>
+  </si>
+  <si>
+    <t>TCMM035</t>
+  </si>
+  <si>
+    <t>TCMM036</t>
+  </si>
+  <si>
+    <t>TCMM037</t>
+  </si>
+  <si>
+    <t>TCMM038</t>
+  </si>
+  <si>
+    <t>TCMM039</t>
+  </si>
+  <si>
+    <t>TCMM040</t>
+  </si>
+  <si>
+    <t>TCMM041</t>
+  </si>
+  <si>
+    <t>TCMM042</t>
+  </si>
+  <si>
+    <t>TCMM043</t>
+  </si>
+  <si>
+    <t>TCMM044</t>
+  </si>
+  <si>
+    <t>TCMM045</t>
+  </si>
+  <si>
+    <t>TCMM046</t>
+  </si>
+  <si>
+    <t>TCMM047</t>
+  </si>
+  <si>
+    <t>TCMM048</t>
+  </si>
+  <si>
+    <t>TCMM049</t>
+  </si>
+  <si>
+    <t>TCMM050</t>
+  </si>
+  <si>
+    <t>TCMM051</t>
+  </si>
+  <si>
+    <t>TCMM052</t>
+  </si>
+  <si>
+    <t>TCMM053</t>
+  </si>
+  <si>
+    <t>TCMM054</t>
+  </si>
+  <si>
+    <t>TCMM055</t>
+  </si>
+  <si>
+    <t>TCMM056</t>
+  </si>
+  <si>
+    <t>TCMM057</t>
+  </si>
+  <si>
+    <t>TCMM058</t>
+  </si>
+  <si>
+    <t>TCMM059</t>
+  </si>
+  <si>
+    <t>TCMM060</t>
+  </si>
+  <si>
+    <t>TCMM061</t>
+  </si>
+  <si>
+    <t>TCMM062</t>
+  </si>
+  <si>
+    <t>TCMM063</t>
+  </si>
+  <si>
+    <t>TCMM064</t>
+  </si>
+  <si>
+    <t>TCMM065</t>
+  </si>
+  <si>
+    <t>TCMM066</t>
+  </si>
+  <si>
+    <t>TCMM067</t>
+  </si>
+  <si>
+    <t>TCMM068</t>
+  </si>
+  <si>
+    <t>TCMM069</t>
+  </si>
+  <si>
+    <t>TCMM070</t>
+  </si>
+  <si>
+    <t>TCMM071</t>
+  </si>
+  <si>
+    <t>TCMM072</t>
+  </si>
+  <si>
+    <t>TCMM073</t>
+  </si>
+  <si>
+    <t>TCMM074</t>
+  </si>
+  <si>
+    <t>TCMM075</t>
+  </si>
+  <si>
+    <t>TCMM076</t>
+  </si>
+  <si>
+    <t>TCMM077</t>
+  </si>
+  <si>
+    <t>TCMM078</t>
+  </si>
+  <si>
+    <t>TCMM079</t>
+  </si>
+  <si>
+    <t>TCMM080</t>
+  </si>
+  <si>
+    <t>TCMM081</t>
+  </si>
+  <si>
+    <t>TCMM082</t>
+  </si>
+  <si>
+    <t>TCMM083</t>
+  </si>
+  <si>
+    <t>TCMM084</t>
+  </si>
+  <si>
+    <t>TCMM085</t>
+  </si>
+  <si>
+    <t>TCMM086</t>
+  </si>
+  <si>
+    <t>TCMM087</t>
+  </si>
+  <si>
+    <t>TCMM088</t>
+  </si>
+  <si>
+    <t>TCMM089</t>
+  </si>
+  <si>
+    <t>TCMM090</t>
+  </si>
+  <si>
+    <t>TCMM091</t>
+  </si>
+  <si>
+    <t>TCMM092</t>
+  </si>
+  <si>
+    <t>TCMM093</t>
+  </si>
+  <si>
+    <t>TCMM094</t>
+  </si>
+  <si>
+    <t>TCMM095</t>
+  </si>
+  <si>
+    <t>TCMM096</t>
+  </si>
+  <si>
+    <t>TCMM097</t>
+  </si>
+  <si>
+    <t>TCMM098</t>
+  </si>
+  <si>
+    <t>TCMM099</t>
+  </si>
+  <si>
+    <t>TCMM100</t>
+  </si>
+  <si>
+    <t>TCMM101</t>
+  </si>
+  <si>
+    <t>TCMM102</t>
+  </si>
+  <si>
+    <t>TCMM103</t>
+  </si>
+  <si>
+    <t>TCMM104</t>
+  </si>
+  <si>
+    <t>TCMM105</t>
+  </si>
+  <si>
+    <t>TCMM106</t>
+  </si>
+  <si>
+    <t>TCMM107</t>
+  </si>
+  <si>
+    <t>TCMM108</t>
+  </si>
+  <si>
+    <t>TCMM109</t>
+  </si>
+  <si>
+    <t>TCMM110</t>
+  </si>
+  <si>
+    <t>TCMM111</t>
+  </si>
+  <si>
+    <t>TCMM112</t>
+  </si>
+  <si>
+    <t>TCMM113</t>
+  </si>
+  <si>
+    <t>TCMM114</t>
+  </si>
+  <si>
+    <t>TCMM115</t>
+  </si>
+  <si>
+    <t>TCMM116</t>
+  </si>
+  <si>
+    <t>TCMM117</t>
+  </si>
+  <si>
+    <t>TCMM118</t>
+  </si>
+  <si>
+    <t>TCMM119</t>
+  </si>
+  <si>
+    <t>TCMM120</t>
+  </si>
+  <si>
+    <t>TCMM121</t>
+  </si>
+  <si>
+    <t>TCMM122</t>
+  </si>
+  <si>
+    <t>TCMM123</t>
+  </si>
+  <si>
+    <t>TCNG009</t>
+  </si>
+  <si>
+    <t>TCNG010</t>
+  </si>
+  <si>
+    <t>TCNG011</t>
+  </si>
+  <si>
+    <t>TCNG012</t>
+  </si>
+  <si>
+    <t>TCNG013</t>
+  </si>
+  <si>
+    <t>TCNG014</t>
+  </si>
+  <si>
+    <t>TCNG015</t>
+  </si>
+  <si>
+    <t>TCNG016</t>
+  </si>
+  <si>
+    <t>TCNG017</t>
+  </si>
+  <si>
+    <t>TCNG018</t>
+  </si>
+  <si>
+    <t>TCAO001</t>
+  </si>
+  <si>
+    <t>TCAO002</t>
+  </si>
+  <si>
+    <t>TCAO003</t>
+  </si>
+  <si>
+    <t>TCAR001</t>
+  </si>
+  <si>
+    <t>TCAR002</t>
+  </si>
+  <si>
+    <t>TCAR003</t>
+  </si>
+  <si>
+    <t>TCAR004</t>
+  </si>
+  <si>
+    <t>TCAR005</t>
+  </si>
+  <si>
+    <t>TCAR006</t>
+  </si>
+  <si>
+    <t>TCAR007</t>
+  </si>
+  <si>
+    <t>TCAR008</t>
+  </si>
+  <si>
+    <t>TCAR009</t>
+  </si>
+  <si>
+    <t>TCAR010</t>
+  </si>
+  <si>
+    <t>TCAR011</t>
+  </si>
+  <si>
+    <t>TCAR012</t>
+  </si>
+  <si>
+    <t>TCAR013</t>
+  </si>
+  <si>
+    <t>TCMM124</t>
+  </si>
+  <si>
+    <t>TCMM125</t>
+  </si>
+  <si>
+    <t>TCMM126</t>
+  </si>
+  <si>
+    <t>TCMM127</t>
+  </si>
+  <si>
+    <t>TCMM128</t>
+  </si>
+  <si>
+    <t>TCMM129</t>
+  </si>
+  <si>
+    <t>TCMM130</t>
+  </si>
+  <si>
+    <t>TCMM131</t>
+  </si>
+  <si>
+    <t>TCMM132</t>
+  </si>
+  <si>
+    <t>TCMM133</t>
+  </si>
+  <si>
+    <t>TCMM134</t>
+  </si>
+  <si>
+    <t>TCMM135</t>
+  </si>
+  <si>
+    <t>TCMM136</t>
+  </si>
+  <si>
+    <t>TCMM137</t>
+  </si>
+  <si>
+    <t>TCMM138</t>
+  </si>
+  <si>
+    <t>TCNG019</t>
+  </si>
+  <si>
+    <t>TCMA001</t>
+  </si>
+  <si>
+    <t>TCMA002</t>
+  </si>
+  <si>
+    <t>TCMA003</t>
+  </si>
+  <si>
+    <t>TCMA004</t>
+  </si>
+  <si>
+    <t>TCMA005</t>
+  </si>
+  <si>
+    <t>TCMA006</t>
+  </si>
+  <si>
+    <t>TCMA007</t>
+  </si>
+  <si>
+    <t>TCMA008</t>
+  </si>
+  <si>
+    <t>TCMA009</t>
+  </si>
+  <si>
+    <t>TCMA010</t>
+  </si>
+  <si>
+    <t>TCMA011</t>
+  </si>
+  <si>
+    <t>TCMA012</t>
+  </si>
+  <si>
+    <t>TCMA013</t>
+  </si>
+  <si>
+    <t>TCMA014</t>
+  </si>
+  <si>
+    <t>TCMA015</t>
+  </si>
+  <si>
+    <t>TCMA016</t>
+  </si>
+  <si>
+    <t>TCMA017</t>
+  </si>
+  <si>
+    <t>TCMA018</t>
+  </si>
+  <si>
+    <t>TCMA019</t>
+  </si>
+  <si>
+    <t>TCMA020</t>
+  </si>
+  <si>
+    <t>TCAO004</t>
+  </si>
+  <si>
+    <t>TCTT001</t>
+  </si>
+  <si>
+    <t>TCTT002</t>
+  </si>
+  <si>
+    <t>TCMM139</t>
+  </si>
+  <si>
+    <t>TCMM140</t>
+  </si>
+  <si>
+    <t>TCMM141</t>
+  </si>
+  <si>
+    <t>TCMM142</t>
+  </si>
+  <si>
+    <t>TCMM143</t>
+  </si>
+  <si>
+    <t>TCMM144</t>
+  </si>
+  <si>
+    <t>TCMM145</t>
+  </si>
+  <si>
+    <t>TCMM146</t>
+  </si>
+  <si>
+    <t>TCMM147</t>
+  </si>
+  <si>
+    <t>TCMM148</t>
+  </si>
+  <si>
+    <t>TCMM149</t>
+  </si>
+  <si>
+    <t>TCMM150</t>
+  </si>
+  <si>
+    <t>TCMM151</t>
+  </si>
+  <si>
+    <t>TCMM152</t>
+  </si>
+  <si>
+    <t>TCMM153</t>
+  </si>
+  <si>
+    <t>TCMM154</t>
+  </si>
+  <si>
+    <t>TCMM155</t>
+  </si>
+  <si>
+    <t>TCMM156</t>
+  </si>
+  <si>
+    <t>TCMM157</t>
+  </si>
+  <si>
+    <t>TCMM158</t>
+  </si>
+  <si>
+    <t>TCMM159</t>
+  </si>
+  <si>
+    <t>TCMM160</t>
+  </si>
+  <si>
+    <t>TCMM161</t>
+  </si>
+  <si>
+    <t>TCMM162</t>
+  </si>
+  <si>
+    <t>TCMM163</t>
+  </si>
+  <si>
+    <t>TCER001</t>
+  </si>
+  <si>
+    <t>TCER002</t>
+  </si>
+  <si>
+    <t>TCER003</t>
+  </si>
+  <si>
+    <t>TCAO005</t>
+  </si>
+  <si>
+    <t>TCAO006</t>
+  </si>
+  <si>
+    <t>TCAO007</t>
+  </si>
+  <si>
+    <t>TCAO008</t>
+  </si>
+  <si>
+    <t>TCAO009</t>
+  </si>
+  <si>
+    <t>TCAO010</t>
   </si>
 </sst>
 </file>
@@ -900,10 +1593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:G231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" workbookViewId="0">
-      <selection activeCell="D231" sqref="D231"/>
+    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
+      <selection activeCell="G226" sqref="G226:G231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,7 +1606,7 @@
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -932,8 +1625,11 @@
       <c r="F1" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -952,8 +1648,11 @@
       <c r="F2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -972,8 +1671,11 @@
       <c r="F3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -992,8 +1694,11 @@
       <c r="F4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -1012,8 +1717,11 @@
       <c r="F5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1032,8 +1740,11 @@
       <c r="F6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1052,8 +1763,11 @@
       <c r="F7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1072,8 +1786,11 @@
       <c r="F8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1092,8 +1809,11 @@
       <c r="F9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1112,8 +1832,11 @@
       <c r="F10" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1132,8 +1855,11 @@
       <c r="F11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1152,8 +1878,11 @@
       <c r="F12" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1172,8 +1901,11 @@
       <c r="F13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -1192,8 +1924,11 @@
       <c r="F14" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1212,8 +1947,11 @@
       <c r="F15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -1232,8 +1970,11 @@
       <c r="F16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -1252,8 +1993,11 @@
       <c r="F17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1272,8 +2016,11 @@
       <c r="F18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1292,8 +2039,11 @@
       <c r="F19" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1312,8 +2062,11 @@
       <c r="F20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1332,8 +2085,11 @@
       <c r="F21" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1352,8 +2108,11 @@
       <c r="F22" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1372,8 +2131,11 @@
       <c r="F23" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1392,8 +2154,11 @@
       <c r="F24" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1412,8 +2177,11 @@
       <c r="F25" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1432,8 +2200,11 @@
       <c r="F26" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1452,8 +2223,11 @@
       <c r="F27" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1472,8 +2246,11 @@
       <c r="F28" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1492,8 +2269,11 @@
       <c r="F29" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1512,8 +2292,11 @@
       <c r="F30" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1532,8 +2315,11 @@
       <c r="F31" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1552,8 +2338,11 @@
       <c r="F32" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1572,8 +2361,11 @@
       <c r="F33" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1592,8 +2384,11 @@
       <c r="F34" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1612,8 +2407,11 @@
       <c r="F35" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1632,8 +2430,11 @@
       <c r="F36" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1652,8 +2453,11 @@
       <c r="F37" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1672,8 +2476,11 @@
       <c r="F38" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1692,8 +2499,11 @@
       <c r="F39" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1712,8 +2522,11 @@
       <c r="F40" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -1732,8 +2545,11 @@
       <c r="F41" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -1752,8 +2568,11 @@
       <c r="F42" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1772,8 +2591,11 @@
       <c r="F43" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1792,8 +2614,11 @@
       <c r="F44" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1812,8 +2637,11 @@
       <c r="F45" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1832,8 +2660,11 @@
       <c r="F46" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1852,8 +2683,11 @@
       <c r="F47" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1872,8 +2706,11 @@
       <c r="F48" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1892,8 +2729,11 @@
       <c r="F49" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1912,8 +2752,11 @@
       <c r="F50" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1932,8 +2775,11 @@
       <c r="F51" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1952,8 +2798,11 @@
       <c r="F52" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1972,8 +2821,11 @@
       <c r="F53" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1992,8 +2844,11 @@
       <c r="F54" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2012,8 +2867,11 @@
       <c r="F55" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2032,8 +2890,11 @@
       <c r="F56" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2052,8 +2913,11 @@
       <c r="F57" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2072,8 +2936,11 @@
       <c r="F58" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2092,8 +2959,11 @@
       <c r="F59" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2112,8 +2982,11 @@
       <c r="F60" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2132,8 +3005,11 @@
       <c r="F61" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2152,8 +3028,11 @@
       <c r="F62" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2172,8 +3051,11 @@
       <c r="F63" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2192,8 +3074,11 @@
       <c r="F64" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2212,8 +3097,11 @@
       <c r="F65" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2232,8 +3120,11 @@
       <c r="F66" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2252,8 +3143,11 @@
       <c r="F67" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2272,8 +3166,11 @@
       <c r="F68" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2292,8 +3189,11 @@
       <c r="F69" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2312,8 +3212,11 @@
       <c r="F70" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2332,8 +3235,11 @@
       <c r="F71" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2352,8 +3258,11 @@
       <c r="F72" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -2372,8 +3281,11 @@
       <c r="F73" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
@@ -2392,8 +3304,11 @@
       <c r="F74" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2412,8 +3327,11 @@
       <c r="F75" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2432,8 +3350,11 @@
       <c r="F76" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2452,8 +3373,11 @@
       <c r="F77" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -2472,8 +3396,11 @@
       <c r="F78" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2492,8 +3419,11 @@
       <c r="F79" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
@@ -2512,8 +3442,11 @@
       <c r="F80" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -2532,8 +3465,11 @@
       <c r="F81" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
@@ -2552,8 +3488,11 @@
       <c r="F82" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2572,8 +3511,11 @@
       <c r="F83" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2592,8 +3534,11 @@
       <c r="F84" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -2612,8 +3557,11 @@
       <c r="F85" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2</v>
       </c>
@@ -2632,8 +3580,11 @@
       <c r="F86" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -2652,8 +3603,11 @@
       <c r="F87" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2</v>
       </c>
@@ -2672,8 +3626,11 @@
       <c r="F88" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2692,8 +3649,11 @@
       <c r="F89" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2</v>
       </c>
@@ -2712,8 +3672,11 @@
       <c r="F90" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
@@ -2732,8 +3695,11 @@
       <c r="F91" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2</v>
       </c>
@@ -2752,8 +3718,11 @@
       <c r="F92" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2772,8 +3741,11 @@
       <c r="F93" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2</v>
       </c>
@@ -2792,8 +3764,11 @@
       <c r="F94" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2</v>
       </c>
@@ -2812,8 +3787,11 @@
       <c r="F95" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2832,8 +3810,11 @@
       <c r="F96" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2</v>
       </c>
@@ -2852,8 +3833,11 @@
       <c r="F97" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2872,8 +3856,11 @@
       <c r="F98" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2892,8 +3879,11 @@
       <c r="F99" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2</v>
       </c>
@@ -2912,8 +3902,11 @@
       <c r="F100" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2</v>
       </c>
@@ -2932,8 +3925,11 @@
       <c r="F101" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2</v>
       </c>
@@ -2952,8 +3948,11 @@
       <c r="F102" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2972,8 +3971,11 @@
       <c r="F103" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2</v>
       </c>
@@ -2992,8 +3994,11 @@
       <c r="F104" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -3012,8 +4017,11 @@
       <c r="F105" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -3032,8 +4040,11 @@
       <c r="F106" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
@@ -3052,8 +4063,11 @@
       <c r="F107" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2</v>
       </c>
@@ -3072,8 +4086,11 @@
       <c r="F108" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2</v>
       </c>
@@ -3092,8 +4109,11 @@
       <c r="F109" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2</v>
       </c>
@@ -3112,8 +4132,11 @@
       <c r="F110" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -3132,8 +4155,11 @@
       <c r="F111" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2</v>
       </c>
@@ -3152,8 +4178,11 @@
       <c r="F112" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2</v>
       </c>
@@ -3172,8 +4201,11 @@
       <c r="F113" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2</v>
       </c>
@@ -3192,8 +4224,11 @@
       <c r="F114" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2</v>
       </c>
@@ -3212,8 +4247,11 @@
       <c r="F115" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2</v>
       </c>
@@ -3232,8 +4270,11 @@
       <c r="F116" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2</v>
       </c>
@@ -3252,8 +4293,11 @@
       <c r="F117" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2</v>
       </c>
@@ -3272,8 +4316,11 @@
       <c r="F118" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2</v>
       </c>
@@ -3292,8 +4339,11 @@
       <c r="F119" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2</v>
       </c>
@@ -3312,8 +4362,11 @@
       <c r="F120" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2</v>
       </c>
@@ -3332,8 +4385,11 @@
       <c r="F121" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2</v>
       </c>
@@ -3352,8 +4408,11 @@
       <c r="F122" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2</v>
       </c>
@@ -3372,8 +4431,11 @@
       <c r="F123" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2</v>
       </c>
@@ -3392,8 +4454,11 @@
       <c r="F124" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2</v>
       </c>
@@ -3412,8 +4477,11 @@
       <c r="F125" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2</v>
       </c>
@@ -3432,8 +4500,11 @@
       <c r="F126" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2</v>
       </c>
@@ -3452,8 +4523,11 @@
       <c r="F127" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2</v>
       </c>
@@ -3472,8 +4546,11 @@
       <c r="F128" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2</v>
       </c>
@@ -3492,8 +4569,11 @@
       <c r="F129" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2</v>
       </c>
@@ -3512,8 +4592,11 @@
       <c r="F130" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2</v>
       </c>
@@ -3532,8 +4615,11 @@
       <c r="F131" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2</v>
       </c>
@@ -3552,8 +4638,11 @@
       <c r="F132" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2</v>
       </c>
@@ -3572,8 +4661,11 @@
       <c r="F133" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2</v>
       </c>
@@ -3592,8 +4684,11 @@
       <c r="F134" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
@@ -3612,8 +4707,11 @@
       <c r="F135" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2</v>
       </c>
@@ -3632,8 +4730,11 @@
       <c r="F136" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2</v>
       </c>
@@ -3652,8 +4753,11 @@
       <c r="F137" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2</v>
       </c>
@@ -3672,8 +4776,11 @@
       <c r="F138" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2</v>
       </c>
@@ -3692,8 +4799,11 @@
       <c r="F139" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2</v>
       </c>
@@ -3712,8 +4822,11 @@
       <c r="F140" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2</v>
       </c>
@@ -3732,8 +4845,11 @@
       <c r="F141" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2</v>
       </c>
@@ -3752,8 +4868,11 @@
       <c r="F142" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>7</v>
       </c>
@@ -3772,8 +4891,11 @@
       <c r="F143" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>7</v>
       </c>
@@ -3792,8 +4914,11 @@
       <c r="F144" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2</v>
       </c>
@@ -3812,8 +4937,11 @@
       <c r="F145" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -3832,8 +4960,11 @@
       <c r="F146" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -3852,8 +4983,11 @@
       <c r="F147" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -3872,8 +5006,11 @@
       <c r="F148" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
@@ -3892,8 +5029,11 @@
       <c r="F149" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
@@ -3912,8 +5052,11 @@
       <c r="F150" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3932,8 +5075,11 @@
       <c r="F151" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
@@ -3952,8 +5098,11 @@
       <c r="F152" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
@@ -3972,8 +5121,11 @@
       <c r="F153" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
@@ -3992,8 +5144,11 @@
       <c r="F154" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>6</v>
       </c>
@@ -4012,8 +5167,11 @@
       <c r="F155" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6</v>
       </c>
@@ -4032,8 +5190,11 @@
       <c r="F156" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6</v>
       </c>
@@ -4052,8 +5213,11 @@
       <c r="F157" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6</v>
       </c>
@@ -4072,8 +5236,11 @@
       <c r="F158" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4092,8 +5259,11 @@
       <c r="F159" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4112,8 +5282,11 @@
       <c r="F160" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4132,8 +5305,11 @@
       <c r="F161" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4152,8 +5328,11 @@
       <c r="F162" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4172,8 +5351,11 @@
       <c r="F163" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4192,8 +5374,11 @@
       <c r="F164" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4212,8 +5397,11 @@
       <c r="F165" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4232,8 +5420,11 @@
       <c r="F166" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4252,8 +5443,11 @@
       <c r="F167" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4272,8 +5466,11 @@
       <c r="F168" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4292,8 +5489,11 @@
       <c r="F169" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4312,8 +5512,11 @@
       <c r="F170" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4332,8 +5535,11 @@
       <c r="F171" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4352,8 +5558,11 @@
       <c r="F172" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4372,8 +5581,11 @@
       <c r="F173" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4392,8 +5604,11 @@
       <c r="F174" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6</v>
       </c>
@@ -4412,8 +5627,11 @@
       <c r="F175" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>6</v>
       </c>
@@ -4432,8 +5650,11 @@
       <c r="F176" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>6</v>
       </c>
@@ -4452,8 +5673,11 @@
       <c r="F177" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>6</v>
       </c>
@@ -4472,8 +5696,11 @@
       <c r="F178" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>6</v>
       </c>
@@ -4492,8 +5719,11 @@
       <c r="F179" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>6</v>
       </c>
@@ -4512,8 +5742,11 @@
       <c r="F180" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>6</v>
       </c>
@@ -4532,8 +5765,11 @@
       <c r="F181" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>6</v>
       </c>
@@ -4552,8 +5788,11 @@
       <c r="F182" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>6</v>
       </c>
@@ -4572,8 +5811,11 @@
       <c r="F183" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>6</v>
       </c>
@@ -4592,8 +5834,11 @@
       <c r="F184" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>6</v>
       </c>
@@ -4612,8 +5857,11 @@
       <c r="F185" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>6</v>
       </c>
@@ -4632,8 +5880,11 @@
       <c r="F186" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>6</v>
       </c>
@@ -4652,8 +5903,11 @@
       <c r="F187" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>6</v>
       </c>
@@ -4672,8 +5926,11 @@
       <c r="F188" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>6</v>
       </c>
@@ -4692,8 +5949,11 @@
       <c r="F189" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>6</v>
       </c>
@@ -4712,8 +5972,11 @@
       <c r="F190" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>6</v>
       </c>
@@ -4732,8 +5995,11 @@
       <c r="F191" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>6</v>
       </c>
@@ -4752,8 +6018,11 @@
       <c r="F192" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>6</v>
       </c>
@@ -4772,8 +6041,11 @@
       <c r="F193" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>6</v>
       </c>
@@ -4792,8 +6064,11 @@
       <c r="F194" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>8</v>
       </c>
@@ -4812,8 +6087,11 @@
       <c r="F195" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8</v>
       </c>
@@ -4832,8 +6110,11 @@
       <c r="F196" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>8</v>
       </c>
@@ -4852,8 +6133,11 @@
       <c r="F197" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>4</v>
       </c>
@@ -4872,8 +6156,11 @@
       <c r="F198" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>4</v>
       </c>
@@ -4892,8 +6179,11 @@
       <c r="F199" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>4</v>
       </c>
@@ -4912,8 +6202,11 @@
       <c r="F200" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>4</v>
       </c>
@@ -4932,8 +6225,11 @@
       <c r="F201" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>4</v>
       </c>
@@ -4952,8 +6248,11 @@
       <c r="F202" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>4</v>
       </c>
@@ -4972,8 +6271,11 @@
       <c r="F203" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>4</v>
       </c>
@@ -4992,8 +6294,11 @@
       <c r="F204" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4</v>
       </c>
@@ -5012,8 +6317,11 @@
       <c r="F205" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>4</v>
       </c>
@@ -5032,8 +6340,11 @@
       <c r="F206" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>4</v>
       </c>
@@ -5052,8 +6363,11 @@
       <c r="F207" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>4</v>
       </c>
@@ -5072,8 +6386,11 @@
       <c r="F208" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4</v>
       </c>
@@ -5092,8 +6409,11 @@
       <c r="F209" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>4</v>
       </c>
@@ -5112,8 +6432,11 @@
       <c r="F210" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>4</v>
       </c>
@@ -5132,8 +6455,11 @@
       <c r="F211" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4</v>
       </c>
@@ -5152,8 +6478,11 @@
       <c r="F212" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4</v>
       </c>
@@ -5172,8 +6501,11 @@
       <c r="F213" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>4</v>
       </c>
@@ -5192,8 +6524,11 @@
       <c r="F214" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>4</v>
       </c>
@@ -5212,8 +6547,11 @@
       <c r="F215" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>4</v>
       </c>
@@ -5232,8 +6570,11 @@
       <c r="F216" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4</v>
       </c>
@@ -5252,8 +6593,11 @@
       <c r="F217" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4</v>
       </c>
@@ -5272,8 +6616,11 @@
       <c r="F218" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4</v>
       </c>
@@ -5292,8 +6639,11 @@
       <c r="F219" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4</v>
       </c>
@@ -5312,8 +6662,11 @@
       <c r="F220" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4</v>
       </c>
@@ -5332,8 +6685,11 @@
       <c r="F221" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4</v>
       </c>
@@ -5352,8 +6708,11 @@
       <c r="F222" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>6</v>
       </c>
@@ -5372,8 +6731,11 @@
       <c r="F223" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>6</v>
       </c>
@@ -5392,8 +6754,11 @@
       <c r="F224" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>6</v>
       </c>
@@ -5412,8 +6777,11 @@
       <c r="F225" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>6</v>
       </c>
@@ -5432,8 +6800,11 @@
       <c r="F226" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>6</v>
       </c>
@@ -5452,8 +6823,11 @@
       <c r="F227" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>6</v>
       </c>
@@ -5472,8 +6846,11 @@
       <c r="F228" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>6</v>
       </c>
@@ -5492,8 +6869,11 @@
       <c r="F229" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>6</v>
       </c>
@@ -5512,8 +6892,11 @@
       <c r="F230" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>6</v>
       </c>
@@ -5531,6 +6914,9 @@
       </c>
       <c r="F231" t="s">
         <v>177</v>
+      </c>
+      <c r="G231" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1874F47A-C87C-4340-92F7-4CC455DFB6F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991EDA34-C3A8-4D06-997D-169B8F13F638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="460">
   <si>
     <t>Species:</t>
   </si>
@@ -1252,6 +1252,159 @@
   </si>
   <si>
     <t>TCAO010</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>TCMM164</t>
+  </si>
+  <si>
+    <t>TCMM165</t>
+  </si>
+  <si>
+    <t>TCMM166</t>
+  </si>
+  <si>
+    <t>TCMM167</t>
+  </si>
+  <si>
+    <t>TCMM168</t>
+  </si>
+  <si>
+    <t>TCMM169</t>
+  </si>
+  <si>
+    <t>TCMM170</t>
+  </si>
+  <si>
+    <t>TCMM171</t>
+  </si>
+  <si>
+    <t>TCMM172</t>
+  </si>
+  <si>
+    <t>TCMM173</t>
+  </si>
+  <si>
+    <t>TCMM174</t>
+  </si>
+  <si>
+    <t>TCMM175</t>
+  </si>
+  <si>
+    <t>TCMM176</t>
+  </si>
+  <si>
+    <t>TCMM177</t>
+  </si>
+  <si>
+    <t>TCMM178</t>
+  </si>
+  <si>
+    <t>TCMM179</t>
+  </si>
+  <si>
+    <t>TCMM180</t>
+  </si>
+  <si>
+    <t>TCMM181</t>
+  </si>
+  <si>
+    <t>TCMM182</t>
+  </si>
+  <si>
+    <t>TCMM183</t>
+  </si>
+  <si>
+    <t>TCMM184</t>
+  </si>
+  <si>
+    <t>TCMM185</t>
+  </si>
+  <si>
+    <t>TCMM186</t>
+  </si>
+  <si>
+    <t>TCMM187</t>
+  </si>
+  <si>
+    <t>TCMM188</t>
+  </si>
+  <si>
+    <t>TCMM189</t>
+  </si>
+  <si>
+    <t>TCMM190</t>
+  </si>
+  <si>
+    <t>TCMM191</t>
+  </si>
+  <si>
+    <t>TCMM192</t>
+  </si>
+  <si>
+    <t>TCMM193</t>
+  </si>
+  <si>
+    <t>TCMM194</t>
+  </si>
+  <si>
+    <t>TCMM195</t>
+  </si>
+  <si>
+    <t>TCMM196</t>
+  </si>
+  <si>
+    <t>TCMM197</t>
+  </si>
+  <si>
+    <t>TCMM198</t>
+  </si>
+  <si>
+    <t>TCMM199</t>
+  </si>
+  <si>
+    <t>TCMM200</t>
+  </si>
+  <si>
+    <t>TCMM201</t>
+  </si>
+  <si>
+    <t>TCMM202</t>
+  </si>
+  <si>
+    <t>TCMM203</t>
+  </si>
+  <si>
+    <t>TCMM204</t>
+  </si>
+  <si>
+    <t>TCMM205</t>
+  </si>
+  <si>
+    <t>TCMM206</t>
+  </si>
+  <si>
+    <t>TCMM207</t>
+  </si>
+  <si>
+    <t>TCMM208</t>
+  </si>
+  <si>
+    <t>TCMM209</t>
+  </si>
+  <si>
+    <t>TCMM210</t>
+  </si>
+  <si>
+    <t>TCMM211</t>
+  </si>
+  <si>
+    <t>TCMM212</t>
+  </si>
+  <si>
+    <t>TCMM213</t>
   </si>
 </sst>
 </file>
@@ -1593,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" workbookViewId="0">
-      <selection activeCell="G226" sqref="G226:G231"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="53" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D282" sqref="D282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6919,6 +7072,1156 @@
         <v>408</v>
       </c>
     </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>8</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" t="s">
+        <v>26</v>
+      </c>
+      <c r="D232">
+        <v>2</v>
+      </c>
+      <c r="E232" t="s">
+        <v>33</v>
+      </c>
+      <c r="F232" t="s">
+        <v>409</v>
+      </c>
+      <c r="G232" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>8</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233">
+        <v>2</v>
+      </c>
+      <c r="E233" t="s">
+        <v>34</v>
+      </c>
+      <c r="F233" t="s">
+        <v>409</v>
+      </c>
+      <c r="G233" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>8</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234">
+        <v>2</v>
+      </c>
+      <c r="E234" t="s">
+        <v>35</v>
+      </c>
+      <c r="F234" t="s">
+        <v>409</v>
+      </c>
+      <c r="G234" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>8</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" t="s">
+        <v>26</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235" t="s">
+        <v>36</v>
+      </c>
+      <c r="F235" t="s">
+        <v>409</v>
+      </c>
+      <c r="G235" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>8</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C236" t="s">
+        <v>25</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236" t="s">
+        <v>37</v>
+      </c>
+      <c r="F236" t="s">
+        <v>409</v>
+      </c>
+      <c r="G236" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>8</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" t="s">
+        <v>25</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237" t="s">
+        <v>38</v>
+      </c>
+      <c r="F237" t="s">
+        <v>409</v>
+      </c>
+      <c r="G237" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>8</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" t="s">
+        <v>23</v>
+      </c>
+      <c r="D238">
+        <v>2</v>
+      </c>
+      <c r="E238" t="s">
+        <v>39</v>
+      </c>
+      <c r="F238" t="s">
+        <v>409</v>
+      </c>
+      <c r="G238" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>8</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C239" t="s">
+        <v>25</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239" t="s">
+        <v>40</v>
+      </c>
+      <c r="F239" t="s">
+        <v>409</v>
+      </c>
+      <c r="G239" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>8</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C240" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240">
+        <v>2</v>
+      </c>
+      <c r="E240" t="s">
+        <v>41</v>
+      </c>
+      <c r="F240" t="s">
+        <v>409</v>
+      </c>
+      <c r="G240" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>8</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C241" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241" t="s">
+        <v>42</v>
+      </c>
+      <c r="F241" t="s">
+        <v>409</v>
+      </c>
+      <c r="G241" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>8</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C242" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242" t="s">
+        <v>130</v>
+      </c>
+      <c r="F242" t="s">
+        <v>409</v>
+      </c>
+      <c r="G242" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>8</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" t="s">
+        <v>25</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243" t="s">
+        <v>131</v>
+      </c>
+      <c r="F243" t="s">
+        <v>409</v>
+      </c>
+      <c r="G243" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>8</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C244" t="s">
+        <v>30</v>
+      </c>
+      <c r="D244">
+        <v>2</v>
+      </c>
+      <c r="E244" t="s">
+        <v>116</v>
+      </c>
+      <c r="F244" t="s">
+        <v>409</v>
+      </c>
+      <c r="G244" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>8</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C245" t="s">
+        <v>22</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245" t="s">
+        <v>117</v>
+      </c>
+      <c r="F245" t="s">
+        <v>409</v>
+      </c>
+      <c r="G245" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>8</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" t="s">
+        <v>25</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+      <c r="E246" t="s">
+        <v>118</v>
+      </c>
+      <c r="F246" t="s">
+        <v>409</v>
+      </c>
+      <c r="G246" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>8</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C247" t="s">
+        <v>27</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247" t="s">
+        <v>119</v>
+      </c>
+      <c r="F247" t="s">
+        <v>409</v>
+      </c>
+      <c r="G247" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>8</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C248" t="s">
+        <v>25</v>
+      </c>
+      <c r="D248">
+        <v>2</v>
+      </c>
+      <c r="E248" t="s">
+        <v>120</v>
+      </c>
+      <c r="F248" t="s">
+        <v>409</v>
+      </c>
+      <c r="G248" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>8</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C249" t="s">
+        <v>28</v>
+      </c>
+      <c r="D249">
+        <v>2</v>
+      </c>
+      <c r="E249" t="s">
+        <v>121</v>
+      </c>
+      <c r="F249" t="s">
+        <v>409</v>
+      </c>
+      <c r="G249" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>8</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>122</v>
+      </c>
+      <c r="F250" t="s">
+        <v>409</v>
+      </c>
+      <c r="G250" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>8</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" t="s">
+        <v>28</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>123</v>
+      </c>
+      <c r="F251" t="s">
+        <v>409</v>
+      </c>
+      <c r="G251" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>8</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" t="s">
+        <v>27</v>
+      </c>
+      <c r="D252">
+        <v>2</v>
+      </c>
+      <c r="E252" t="s">
+        <v>124</v>
+      </c>
+      <c r="F252" t="s">
+        <v>409</v>
+      </c>
+      <c r="G252" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>8</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C253" t="s">
+        <v>22</v>
+      </c>
+      <c r="D253">
+        <v>2</v>
+      </c>
+      <c r="E253" t="s">
+        <v>125</v>
+      </c>
+      <c r="F253" t="s">
+        <v>409</v>
+      </c>
+      <c r="G253" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>8</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C254" t="s">
+        <v>25</v>
+      </c>
+      <c r="D254">
+        <v>2</v>
+      </c>
+      <c r="E254" t="s">
+        <v>126</v>
+      </c>
+      <c r="F254" t="s">
+        <v>409</v>
+      </c>
+      <c r="G254" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>8</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" t="s">
+        <v>25</v>
+      </c>
+      <c r="D255">
+        <v>2</v>
+      </c>
+      <c r="E255" t="s">
+        <v>127</v>
+      </c>
+      <c r="F255" t="s">
+        <v>409</v>
+      </c>
+      <c r="G255" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>8</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C256" t="s">
+        <v>25</v>
+      </c>
+      <c r="D256">
+        <v>2</v>
+      </c>
+      <c r="E256" t="s">
+        <v>43</v>
+      </c>
+      <c r="F256" t="s">
+        <v>409</v>
+      </c>
+      <c r="G256" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>8</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" t="s">
+        <v>26</v>
+      </c>
+      <c r="D257">
+        <v>2</v>
+      </c>
+      <c r="E257" t="s">
+        <v>44</v>
+      </c>
+      <c r="F257" t="s">
+        <v>409</v>
+      </c>
+      <c r="G257" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>8</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+      <c r="E258" t="s">
+        <v>45</v>
+      </c>
+      <c r="F258" t="s">
+        <v>409</v>
+      </c>
+      <c r="G258" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>8</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" t="s">
+        <v>22</v>
+      </c>
+      <c r="D259">
+        <v>1</v>
+      </c>
+      <c r="E259" t="s">
+        <v>46</v>
+      </c>
+      <c r="F259" t="s">
+        <v>409</v>
+      </c>
+      <c r="G259" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>8</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C260" t="s">
+        <v>22</v>
+      </c>
+      <c r="D260">
+        <v>2</v>
+      </c>
+      <c r="E260" t="s">
+        <v>47</v>
+      </c>
+      <c r="F260" t="s">
+        <v>409</v>
+      </c>
+      <c r="G260" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>8</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" t="s">
+        <v>26</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+      <c r="E261" t="s">
+        <v>48</v>
+      </c>
+      <c r="F261" t="s">
+        <v>409</v>
+      </c>
+      <c r="G261" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>8</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" t="s">
+        <v>22</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+      <c r="E262" t="s">
+        <v>49</v>
+      </c>
+      <c r="F262" t="s">
+        <v>409</v>
+      </c>
+      <c r="G262" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>8</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263" t="s">
+        <v>50</v>
+      </c>
+      <c r="F263" t="s">
+        <v>409</v>
+      </c>
+      <c r="G263" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>8</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" t="s">
+        <v>26</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="E264" t="s">
+        <v>51</v>
+      </c>
+      <c r="F264" t="s">
+        <v>409</v>
+      </c>
+      <c r="G264" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>8</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>22</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+      <c r="E265" t="s">
+        <v>52</v>
+      </c>
+      <c r="F265" t="s">
+        <v>409</v>
+      </c>
+      <c r="G265" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>8</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" t="s">
+        <v>30</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266" t="s">
+        <v>53</v>
+      </c>
+      <c r="F266" t="s">
+        <v>409</v>
+      </c>
+      <c r="G266" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>8</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C267" t="s">
+        <v>26</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267" t="s">
+        <v>54</v>
+      </c>
+      <c r="F267" t="s">
+        <v>409</v>
+      </c>
+      <c r="G267" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>8</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>30</v>
+      </c>
+      <c r="D268">
+        <v>2</v>
+      </c>
+      <c r="E268" t="s">
+        <v>55</v>
+      </c>
+      <c r="F268" t="s">
+        <v>409</v>
+      </c>
+      <c r="G268" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>8</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" t="s">
+        <v>25</v>
+      </c>
+      <c r="D269">
+        <v>2</v>
+      </c>
+      <c r="E269" t="s">
+        <v>56</v>
+      </c>
+      <c r="F269" t="s">
+        <v>409</v>
+      </c>
+      <c r="G269" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>8</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C270" t="s">
+        <v>27</v>
+      </c>
+      <c r="D270">
+        <v>2</v>
+      </c>
+      <c r="E270" t="s">
+        <v>57</v>
+      </c>
+      <c r="F270" t="s">
+        <v>409</v>
+      </c>
+      <c r="G270" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>8</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" t="s">
+        <v>23</v>
+      </c>
+      <c r="D271">
+        <v>2</v>
+      </c>
+      <c r="E271" t="s">
+        <v>58</v>
+      </c>
+      <c r="F271" t="s">
+        <v>409</v>
+      </c>
+      <c r="G271" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>8</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272">
+        <v>2</v>
+      </c>
+      <c r="E272" t="s">
+        <v>59</v>
+      </c>
+      <c r="F272" t="s">
+        <v>409</v>
+      </c>
+      <c r="G272" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>8</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>22</v>
+      </c>
+      <c r="D273">
+        <v>2</v>
+      </c>
+      <c r="E273" t="s">
+        <v>60</v>
+      </c>
+      <c r="F273" t="s">
+        <v>409</v>
+      </c>
+      <c r="G273" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>8</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C274" t="s">
+        <v>30</v>
+      </c>
+      <c r="D274">
+        <v>2</v>
+      </c>
+      <c r="E274" t="s">
+        <v>61</v>
+      </c>
+      <c r="F274" t="s">
+        <v>409</v>
+      </c>
+      <c r="G274" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>8</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" t="s">
+        <v>22</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+      <c r="E275" t="s">
+        <v>62</v>
+      </c>
+      <c r="F275" t="s">
+        <v>409</v>
+      </c>
+      <c r="G275" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>8</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s">
+        <v>25</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276" t="s">
+        <v>63</v>
+      </c>
+      <c r="F276" t="s">
+        <v>409</v>
+      </c>
+      <c r="G276" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>8</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" t="s">
+        <v>25</v>
+      </c>
+      <c r="D277">
+        <v>2</v>
+      </c>
+      <c r="E277" t="s">
+        <v>64</v>
+      </c>
+      <c r="F277" t="s">
+        <v>409</v>
+      </c>
+      <c r="G277" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>8</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" t="s">
+        <v>21</v>
+      </c>
+      <c r="D278">
+        <v>2</v>
+      </c>
+      <c r="E278" t="s">
+        <v>65</v>
+      </c>
+      <c r="F278" t="s">
+        <v>409</v>
+      </c>
+      <c r="G278" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>8</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C279" t="s">
+        <v>31</v>
+      </c>
+      <c r="D279">
+        <v>2</v>
+      </c>
+      <c r="E279" t="s">
+        <v>66</v>
+      </c>
+      <c r="F279" t="s">
+        <v>409</v>
+      </c>
+      <c r="G279" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>8</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" t="s">
+        <v>26</v>
+      </c>
+      <c r="D280">
+        <v>2</v>
+      </c>
+      <c r="E280" t="s">
+        <v>67</v>
+      </c>
+      <c r="F280" t="s">
+        <v>409</v>
+      </c>
+      <c r="G280" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>8</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" t="s">
+        <v>27</v>
+      </c>
+      <c r="D281">
+        <v>2</v>
+      </c>
+      <c r="E281" t="s">
+        <v>68</v>
+      </c>
+      <c r="F281" t="s">
+        <v>409</v>
+      </c>
+      <c r="G281" t="s">
+        <v>459</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991EDA34-C3A8-4D06-997D-169B8F13F638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A800D96-5EBA-4B50-9B19-B1266F3DBA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="467">
   <si>
     <t>Species:</t>
   </si>
@@ -1405,6 +1405,27 @@
   </si>
   <si>
     <t>TCMM213</t>
+  </si>
+  <si>
+    <t>TCAO011</t>
+  </si>
+  <si>
+    <t>Mass (g):</t>
+  </si>
+  <si>
+    <t>37mm SL</t>
+  </si>
+  <si>
+    <t>TCAO012</t>
+  </si>
+  <si>
+    <t>TCAO013</t>
+  </si>
+  <si>
+    <t>TCAO014</t>
+  </si>
+  <si>
+    <t>TCAO015</t>
   </si>
 </sst>
 </file>
@@ -1746,20 +1767,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G281"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="53" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D282" sqref="D282"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="76" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A286" sqref="A286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="3" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1770,19 +1791,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -1792,20 +1816,20 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>141</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -1815,20 +1839,20 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>141</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -1838,20 +1862,20 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>141</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -1861,20 +1885,20 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>141</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1884,20 +1908,20 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>141</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1907,20 +1931,20 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>141</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1930,20 +1954,20 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>141</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1953,20 +1977,20 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>141</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1976,20 +2000,20 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="F10" t="s">
-        <v>142</v>
-      </c>
       <c r="G10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1999,20 +2023,20 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
-        <v>142</v>
-      </c>
       <c r="G11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2022,20 +2046,20 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="F12" t="s">
-        <v>142</v>
-      </c>
       <c r="G12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2045,20 +2069,20 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>36</v>
       </c>
-      <c r="F13" t="s">
-        <v>142</v>
-      </c>
       <c r="G13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2068,20 +2092,20 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
-        <v>142</v>
-      </c>
       <c r="G14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -2091,20 +2115,20 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
         <v>38</v>
       </c>
-      <c r="F15" t="s">
-        <v>142</v>
-      </c>
       <c r="G15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -2114,20 +2138,20 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
-        <v>142</v>
-      </c>
       <c r="G16" t="s">
+        <v>142</v>
+      </c>
+      <c r="H16" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2137,20 +2161,20 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
         <v>40</v>
       </c>
-      <c r="F17" t="s">
-        <v>142</v>
-      </c>
       <c r="G17" t="s">
+        <v>142</v>
+      </c>
+      <c r="H17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2160,20 +2184,20 @@
       <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" t="s">
-        <v>142</v>
-      </c>
       <c r="G18" t="s">
+        <v>142</v>
+      </c>
+      <c r="H18" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2183,20 +2207,20 @@
       <c r="C19" t="s">
         <v>19</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
         <v>42</v>
       </c>
-      <c r="F19" t="s">
-        <v>142</v>
-      </c>
       <c r="G19" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2206,20 +2230,20 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="F20" t="s">
-        <v>142</v>
-      </c>
       <c r="G20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2229,20 +2253,20 @@
       <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="F21" t="s">
-        <v>142</v>
-      </c>
       <c r="G21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2252,20 +2276,20 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
         <v>45</v>
       </c>
-      <c r="F22" t="s">
-        <v>142</v>
-      </c>
       <c r="G22" t="s">
+        <v>142</v>
+      </c>
+      <c r="H22" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2275,20 +2299,20 @@
       <c r="C23" t="s">
         <v>23</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
         <v>46</v>
       </c>
-      <c r="F23" t="s">
-        <v>142</v>
-      </c>
       <c r="G23" t="s">
+        <v>142</v>
+      </c>
+      <c r="H23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2298,20 +2322,20 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>47</v>
       </c>
-      <c r="F24" t="s">
-        <v>142</v>
-      </c>
       <c r="G24" t="s">
+        <v>142</v>
+      </c>
+      <c r="H24" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2321,20 +2345,20 @@
       <c r="C25" t="s">
         <v>25</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
         <v>48</v>
       </c>
-      <c r="F25" t="s">
-        <v>142</v>
-      </c>
       <c r="G25" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2344,20 +2368,20 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
       </c>
-      <c r="F26" t="s">
-        <v>142</v>
-      </c>
       <c r="G26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2367,20 +2391,20 @@
       <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
         <v>50</v>
       </c>
-      <c r="F27" t="s">
-        <v>142</v>
-      </c>
       <c r="G27" t="s">
+        <v>142</v>
+      </c>
+      <c r="H27" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2390,20 +2414,20 @@
       <c r="C28" t="s">
         <v>22</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>51</v>
       </c>
-      <c r="F28" t="s">
-        <v>142</v>
-      </c>
       <c r="G28" t="s">
+        <v>142</v>
+      </c>
+      <c r="H28" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2413,20 +2437,20 @@
       <c r="C29" t="s">
         <v>27</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
         <v>52</v>
       </c>
-      <c r="F29" t="s">
-        <v>142</v>
-      </c>
       <c r="G29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2436,20 +2460,20 @@
       <c r="C30" t="s">
         <v>27</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
         <v>53</v>
       </c>
-      <c r="F30" t="s">
-        <v>142</v>
-      </c>
       <c r="G30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H30" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2459,20 +2483,20 @@
       <c r="C31" t="s">
         <v>28</v>
       </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
         <v>54</v>
       </c>
-      <c r="F31" t="s">
-        <v>142</v>
-      </c>
       <c r="G31" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2482,20 +2506,20 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
         <v>55</v>
       </c>
-      <c r="F32" t="s">
-        <v>142</v>
-      </c>
       <c r="G32" t="s">
+        <v>142</v>
+      </c>
+      <c r="H32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2505,20 +2529,20 @@
       <c r="C33" t="s">
         <v>23</v>
       </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
         <v>56</v>
       </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
       <c r="G33" t="s">
+        <v>142</v>
+      </c>
+      <c r="H33" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2528,20 +2552,20 @@
       <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
         <v>57</v>
       </c>
-      <c r="F34" t="s">
-        <v>142</v>
-      </c>
       <c r="G34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2551,20 +2575,20 @@
       <c r="C35" t="s">
         <v>20</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
         <v>58</v>
       </c>
-      <c r="F35" t="s">
-        <v>142</v>
-      </c>
       <c r="G35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2574,20 +2598,20 @@
       <c r="C36" t="s">
         <v>23</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
         <v>59</v>
       </c>
-      <c r="F36" t="s">
-        <v>142</v>
-      </c>
       <c r="G36" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2597,20 +2621,20 @@
       <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
         <v>60</v>
       </c>
-      <c r="F37" t="s">
-        <v>142</v>
-      </c>
       <c r="G37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H37" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2620,20 +2644,20 @@
       <c r="C38" t="s">
         <v>20</v>
       </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
         <v>61</v>
       </c>
-      <c r="F38" t="s">
-        <v>142</v>
-      </c>
       <c r="G38" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2643,20 +2667,20 @@
       <c r="C39" t="s">
         <v>29</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>62</v>
       </c>
-      <c r="F39" t="s">
-        <v>142</v>
-      </c>
       <c r="G39" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2666,20 +2690,20 @@
       <c r="C40" t="s">
         <v>26</v>
       </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
         <v>63</v>
       </c>
-      <c r="F40" t="s">
-        <v>142</v>
-      </c>
       <c r="G40" t="s">
+        <v>142</v>
+      </c>
+      <c r="H40" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2689,20 +2713,20 @@
       <c r="C41" t="s">
         <v>30</v>
       </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="F41" t="s">
-        <v>142</v>
-      </c>
       <c r="G41" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2712,20 +2736,20 @@
       <c r="C42" t="s">
         <v>30</v>
       </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
         <v>65</v>
       </c>
-      <c r="F42" t="s">
-        <v>142</v>
-      </c>
       <c r="G42" t="s">
+        <v>142</v>
+      </c>
+      <c r="H42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2735,20 +2759,20 @@
       <c r="C43" t="s">
         <v>22</v>
       </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
         <v>66</v>
       </c>
-      <c r="F43" t="s">
-        <v>142</v>
-      </c>
       <c r="G43" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2758,20 +2782,20 @@
       <c r="C44" t="s">
         <v>22</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
         <v>67</v>
       </c>
-      <c r="F44" t="s">
-        <v>142</v>
-      </c>
       <c r="G44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2781,20 +2805,20 @@
       <c r="C45" t="s">
         <v>27</v>
       </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
         <v>68</v>
       </c>
-      <c r="F45" t="s">
-        <v>142</v>
-      </c>
       <c r="G45" t="s">
+        <v>142</v>
+      </c>
+      <c r="H45" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2</v>
       </c>
@@ -2804,20 +2828,20 @@
       <c r="C46" t="s">
         <v>30</v>
       </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
         <v>69</v>
       </c>
-      <c r="F46" t="s">
-        <v>142</v>
-      </c>
       <c r="G46" t="s">
+        <v>142</v>
+      </c>
+      <c r="H46" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2827,20 +2851,20 @@
       <c r="C47" t="s">
         <v>23</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
         <v>70</v>
       </c>
-      <c r="F47" t="s">
-        <v>142</v>
-      </c>
       <c r="G47" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2850,20 +2874,20 @@
       <c r="C48" t="s">
         <v>23</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
         <v>71</v>
       </c>
-      <c r="F48" t="s">
-        <v>142</v>
-      </c>
       <c r="G48" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2873,20 +2897,20 @@
       <c r="C49" t="s">
         <v>22</v>
       </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
         <v>72</v>
       </c>
-      <c r="F49" t="s">
-        <v>142</v>
-      </c>
       <c r="G49" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2896,20 +2920,20 @@
       <c r="C50" t="s">
         <v>18</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
         <v>73</v>
       </c>
-      <c r="F50" t="s">
-        <v>142</v>
-      </c>
       <c r="G50" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2919,20 +2943,20 @@
       <c r="C51" t="s">
         <v>30</v>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
         <v>74</v>
       </c>
-      <c r="F51" t="s">
-        <v>142</v>
-      </c>
       <c r="G51" t="s">
+        <v>142</v>
+      </c>
+      <c r="H51" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2942,20 +2966,20 @@
       <c r="C52" t="s">
         <v>21</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
         <v>75</v>
       </c>
-      <c r="F52" t="s">
-        <v>142</v>
-      </c>
       <c r="G52" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2965,20 +2989,20 @@
       <c r="C53" t="s">
         <v>25</v>
       </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
         <v>76</v>
       </c>
-      <c r="F53" t="s">
-        <v>142</v>
-      </c>
       <c r="G53" t="s">
+        <v>142</v>
+      </c>
+      <c r="H53" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2988,20 +3012,20 @@
       <c r="C54" t="s">
         <v>26</v>
       </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
         <v>77</v>
       </c>
-      <c r="F54" t="s">
-        <v>142</v>
-      </c>
       <c r="G54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H54" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3011,20 +3035,20 @@
       <c r="C55" t="s">
         <v>31</v>
       </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
         <v>78</v>
       </c>
-      <c r="F55" t="s">
-        <v>142</v>
-      </c>
       <c r="G55" t="s">
+        <v>142</v>
+      </c>
+      <c r="H55" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3034,20 +3058,20 @@
       <c r="C56" t="s">
         <v>25</v>
       </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
         <v>79</v>
       </c>
-      <c r="F56" t="s">
-        <v>142</v>
-      </c>
       <c r="G56" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
@@ -3057,20 +3081,20 @@
       <c r="C57" t="s">
         <v>26</v>
       </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
         <v>80</v>
       </c>
-      <c r="F57" t="s">
-        <v>142</v>
-      </c>
       <c r="G57" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3080,20 +3104,20 @@
       <c r="C58" t="s">
         <v>21</v>
       </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58" t="s">
         <v>81</v>
       </c>
-      <c r="F58" t="s">
-        <v>142</v>
-      </c>
       <c r="G58" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3103,20 +3127,20 @@
       <c r="C59" t="s">
         <v>30</v>
       </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59" t="s">
         <v>82</v>
       </c>
-      <c r="F59" t="s">
-        <v>142</v>
-      </c>
       <c r="G59" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3126,20 +3150,20 @@
       <c r="C60" t="s">
         <v>25</v>
       </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
         <v>83</v>
       </c>
-      <c r="F60" t="s">
-        <v>142</v>
-      </c>
       <c r="G60" t="s">
+        <v>142</v>
+      </c>
+      <c r="H60" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3149,20 +3173,20 @@
       <c r="C61" t="s">
         <v>30</v>
       </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
         <v>84</v>
       </c>
-      <c r="F61" t="s">
-        <v>142</v>
-      </c>
       <c r="G61" t="s">
+        <v>142</v>
+      </c>
+      <c r="H61" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3172,20 +3196,20 @@
       <c r="C62" t="s">
         <v>31</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
         <v>85</v>
       </c>
-      <c r="F62" t="s">
-        <v>142</v>
-      </c>
       <c r="G62" t="s">
+        <v>142</v>
+      </c>
+      <c r="H62" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3195,20 +3219,20 @@
       <c r="C63" t="s">
         <v>21</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
         <v>86</v>
       </c>
-      <c r="F63" t="s">
-        <v>142</v>
-      </c>
       <c r="G63" t="s">
+        <v>142</v>
+      </c>
+      <c r="H63" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3218,20 +3242,20 @@
       <c r="C64" t="s">
         <v>23</v>
       </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
         <v>87</v>
       </c>
-      <c r="F64" t="s">
-        <v>142</v>
-      </c>
       <c r="G64" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3241,20 +3265,20 @@
       <c r="C65" t="s">
         <v>25</v>
       </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
         <v>88</v>
       </c>
-      <c r="F65" t="s">
-        <v>142</v>
-      </c>
       <c r="G65" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3264,20 +3288,20 @@
       <c r="C66" t="s">
         <v>23</v>
       </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
         <v>89</v>
       </c>
-      <c r="F66" t="s">
-        <v>142</v>
-      </c>
       <c r="G66" t="s">
+        <v>142</v>
+      </c>
+      <c r="H66" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3287,20 +3311,20 @@
       <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
         <v>90</v>
       </c>
-      <c r="F67" t="s">
-        <v>142</v>
-      </c>
       <c r="G67" t="s">
+        <v>142</v>
+      </c>
+      <c r="H67" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3310,20 +3334,20 @@
       <c r="C68" t="s">
         <v>92</v>
       </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
         <v>91</v>
       </c>
-      <c r="F68" t="s">
-        <v>142</v>
-      </c>
       <c r="G68" t="s">
+        <v>142</v>
+      </c>
+      <c r="H68" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3333,20 +3357,20 @@
       <c r="C69" t="s">
         <v>21</v>
       </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
         <v>93</v>
       </c>
-      <c r="F69" t="s">
-        <v>142</v>
-      </c>
       <c r="G69" t="s">
+        <v>142</v>
+      </c>
+      <c r="H69" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3356,20 +3380,20 @@
       <c r="C70" t="s">
         <v>30</v>
       </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70" t="s">
         <v>94</v>
       </c>
-      <c r="F70" t="s">
-        <v>142</v>
-      </c>
       <c r="G70" t="s">
+        <v>142</v>
+      </c>
+      <c r="H70" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3379,20 +3403,20 @@
       <c r="C71" t="s">
         <v>25</v>
       </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
         <v>95</v>
       </c>
-      <c r="F71" t="s">
-        <v>142</v>
-      </c>
       <c r="G71" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3402,20 +3426,20 @@
       <c r="C72" t="s">
         <v>92</v>
       </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
         <v>96</v>
       </c>
-      <c r="F72" t="s">
-        <v>142</v>
-      </c>
       <c r="G72" t="s">
+        <v>142</v>
+      </c>
+      <c r="H72" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3425,20 +3449,20 @@
       <c r="C73" t="s">
         <v>28</v>
       </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
         <v>97</v>
       </c>
-      <c r="F73" t="s">
-        <v>142</v>
-      </c>
       <c r="G73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3448,20 +3472,20 @@
       <c r="C74" t="s">
         <v>30</v>
       </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
         <v>98</v>
       </c>
-      <c r="F74" t="s">
-        <v>142</v>
-      </c>
       <c r="G74" t="s">
+        <v>142</v>
+      </c>
+      <c r="H74" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3471,20 +3495,20 @@
       <c r="C75" t="s">
         <v>31</v>
       </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
         <v>99</v>
       </c>
-      <c r="F75" t="s">
-        <v>142</v>
-      </c>
       <c r="G75" t="s">
+        <v>142</v>
+      </c>
+      <c r="H75" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3494,20 +3518,20 @@
       <c r="C76" t="s">
         <v>28</v>
       </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
         <v>100</v>
       </c>
-      <c r="F76" t="s">
-        <v>142</v>
-      </c>
       <c r="G76" t="s">
+        <v>142</v>
+      </c>
+      <c r="H76" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2</v>
       </c>
@@ -3517,20 +3541,20 @@
       <c r="C77" t="s">
         <v>22</v>
       </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
         <v>101</v>
       </c>
-      <c r="F77" t="s">
-        <v>142</v>
-      </c>
       <c r="G77" t="s">
+        <v>142</v>
+      </c>
+      <c r="H77" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -3540,20 +3564,20 @@
       <c r="C78" t="s">
         <v>30</v>
       </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
         <v>102</v>
       </c>
-      <c r="F78" t="s">
-        <v>142</v>
-      </c>
       <c r="G78" t="s">
+        <v>142</v>
+      </c>
+      <c r="H78" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2</v>
       </c>
@@ -3563,20 +3587,20 @@
       <c r="C79" t="s">
         <v>23</v>
       </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
         <v>103</v>
       </c>
-      <c r="F79" t="s">
-        <v>142</v>
-      </c>
       <c r="G79" t="s">
+        <v>142</v>
+      </c>
+      <c r="H79" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2</v>
       </c>
@@ -3586,20 +3610,20 @@
       <c r="C80" t="s">
         <v>25</v>
       </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
         <v>104</v>
       </c>
-      <c r="F80" t="s">
-        <v>142</v>
-      </c>
       <c r="G80" t="s">
+        <v>142</v>
+      </c>
+      <c r="H80" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2</v>
       </c>
@@ -3609,20 +3633,20 @@
       <c r="C81" t="s">
         <v>31</v>
       </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
         <v>105</v>
       </c>
-      <c r="F81" t="s">
-        <v>142</v>
-      </c>
       <c r="G81" t="s">
+        <v>142</v>
+      </c>
+      <c r="H81" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2</v>
       </c>
@@ -3632,20 +3656,20 @@
       <c r="C82" t="s">
         <v>30</v>
       </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
         <v>106</v>
       </c>
-      <c r="F82" t="s">
-        <v>142</v>
-      </c>
       <c r="G82" t="s">
+        <v>142</v>
+      </c>
+      <c r="H82" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2</v>
       </c>
@@ -3655,20 +3679,20 @@
       <c r="C83" t="s">
         <v>128</v>
       </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
         <v>107</v>
       </c>
-      <c r="F83" t="s">
-        <v>142</v>
-      </c>
       <c r="G83" t="s">
+        <v>142</v>
+      </c>
+      <c r="H83" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2</v>
       </c>
@@ -3678,20 +3702,20 @@
       <c r="C84" t="s">
         <v>22</v>
       </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
         <v>108</v>
       </c>
-      <c r="F84" t="s">
-        <v>142</v>
-      </c>
       <c r="G84" t="s">
+        <v>142</v>
+      </c>
+      <c r="H84" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2</v>
       </c>
@@ -3701,20 +3725,20 @@
       <c r="C85" t="s">
         <v>21</v>
       </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
         <v>109</v>
       </c>
-      <c r="F85" t="s">
-        <v>142</v>
-      </c>
       <c r="G85" t="s">
+        <v>142</v>
+      </c>
+      <c r="H85" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2</v>
       </c>
@@ -3724,20 +3748,20 @@
       <c r="C86" t="s">
         <v>22</v>
       </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
         <v>110</v>
       </c>
-      <c r="F86" t="s">
-        <v>142</v>
-      </c>
       <c r="G86" t="s">
+        <v>142</v>
+      </c>
+      <c r="H86" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2</v>
       </c>
@@ -3747,20 +3771,20 @@
       <c r="C87" t="s">
         <v>18</v>
       </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
         <v>111</v>
       </c>
-      <c r="F87" t="s">
-        <v>142</v>
-      </c>
       <c r="G87" t="s">
+        <v>142</v>
+      </c>
+      <c r="H87" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2</v>
       </c>
@@ -3770,20 +3794,20 @@
       <c r="C88" t="s">
         <v>25</v>
       </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
         <v>112</v>
       </c>
-      <c r="F88" t="s">
-        <v>142</v>
-      </c>
       <c r="G88" t="s">
+        <v>142</v>
+      </c>
+      <c r="H88" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2</v>
       </c>
@@ -3793,20 +3817,20 @@
       <c r="C89" t="s">
         <v>25</v>
       </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s">
         <v>113</v>
       </c>
-      <c r="F89" t="s">
-        <v>142</v>
-      </c>
       <c r="G89" t="s">
+        <v>142</v>
+      </c>
+      <c r="H89" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2</v>
       </c>
@@ -3816,20 +3840,20 @@
       <c r="C90" t="s">
         <v>25</v>
       </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s">
         <v>114</v>
       </c>
-      <c r="F90" t="s">
-        <v>142</v>
-      </c>
       <c r="G90" t="s">
+        <v>142</v>
+      </c>
+      <c r="H90" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2</v>
       </c>
@@ -3839,20 +3863,20 @@
       <c r="C91" t="s">
         <v>28</v>
       </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="F91" t="s">
-        <v>142</v>
-      </c>
       <c r="G91" t="s">
+        <v>142</v>
+      </c>
+      <c r="H91" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2</v>
       </c>
@@ -3862,20 +3886,20 @@
       <c r="C92" t="s">
         <v>25</v>
       </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
         <v>116</v>
       </c>
-      <c r="F92" t="s">
-        <v>142</v>
-      </c>
       <c r="G92" t="s">
+        <v>142</v>
+      </c>
+      <c r="H92" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2</v>
       </c>
@@ -3885,20 +3909,20 @@
       <c r="C93" t="s">
         <v>22</v>
       </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
         <v>117</v>
       </c>
-      <c r="F93" t="s">
-        <v>142</v>
-      </c>
       <c r="G93" t="s">
+        <v>142</v>
+      </c>
+      <c r="H93" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2</v>
       </c>
@@ -3908,20 +3932,20 @@
       <c r="C94" t="s">
         <v>22</v>
       </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
         <v>118</v>
       </c>
-      <c r="F94" t="s">
-        <v>142</v>
-      </c>
       <c r="G94" t="s">
+        <v>142</v>
+      </c>
+      <c r="H94" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2</v>
       </c>
@@ -3931,20 +3955,20 @@
       <c r="C95" t="s">
         <v>23</v>
       </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
         <v>119</v>
       </c>
-      <c r="F95" t="s">
-        <v>142</v>
-      </c>
       <c r="G95" t="s">
+        <v>142</v>
+      </c>
+      <c r="H95" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3954,20 +3978,20 @@
       <c r="C96" t="s">
         <v>25</v>
       </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
         <v>120</v>
       </c>
-      <c r="F96" t="s">
-        <v>142</v>
-      </c>
       <c r="G96" t="s">
+        <v>142</v>
+      </c>
+      <c r="H96" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2</v>
       </c>
@@ -3977,20 +4001,20 @@
       <c r="C97" t="s">
         <v>26</v>
       </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
         <v>121</v>
       </c>
-      <c r="F97" t="s">
-        <v>142</v>
-      </c>
       <c r="G97" t="s">
+        <v>142</v>
+      </c>
+      <c r="H97" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2</v>
       </c>
@@ -4000,20 +4024,20 @@
       <c r="C98" t="s">
         <v>22</v>
       </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
         <v>122</v>
       </c>
-      <c r="F98" t="s">
-        <v>142</v>
-      </c>
       <c r="G98" t="s">
+        <v>142</v>
+      </c>
+      <c r="H98" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -4023,20 +4047,20 @@
       <c r="C99" t="s">
         <v>22</v>
       </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
         <v>123</v>
       </c>
-      <c r="F99" t="s">
-        <v>142</v>
-      </c>
       <c r="G99" t="s">
+        <v>142</v>
+      </c>
+      <c r="H99" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2</v>
       </c>
@@ -4046,20 +4070,20 @@
       <c r="C100" t="s">
         <v>18</v>
       </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
         <v>124</v>
       </c>
-      <c r="F100" t="s">
-        <v>142</v>
-      </c>
       <c r="G100" t="s">
+        <v>142</v>
+      </c>
+      <c r="H100" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2</v>
       </c>
@@ -4069,20 +4093,20 @@
       <c r="C101" t="s">
         <v>26</v>
       </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
         <v>125</v>
       </c>
-      <c r="F101" t="s">
-        <v>142</v>
-      </c>
       <c r="G101" t="s">
+        <v>142</v>
+      </c>
+      <c r="H101" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2</v>
       </c>
@@ -4092,20 +4116,20 @@
       <c r="C102" t="s">
         <v>31</v>
       </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
         <v>126</v>
       </c>
-      <c r="F102" t="s">
-        <v>142</v>
-      </c>
       <c r="G102" t="s">
+        <v>142</v>
+      </c>
+      <c r="H102" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2</v>
       </c>
@@ -4115,20 +4139,20 @@
       <c r="C103" t="s">
         <v>20</v>
       </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
         <v>127</v>
       </c>
-      <c r="F103" t="s">
-        <v>142</v>
-      </c>
       <c r="G103" t="s">
+        <v>142</v>
+      </c>
+      <c r="H103" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2</v>
       </c>
@@ -4138,20 +4162,20 @@
       <c r="C104" t="s">
         <v>28</v>
       </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
         <v>33</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>143</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2</v>
       </c>
@@ -4161,20 +4185,20 @@
       <c r="C105" t="s">
         <v>30</v>
       </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
         <v>34</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>143</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -4184,20 +4208,20 @@
       <c r="C106" t="s">
         <v>25</v>
       </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
         <v>35</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>143</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2</v>
       </c>
@@ -4207,20 +4231,20 @@
       <c r="C107" t="s">
         <v>21</v>
       </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
         <v>36</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>143</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2</v>
       </c>
@@ -4230,20 +4254,20 @@
       <c r="C108" t="s">
         <v>28</v>
       </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
         <v>37</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>143</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2</v>
       </c>
@@ -4253,20 +4277,20 @@
       <c r="C109" t="s">
         <v>28</v>
       </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
         <v>38</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>143</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2</v>
       </c>
@@ -4276,20 +4300,20 @@
       <c r="C110" t="s">
         <v>92</v>
       </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
         <v>39</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>143</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2</v>
       </c>
@@ -4299,20 +4323,20 @@
       <c r="C111" t="s">
         <v>129</v>
       </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s">
         <v>40</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>143</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2</v>
       </c>
@@ -4322,20 +4346,20 @@
       <c r="C112" t="s">
         <v>26</v>
       </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
         <v>41</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>143</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2</v>
       </c>
@@ -4345,20 +4369,20 @@
       <c r="C113" t="s">
         <v>26</v>
       </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
         <v>42</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>143</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2</v>
       </c>
@@ -4368,20 +4392,20 @@
       <c r="C114" t="s">
         <v>18</v>
       </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
         <v>130</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>143</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2</v>
       </c>
@@ -4391,20 +4415,20 @@
       <c r="C115" t="s">
         <v>21</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>1</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>131</v>
       </c>
-      <c r="F115" t="s">
+      <c r="G115" t="s">
         <v>143</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2</v>
       </c>
@@ -4414,20 +4438,20 @@
       <c r="C116" t="s">
         <v>22</v>
       </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
         <v>116</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>143</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2</v>
       </c>
@@ -4437,20 +4461,20 @@
       <c r="C117" t="s">
         <v>18</v>
       </c>
-      <c r="D117">
-        <v>2</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="E117">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
         <v>117</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>143</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2</v>
       </c>
@@ -4460,20 +4484,20 @@
       <c r="C118" t="s">
         <v>20</v>
       </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
         <v>118</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>143</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2</v>
       </c>
@@ -4483,20 +4507,20 @@
       <c r="C119" t="s">
         <v>27</v>
       </c>
-      <c r="D119">
-        <v>2</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119" t="s">
         <v>119</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>143</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2</v>
       </c>
@@ -4506,20 +4530,20 @@
       <c r="C120" t="s">
         <v>22</v>
       </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120" t="s">
         <v>120</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>143</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2</v>
       </c>
@@ -4529,20 +4553,20 @@
       <c r="C121" t="s">
         <v>18</v>
       </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121" t="s">
         <v>121</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>143</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2</v>
       </c>
@@ -4552,20 +4576,20 @@
       <c r="C122" t="s">
         <v>18</v>
       </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122" t="s">
         <v>122</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>143</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2</v>
       </c>
@@ -4575,20 +4599,20 @@
       <c r="C123" t="s">
         <v>28</v>
       </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" t="s">
         <v>123</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>143</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2</v>
       </c>
@@ -4598,20 +4622,20 @@
       <c r="C124" t="s">
         <v>21</v>
       </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124" t="s">
         <v>124</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>143</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2</v>
       </c>
@@ -4621,20 +4645,20 @@
       <c r="C125" t="s">
         <v>28</v>
       </c>
-      <c r="D125">
-        <v>2</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
         <v>125</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>143</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2</v>
       </c>
@@ -4644,20 +4668,20 @@
       <c r="C126" t="s">
         <v>22</v>
       </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126" t="s">
         <v>126</v>
       </c>
-      <c r="F126" t="s">
+      <c r="G126" t="s">
         <v>143</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2</v>
       </c>
@@ -4667,20 +4691,20 @@
       <c r="C127" t="s">
         <v>25</v>
       </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
         <v>127</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>143</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2</v>
       </c>
@@ -4690,20 +4714,20 @@
       <c r="C128" t="s">
         <v>25</v>
       </c>
-      <c r="D128">
-        <v>2</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128" t="s">
         <v>43</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>143</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2</v>
       </c>
@@ -4713,20 +4737,20 @@
       <c r="C129" t="s">
         <v>23</v>
       </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129" t="s">
         <v>44</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>143</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2</v>
       </c>
@@ -4736,20 +4760,20 @@
       <c r="C130" t="s">
         <v>30</v>
       </c>
-      <c r="D130">
-        <v>2</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130" t="s">
         <v>45</v>
       </c>
-      <c r="F130" t="s">
+      <c r="G130" t="s">
         <v>143</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2</v>
       </c>
@@ -4759,20 +4783,20 @@
       <c r="C131" t="s">
         <v>25</v>
       </c>
-      <c r="D131">
-        <v>2</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131" t="s">
         <v>46</v>
       </c>
-      <c r="F131" t="s">
+      <c r="G131" t="s">
         <v>143</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2</v>
       </c>
@@ -4782,20 +4806,20 @@
       <c r="C132" t="s">
         <v>26</v>
       </c>
-      <c r="D132">
-        <v>2</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132" t="s">
         <v>47</v>
       </c>
-      <c r="F132" t="s">
+      <c r="G132" t="s">
         <v>143</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2</v>
       </c>
@@ -4805,20 +4829,20 @@
       <c r="C133" t="s">
         <v>132</v>
       </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133" t="s">
         <v>43</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>141</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2</v>
       </c>
@@ -4828,20 +4852,20 @@
       <c r="C134" t="s">
         <v>133</v>
       </c>
-      <c r="D134">
-        <v>2</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
         <v>44</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>141</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
@@ -4851,20 +4875,20 @@
       <c r="C135" t="s">
         <v>10</v>
       </c>
-      <c r="D135">
-        <v>2</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
         <v>45</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>141</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2</v>
       </c>
@@ -4874,20 +4898,20 @@
       <c r="C136" t="s">
         <v>134</v>
       </c>
-      <c r="D136">
-        <v>2</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
         <v>46</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>141</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2</v>
       </c>
@@ -4897,20 +4921,20 @@
       <c r="C137" t="s">
         <v>135</v>
       </c>
-      <c r="D137">
-        <v>2</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="E137">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
         <v>47</v>
       </c>
-      <c r="F137" t="s">
+      <c r="G137" t="s">
         <v>141</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2</v>
       </c>
@@ -4920,20 +4944,20 @@
       <c r="C138" t="s">
         <v>136</v>
       </c>
-      <c r="D138">
-        <v>2</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="E138">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
         <v>48</v>
       </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>141</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2</v>
       </c>
@@ -4943,20 +4967,20 @@
       <c r="C139" t="s">
         <v>18</v>
       </c>
-      <c r="D139">
-        <v>2</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="E139">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
         <v>49</v>
       </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>141</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2</v>
       </c>
@@ -4966,20 +4990,20 @@
       <c r="C140" t="s">
         <v>137</v>
       </c>
-      <c r="D140">
-        <v>2</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s">
         <v>50</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>141</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2</v>
       </c>
@@ -4989,20 +5013,20 @@
       <c r="C141" t="s">
         <v>7</v>
       </c>
-      <c r="D141">
-        <v>2</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="F141" t="s">
         <v>51</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>141</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2</v>
       </c>
@@ -5012,20 +5036,20 @@
       <c r="C142" t="s">
         <v>8</v>
       </c>
-      <c r="D142">
-        <v>2</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="E142">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s">
         <v>52</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>141</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>7</v>
       </c>
@@ -5035,20 +5059,20 @@
       <c r="C143" t="s">
         <v>18</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>1</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>67</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>141</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>7</v>
       </c>
@@ -5058,20 +5082,20 @@
       <c r="C144" t="s">
         <v>18</v>
       </c>
-      <c r="D144">
-        <v>2</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="E144">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
         <v>68</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>141</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2</v>
       </c>
@@ -5081,20 +5105,20 @@
       <c r="C145" t="s">
         <v>29</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>1</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>69</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>141</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -5104,20 +5128,20 @@
       <c r="C146" t="s">
         <v>9</v>
       </c>
-      <c r="D146">
-        <v>2</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
         <v>91</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>141</v>
       </c>
-      <c r="G146" t="s">
+      <c r="H146" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -5127,20 +5151,20 @@
       <c r="C147" t="s">
         <v>10</v>
       </c>
-      <c r="D147">
-        <v>2</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
         <v>93</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>141</v>
       </c>
-      <c r="G147" t="s">
+      <c r="H147" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -5150,20 +5174,20 @@
       <c r="C148" t="s">
         <v>11</v>
       </c>
-      <c r="D148">
-        <v>2</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="E148">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
         <v>94</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>141</v>
       </c>
-      <c r="G148" t="s">
+      <c r="H148" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
@@ -5173,20 +5197,20 @@
       <c r="C149" t="s">
         <v>11</v>
       </c>
-      <c r="D149">
-        <v>2</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
         <v>95</v>
       </c>
-      <c r="F149" t="s">
+      <c r="G149" t="s">
         <v>141</v>
       </c>
-      <c r="G149" t="s">
+      <c r="H149" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
@@ -5196,20 +5220,20 @@
       <c r="C150" t="s">
         <v>5</v>
       </c>
-      <c r="D150">
-        <v>2</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
         <v>96</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>141</v>
       </c>
-      <c r="G150" t="s">
+      <c r="H150" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -5219,20 +5243,20 @@
       <c r="C151" t="s">
         <v>144</v>
       </c>
-      <c r="D151">
-        <v>2</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="E151">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
         <v>97</v>
       </c>
-      <c r="F151" t="s">
+      <c r="G151" t="s">
         <v>141</v>
       </c>
-      <c r="G151" t="s">
+      <c r="H151" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
@@ -5242,20 +5266,20 @@
       <c r="C152" t="s">
         <v>145</v>
       </c>
-      <c r="D152">
-        <v>2</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="E152">
+        <v>2</v>
+      </c>
+      <c r="F152" t="s">
         <v>98</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>141</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
@@ -5265,20 +5289,20 @@
       <c r="C153" t="s">
         <v>146</v>
       </c>
-      <c r="D153">
-        <v>2</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153" t="s">
         <v>99</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>141</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
@@ -5288,20 +5312,20 @@
       <c r="C154" t="s">
         <v>9</v>
       </c>
-      <c r="D154">
-        <v>2</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="E154">
+        <v>2</v>
+      </c>
+      <c r="F154" t="s">
         <v>100</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>141</v>
       </c>
-      <c r="G154" t="s">
+      <c r="H154" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>6</v>
       </c>
@@ -5311,20 +5335,20 @@
       <c r="C155" t="s">
         <v>6</v>
       </c>
-      <c r="D155">
-        <v>2</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="E155">
+        <v>2</v>
+      </c>
+      <c r="F155" t="s">
         <v>101</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>141</v>
       </c>
-      <c r="G155" t="s">
+      <c r="H155" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6</v>
       </c>
@@ -5334,20 +5358,20 @@
       <c r="C156" t="s">
         <v>147</v>
       </c>
-      <c r="D156">
-        <v>2</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="E156">
+        <v>2</v>
+      </c>
+      <c r="F156" t="s">
         <v>102</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>141</v>
       </c>
-      <c r="G156" t="s">
+      <c r="H156" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6</v>
       </c>
@@ -5357,20 +5381,20 @@
       <c r="C157" t="s">
         <v>148</v>
       </c>
-      <c r="D157">
-        <v>2</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157" t="s">
         <v>103</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>141</v>
       </c>
-      <c r="G157" t="s">
+      <c r="H157" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6</v>
       </c>
@@ -5380,20 +5404,20 @@
       <c r="C158" t="s">
         <v>5</v>
       </c>
-      <c r="D158">
-        <v>2</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
         <v>104</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>141</v>
       </c>
-      <c r="G158" t="s">
+      <c r="H158" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5403,20 +5427,20 @@
       <c r="C159" t="s">
         <v>18</v>
       </c>
-      <c r="D159">
-        <v>2</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159" t="s">
         <v>55</v>
       </c>
-      <c r="F159" t="s">
+      <c r="G159" t="s">
         <v>143</v>
       </c>
-      <c r="G159" t="s">
+      <c r="H159" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5426,20 +5450,20 @@
       <c r="C160" t="s">
         <v>149</v>
       </c>
-      <c r="D160">
-        <v>2</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
         <v>56</v>
       </c>
-      <c r="F160" t="s">
+      <c r="G160" t="s">
         <v>143</v>
       </c>
-      <c r="G160" t="s">
+      <c r="H160" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5449,20 +5473,20 @@
       <c r="C161" t="s">
         <v>150</v>
       </c>
-      <c r="D161">
-        <v>2</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
         <v>57</v>
       </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>143</v>
       </c>
-      <c r="G161" t="s">
+      <c r="H161" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5472,20 +5496,20 @@
       <c r="C162" t="s">
         <v>151</v>
       </c>
-      <c r="D162">
-        <v>2</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="E162">
+        <v>2</v>
+      </c>
+      <c r="F162" t="s">
         <v>58</v>
       </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>143</v>
       </c>
-      <c r="G162" t="s">
+      <c r="H162" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5495,20 +5519,20 @@
       <c r="C163" t="s">
         <v>152</v>
       </c>
-      <c r="D163">
-        <v>2</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="E163">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s">
         <v>59</v>
       </c>
-      <c r="F163" t="s">
+      <c r="G163" t="s">
         <v>143</v>
       </c>
-      <c r="G163" t="s">
+      <c r="H163" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5518,20 +5542,20 @@
       <c r="C164" t="s">
         <v>151</v>
       </c>
-      <c r="D164">
-        <v>2</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s">
         <v>60</v>
       </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>143</v>
       </c>
-      <c r="G164" t="s">
+      <c r="H164" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5541,20 +5565,20 @@
       <c r="C165" t="s">
         <v>152</v>
       </c>
-      <c r="D165">
-        <v>2</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="E165">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s">
         <v>61</v>
       </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>143</v>
       </c>
-      <c r="G165" t="s">
+      <c r="H165" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -5564,20 +5588,20 @@
       <c r="C166" t="s">
         <v>152</v>
       </c>
-      <c r="D166">
-        <v>2</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166" t="s">
         <v>62</v>
       </c>
-      <c r="F166" t="s">
+      <c r="G166" t="s">
         <v>143</v>
       </c>
-      <c r="G166" t="s">
+      <c r="H166" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -5587,20 +5611,20 @@
       <c r="C167" t="s">
         <v>153</v>
       </c>
-      <c r="D167">
-        <v>2</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="E167">
+        <v>2</v>
+      </c>
+      <c r="F167" t="s">
         <v>63</v>
       </c>
-      <c r="F167" t="s">
+      <c r="G167" t="s">
         <v>143</v>
       </c>
-      <c r="G167" t="s">
+      <c r="H167" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5610,20 +5634,20 @@
       <c r="C168" t="s">
         <v>151</v>
       </c>
-      <c r="D168">
+      <c r="E168">
         <v>1</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>64</v>
       </c>
-      <c r="F168" t="s">
+      <c r="G168" t="s">
         <v>143</v>
       </c>
-      <c r="G168" t="s">
+      <c r="H168" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -5633,20 +5657,20 @@
       <c r="C169" t="s">
         <v>154</v>
       </c>
-      <c r="D169">
+      <c r="E169">
         <v>1</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>65</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>143</v>
       </c>
-      <c r="G169" t="s">
+      <c r="H169" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5656,20 +5680,20 @@
       <c r="C170" t="s">
         <v>151</v>
       </c>
-      <c r="D170">
-        <v>2</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170" t="s">
         <v>66</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>143</v>
       </c>
-      <c r="G170" t="s">
+      <c r="H170" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -5679,20 +5703,20 @@
       <c r="C171" t="s">
         <v>150</v>
       </c>
-      <c r="D171">
-        <v>2</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="E171">
+        <v>2</v>
+      </c>
+      <c r="F171" t="s">
         <v>67</v>
       </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>143</v>
       </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
@@ -5702,20 +5726,20 @@
       <c r="C172" t="s">
         <v>150</v>
       </c>
-      <c r="D172">
-        <v>2</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="E172">
+        <v>2</v>
+      </c>
+      <c r="F172" t="s">
         <v>68</v>
       </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
         <v>143</v>
       </c>
-      <c r="G172" t="s">
+      <c r="H172" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -5725,20 +5749,20 @@
       <c r="C173" t="s">
         <v>151</v>
       </c>
-      <c r="D173">
-        <v>2</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="E173">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s">
         <v>69</v>
       </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>143</v>
       </c>
-      <c r="G173" t="s">
+      <c r="H173" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5748,20 +5772,20 @@
       <c r="C174" t="s">
         <v>134</v>
       </c>
-      <c r="D174">
-        <v>2</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="E174">
+        <v>2</v>
+      </c>
+      <c r="F174" t="s">
         <v>53</v>
       </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
         <v>141</v>
       </c>
-      <c r="G174" t="s">
+      <c r="H174" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6</v>
       </c>
@@ -5771,20 +5795,20 @@
       <c r="C175" t="s">
         <v>145</v>
       </c>
-      <c r="D175">
-        <v>2</v>
-      </c>
-      <c r="E175" t="s">
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175" t="s">
         <v>55</v>
       </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
         <v>141</v>
       </c>
-      <c r="G175" t="s">
+      <c r="H175" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>6</v>
       </c>
@@ -5794,20 +5818,20 @@
       <c r="C176" t="s">
         <v>156</v>
       </c>
-      <c r="D176">
+      <c r="E176">
         <v>1</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>56</v>
       </c>
-      <c r="F176" t="s">
+      <c r="G176" t="s">
         <v>141</v>
       </c>
-      <c r="G176" t="s">
+      <c r="H176" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>6</v>
       </c>
@@ -5817,20 +5841,20 @@
       <c r="C177" t="s">
         <v>145</v>
       </c>
-      <c r="D177">
-        <v>2</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="E177">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
         <v>57</v>
       </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
         <v>141</v>
       </c>
-      <c r="G177" t="s">
+      <c r="H177" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>6</v>
       </c>
@@ -5840,20 +5864,20 @@
       <c r="C178" t="s">
         <v>18</v>
       </c>
-      <c r="D178">
-        <v>2</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="E178">
+        <v>2</v>
+      </c>
+      <c r="F178" t="s">
         <v>58</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
         <v>141</v>
       </c>
-      <c r="G178" t="s">
+      <c r="H178" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>6</v>
       </c>
@@ -5863,20 +5887,20 @@
       <c r="C179" t="s">
         <v>9</v>
       </c>
-      <c r="D179">
-        <v>2</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="E179">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
         <v>59</v>
       </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
         <v>141</v>
       </c>
-      <c r="G179" t="s">
+      <c r="H179" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>6</v>
       </c>
@@ -5886,20 +5910,20 @@
       <c r="C180" t="s">
         <v>157</v>
       </c>
-      <c r="D180">
-        <v>2</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180" t="s">
         <v>60</v>
       </c>
-      <c r="F180" t="s">
+      <c r="G180" t="s">
         <v>141</v>
       </c>
-      <c r="G180" t="s">
+      <c r="H180" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>6</v>
       </c>
@@ -5909,20 +5933,20 @@
       <c r="C181" t="s">
         <v>9</v>
       </c>
-      <c r="D181">
-        <v>2</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="E181">
+        <v>2</v>
+      </c>
+      <c r="F181" t="s">
         <v>61</v>
       </c>
-      <c r="F181" t="s">
+      <c r="G181" t="s">
         <v>141</v>
       </c>
-      <c r="G181" t="s">
+      <c r="H181" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>6</v>
       </c>
@@ -5932,20 +5956,20 @@
       <c r="C182" t="s">
         <v>158</v>
       </c>
-      <c r="D182">
-        <v>2</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182" t="s">
         <v>62</v>
       </c>
-      <c r="F182" t="s">
+      <c r="G182" t="s">
         <v>141</v>
       </c>
-      <c r="G182" t="s">
+      <c r="H182" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>6</v>
       </c>
@@ -5955,20 +5979,20 @@
       <c r="C183" t="s">
         <v>159</v>
       </c>
-      <c r="D183">
-        <v>2</v>
-      </c>
-      <c r="E183" t="s">
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183" t="s">
         <v>63</v>
       </c>
-      <c r="F183" t="s">
+      <c r="G183" t="s">
         <v>141</v>
       </c>
-      <c r="G183" t="s">
+      <c r="H183" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>6</v>
       </c>
@@ -5978,20 +6002,20 @@
       <c r="C184" t="s">
         <v>5</v>
       </c>
-      <c r="D184">
-        <v>2</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184" t="s">
         <v>64</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
         <v>141</v>
       </c>
-      <c r="G184" t="s">
+      <c r="H184" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>6</v>
       </c>
@@ -6001,20 +6025,20 @@
       <c r="C185" t="s">
         <v>160</v>
       </c>
-      <c r="D185">
-        <v>2</v>
-      </c>
-      <c r="E185" t="s">
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185" t="s">
         <v>65</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>141</v>
       </c>
-      <c r="G185" t="s">
+      <c r="H185" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>6</v>
       </c>
@@ -6024,20 +6048,20 @@
       <c r="C186" t="s">
         <v>134</v>
       </c>
-      <c r="D186">
-        <v>2</v>
-      </c>
-      <c r="E186" t="s">
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186" t="s">
         <v>66</v>
       </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>141</v>
       </c>
-      <c r="G186" t="s">
+      <c r="H186" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>6</v>
       </c>
@@ -6047,20 +6071,20 @@
       <c r="C187" t="s">
         <v>161</v>
       </c>
-      <c r="D187">
-        <v>2</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="E187">
+        <v>2</v>
+      </c>
+      <c r="F187" t="s">
         <v>79</v>
       </c>
-      <c r="F187" t="s">
+      <c r="G187" t="s">
         <v>141</v>
       </c>
-      <c r="G187" t="s">
+      <c r="H187" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>6</v>
       </c>
@@ -6070,20 +6094,20 @@
       <c r="C188" t="s">
         <v>162</v>
       </c>
-      <c r="D188">
-        <v>2</v>
-      </c>
-      <c r="E188" t="s">
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188" t="s">
         <v>80</v>
       </c>
-      <c r="F188" t="s">
+      <c r="G188" t="s">
         <v>141</v>
       </c>
-      <c r="G188" t="s">
+      <c r="H188" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>6</v>
       </c>
@@ -6093,20 +6117,20 @@
       <c r="C189" t="s">
         <v>163</v>
       </c>
-      <c r="D189">
-        <v>2</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="E189">
+        <v>2</v>
+      </c>
+      <c r="F189" t="s">
         <v>81</v>
       </c>
-      <c r="F189" t="s">
+      <c r="G189" t="s">
         <v>141</v>
       </c>
-      <c r="G189" t="s">
+      <c r="H189" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>6</v>
       </c>
@@ -6116,20 +6140,20 @@
       <c r="C190" t="s">
         <v>164</v>
       </c>
-      <c r="D190">
-        <v>2</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="E190">
+        <v>2</v>
+      </c>
+      <c r="F190" t="s">
         <v>82</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
         <v>141</v>
       </c>
-      <c r="G190" t="s">
+      <c r="H190" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>6</v>
       </c>
@@ -6139,20 +6163,20 @@
       <c r="C191" t="s">
         <v>165</v>
       </c>
-      <c r="D191">
-        <v>2</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191" t="s">
         <v>83</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
         <v>141</v>
       </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>6</v>
       </c>
@@ -6162,20 +6186,20 @@
       <c r="C192" t="s">
         <v>166</v>
       </c>
-      <c r="D192">
-        <v>2</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192" t="s">
         <v>84</v>
       </c>
-      <c r="F192" t="s">
+      <c r="G192" t="s">
         <v>141</v>
       </c>
-      <c r="G192" t="s">
+      <c r="H192" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>6</v>
       </c>
@@ -6185,20 +6209,20 @@
       <c r="C193" t="s">
         <v>167</v>
       </c>
-      <c r="D193">
-        <v>2</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="E193">
+        <v>2</v>
+      </c>
+      <c r="F193" t="s">
         <v>85</v>
       </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>141</v>
       </c>
-      <c r="G193" t="s">
+      <c r="H193" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>6</v>
       </c>
@@ -6208,20 +6232,20 @@
       <c r="C194" t="s">
         <v>168</v>
       </c>
-      <c r="D194">
-        <v>2</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="E194">
+        <v>2</v>
+      </c>
+      <c r="F194" t="s">
         <v>86</v>
       </c>
-      <c r="F194" t="s">
+      <c r="G194" t="s">
         <v>141</v>
       </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>8</v>
       </c>
@@ -6231,20 +6255,20 @@
       <c r="C195" t="s">
         <v>18</v>
       </c>
-      <c r="D195">
-        <v>2</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="E195">
+        <v>2</v>
+      </c>
+      <c r="F195" t="s">
         <v>70</v>
       </c>
-      <c r="F195" t="s">
+      <c r="G195" t="s">
         <v>141</v>
       </c>
-      <c r="G195" t="s">
+      <c r="H195" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8</v>
       </c>
@@ -6254,20 +6278,20 @@
       <c r="C196" t="s">
         <v>170</v>
       </c>
-      <c r="D196">
-        <v>2</v>
-      </c>
-      <c r="E196" t="s">
+      <c r="E196">
+        <v>2</v>
+      </c>
+      <c r="F196" t="s">
         <v>116</v>
       </c>
-      <c r="F196" t="s">
+      <c r="G196" t="s">
         <v>141</v>
       </c>
-      <c r="G196" t="s">
+      <c r="H196" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>8</v>
       </c>
@@ -6277,20 +6301,20 @@
       <c r="C197" t="s">
         <v>171</v>
       </c>
-      <c r="D197">
-        <v>2</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="E197">
+        <v>2</v>
+      </c>
+      <c r="F197" t="s">
         <v>117</v>
       </c>
-      <c r="F197" t="s">
+      <c r="G197" t="s">
         <v>141</v>
       </c>
-      <c r="G197" t="s">
+      <c r="H197" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>4</v>
       </c>
@@ -6300,20 +6324,20 @@
       <c r="C198" t="s">
         <v>18</v>
       </c>
-      <c r="D198">
-        <v>2</v>
-      </c>
-      <c r="E198" t="s">
+      <c r="E198">
+        <v>2</v>
+      </c>
+      <c r="F198" t="s">
         <v>79</v>
       </c>
-      <c r="F198" t="s">
+      <c r="G198" t="s">
         <v>143</v>
       </c>
-      <c r="G198" t="s">
+      <c r="H198" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>4</v>
       </c>
@@ -6323,20 +6347,20 @@
       <c r="C199" t="s">
         <v>29</v>
       </c>
-      <c r="D199">
-        <v>2</v>
-      </c>
-      <c r="E199" t="s">
+      <c r="E199">
+        <v>2</v>
+      </c>
+      <c r="F199" t="s">
         <v>80</v>
       </c>
-      <c r="F199" t="s">
+      <c r="G199" t="s">
         <v>143</v>
       </c>
-      <c r="G199" t="s">
+      <c r="H199" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>4</v>
       </c>
@@ -6346,20 +6370,20 @@
       <c r="C200" t="s">
         <v>18</v>
       </c>
-      <c r="D200">
-        <v>2</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="E200">
+        <v>2</v>
+      </c>
+      <c r="F200" t="s">
         <v>81</v>
       </c>
-      <c r="F200" t="s">
+      <c r="G200" t="s">
         <v>143</v>
       </c>
-      <c r="G200" t="s">
+      <c r="H200" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>4</v>
       </c>
@@ -6369,20 +6393,20 @@
       <c r="C201" t="s">
         <v>151</v>
       </c>
-      <c r="D201">
-        <v>2</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201" t="s">
         <v>82</v>
       </c>
-      <c r="F201" t="s">
+      <c r="G201" t="s">
         <v>143</v>
       </c>
-      <c r="G201" t="s">
+      <c r="H201" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>4</v>
       </c>
@@ -6392,20 +6416,20 @@
       <c r="C202" t="s">
         <v>154</v>
       </c>
-      <c r="D202">
-        <v>2</v>
-      </c>
-      <c r="E202" t="s">
+      <c r="E202">
+        <v>2</v>
+      </c>
+      <c r="F202" t="s">
         <v>83</v>
       </c>
-      <c r="F202" t="s">
+      <c r="G202" t="s">
         <v>143</v>
       </c>
-      <c r="G202" t="s">
+      <c r="H202" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>4</v>
       </c>
@@ -6415,20 +6439,20 @@
       <c r="C203" t="s">
         <v>150</v>
       </c>
-      <c r="D203">
-        <v>2</v>
-      </c>
-      <c r="E203" t="s">
+      <c r="E203">
+        <v>2</v>
+      </c>
+      <c r="F203" t="s">
         <v>84</v>
       </c>
-      <c r="F203" t="s">
+      <c r="G203" t="s">
         <v>143</v>
       </c>
-      <c r="G203" t="s">
+      <c r="H203" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>4</v>
       </c>
@@ -6438,20 +6462,20 @@
       <c r="C204" t="s">
         <v>18</v>
       </c>
-      <c r="D204">
-        <v>2</v>
-      </c>
-      <c r="E204" t="s">
+      <c r="E204">
+        <v>2</v>
+      </c>
+      <c r="F204" t="s">
         <v>85</v>
       </c>
-      <c r="F204" t="s">
+      <c r="G204" t="s">
         <v>143</v>
       </c>
-      <c r="G204" t="s">
+      <c r="H204" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4</v>
       </c>
@@ -6461,20 +6485,20 @@
       <c r="C205" t="s">
         <v>154</v>
       </c>
-      <c r="D205">
-        <v>2</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="E205">
+        <v>2</v>
+      </c>
+      <c r="F205" t="s">
         <v>86</v>
       </c>
-      <c r="F205" t="s">
+      <c r="G205" t="s">
         <v>143</v>
       </c>
-      <c r="G205" t="s">
+      <c r="H205" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>4</v>
       </c>
@@ -6484,20 +6508,20 @@
       <c r="C206" t="s">
         <v>151</v>
       </c>
-      <c r="D206">
-        <v>2</v>
-      </c>
-      <c r="E206" t="s">
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206" t="s">
         <v>87</v>
       </c>
-      <c r="F206" t="s">
+      <c r="G206" t="s">
         <v>143</v>
       </c>
-      <c r="G206" t="s">
+      <c r="H206" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>4</v>
       </c>
@@ -6507,20 +6531,20 @@
       <c r="C207" t="s">
         <v>173</v>
       </c>
-      <c r="D207">
-        <v>2</v>
-      </c>
-      <c r="E207" t="s">
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207" t="s">
         <v>88</v>
       </c>
-      <c r="F207" t="s">
+      <c r="G207" t="s">
         <v>143</v>
       </c>
-      <c r="G207" t="s">
+      <c r="H207" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>4</v>
       </c>
@@ -6530,20 +6554,20 @@
       <c r="C208" t="s">
         <v>154</v>
       </c>
-      <c r="D208">
-        <v>2</v>
-      </c>
-      <c r="E208" t="s">
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208" t="s">
         <v>89</v>
       </c>
-      <c r="F208" t="s">
+      <c r="G208" t="s">
         <v>143</v>
       </c>
-      <c r="G208" t="s">
+      <c r="H208" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4</v>
       </c>
@@ -6553,20 +6577,20 @@
       <c r="C209" t="s">
         <v>151</v>
       </c>
-      <c r="D209">
-        <v>2</v>
-      </c>
-      <c r="E209" t="s">
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209" t="s">
         <v>90</v>
       </c>
-      <c r="F209" t="s">
+      <c r="G209" t="s">
         <v>143</v>
       </c>
-      <c r="G209" t="s">
+      <c r="H209" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>4</v>
       </c>
@@ -6576,20 +6600,20 @@
       <c r="C210" t="s">
         <v>154</v>
       </c>
-      <c r="D210">
-        <v>2</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="E210">
+        <v>2</v>
+      </c>
+      <c r="F210" t="s">
         <v>91</v>
       </c>
-      <c r="F210" t="s">
+      <c r="G210" t="s">
         <v>143</v>
       </c>
-      <c r="G210" t="s">
+      <c r="H210" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>4</v>
       </c>
@@ -6599,20 +6623,20 @@
       <c r="C211" t="s">
         <v>173</v>
       </c>
-      <c r="D211">
-        <v>2</v>
-      </c>
-      <c r="E211" t="s">
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211" t="s">
         <v>93</v>
       </c>
-      <c r="F211" t="s">
+      <c r="G211" t="s">
         <v>143</v>
       </c>
-      <c r="G211" t="s">
+      <c r="H211" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4</v>
       </c>
@@ -6622,20 +6646,20 @@
       <c r="C212" t="s">
         <v>18</v>
       </c>
-      <c r="D212">
-        <v>2</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="E212">
+        <v>2</v>
+      </c>
+      <c r="F212" t="s">
         <v>94</v>
       </c>
-      <c r="F212" t="s">
+      <c r="G212" t="s">
         <v>143</v>
       </c>
-      <c r="G212" t="s">
+      <c r="H212" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4</v>
       </c>
@@ -6645,20 +6669,20 @@
       <c r="C213" t="s">
         <v>150</v>
       </c>
-      <c r="D213">
-        <v>2</v>
-      </c>
-      <c r="E213" t="s">
+      <c r="E213">
+        <v>2</v>
+      </c>
+      <c r="F213" t="s">
         <v>95</v>
       </c>
-      <c r="F213" t="s">
+      <c r="G213" t="s">
         <v>143</v>
       </c>
-      <c r="G213" t="s">
+      <c r="H213" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>4</v>
       </c>
@@ -6668,20 +6692,20 @@
       <c r="C214" t="s">
         <v>172</v>
       </c>
-      <c r="D214">
-        <v>2</v>
-      </c>
-      <c r="E214" t="s">
+      <c r="E214">
+        <v>2</v>
+      </c>
+      <c r="F214" t="s">
         <v>96</v>
       </c>
-      <c r="F214" t="s">
+      <c r="G214" t="s">
         <v>143</v>
       </c>
-      <c r="G214" t="s">
+      <c r="H214" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>4</v>
       </c>
@@ -6691,20 +6715,20 @@
       <c r="C215" t="s">
         <v>173</v>
       </c>
-      <c r="D215">
-        <v>2</v>
-      </c>
-      <c r="E215" t="s">
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215" t="s">
         <v>97</v>
       </c>
-      <c r="F215" t="s">
+      <c r="G215" t="s">
         <v>143</v>
       </c>
-      <c r="G215" t="s">
+      <c r="H215" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>4</v>
       </c>
@@ -6714,20 +6738,20 @@
       <c r="C216" t="s">
         <v>154</v>
       </c>
-      <c r="D216">
-        <v>2</v>
-      </c>
-      <c r="E216" t="s">
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216" t="s">
         <v>98</v>
       </c>
-      <c r="F216" t="s">
+      <c r="G216" t="s">
         <v>143</v>
       </c>
-      <c r="G216" t="s">
+      <c r="H216" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4</v>
       </c>
@@ -6737,20 +6761,20 @@
       <c r="C217" t="s">
         <v>150</v>
       </c>
-      <c r="D217">
-        <v>2</v>
-      </c>
-      <c r="E217" t="s">
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217" t="s">
         <v>99</v>
       </c>
-      <c r="F217" t="s">
+      <c r="G217" t="s">
         <v>143</v>
       </c>
-      <c r="G217" t="s">
+      <c r="H217" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4</v>
       </c>
@@ -6760,20 +6784,20 @@
       <c r="C218" t="s">
         <v>173</v>
       </c>
-      <c r="D218">
-        <v>2</v>
-      </c>
-      <c r="E218" t="s">
+      <c r="E218">
+        <v>2</v>
+      </c>
+      <c r="F218" t="s">
         <v>100</v>
       </c>
-      <c r="F218" t="s">
+      <c r="G218" t="s">
         <v>143</v>
       </c>
-      <c r="G218" t="s">
+      <c r="H218" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4</v>
       </c>
@@ -6783,20 +6807,20 @@
       <c r="C219" t="s">
         <v>152</v>
       </c>
-      <c r="D219">
-        <v>2</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="E219">
+        <v>2</v>
+      </c>
+      <c r="F219" t="s">
         <v>101</v>
       </c>
-      <c r="F219" t="s">
+      <c r="G219" t="s">
         <v>143</v>
       </c>
-      <c r="G219" t="s">
+      <c r="H219" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4</v>
       </c>
@@ -6806,20 +6830,20 @@
       <c r="C220" t="s">
         <v>149</v>
       </c>
-      <c r="D220">
-        <v>2</v>
-      </c>
-      <c r="E220" t="s">
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220" t="s">
         <v>102</v>
       </c>
-      <c r="F220" t="s">
+      <c r="G220" t="s">
         <v>143</v>
       </c>
-      <c r="G220" t="s">
+      <c r="H220" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4</v>
       </c>
@@ -6829,20 +6853,20 @@
       <c r="C221" t="s">
         <v>144</v>
       </c>
-      <c r="D221">
-        <v>2</v>
-      </c>
-      <c r="E221" t="s">
+      <c r="E221">
+        <v>2</v>
+      </c>
+      <c r="F221" t="s">
         <v>103</v>
       </c>
-      <c r="F221" t="s">
+      <c r="G221" t="s">
         <v>143</v>
       </c>
-      <c r="G221" t="s">
+      <c r="H221" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4</v>
       </c>
@@ -6852,20 +6876,20 @@
       <c r="C222" t="s">
         <v>174</v>
       </c>
-      <c r="D222">
-        <v>2</v>
-      </c>
-      <c r="E222" t="s">
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222" t="s">
         <v>104</v>
       </c>
-      <c r="F222" t="s">
+      <c r="G222" t="s">
         <v>143</v>
       </c>
-      <c r="G222" t="s">
+      <c r="H222" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>6</v>
       </c>
@@ -6875,20 +6899,20 @@
       <c r="C223" t="s">
         <v>129</v>
       </c>
-      <c r="D223">
-        <v>2</v>
-      </c>
-      <c r="E223" t="s">
+      <c r="E223">
+        <v>2</v>
+      </c>
+      <c r="F223" t="s">
         <v>113</v>
       </c>
-      <c r="F223" t="s">
+      <c r="G223" t="s">
         <v>143</v>
       </c>
-      <c r="G223" t="s">
+      <c r="H223" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>6</v>
       </c>
@@ -6898,20 +6922,20 @@
       <c r="C224" t="s">
         <v>176</v>
       </c>
-      <c r="D224">
-        <v>2</v>
-      </c>
-      <c r="E224" t="s">
+      <c r="E224">
+        <v>2</v>
+      </c>
+      <c r="F224" t="s">
         <v>114</v>
       </c>
-      <c r="F224" t="s">
+      <c r="G224" t="s">
         <v>143</v>
       </c>
-      <c r="G224" t="s">
+      <c r="H224" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>6</v>
       </c>
@@ -6921,20 +6945,20 @@
       <c r="C225" t="s">
         <v>18</v>
       </c>
-      <c r="D225">
-        <v>2</v>
-      </c>
-      <c r="E225" t="s">
+      <c r="E225">
+        <v>2</v>
+      </c>
+      <c r="F225" t="s">
         <v>115</v>
       </c>
-      <c r="F225" t="s">
+      <c r="G225" t="s">
         <v>143</v>
       </c>
-      <c r="G225" t="s">
+      <c r="H225" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>6</v>
       </c>
@@ -6944,20 +6968,20 @@
       <c r="C226" t="s">
         <v>153</v>
       </c>
-      <c r="D226">
+      <c r="E226">
         <v>1</v>
       </c>
-      <c r="E226" t="s">
+      <c r="F226" t="s">
         <v>33</v>
       </c>
-      <c r="F226" t="s">
+      <c r="G226" t="s">
         <v>177</v>
       </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>6</v>
       </c>
@@ -6967,20 +6991,20 @@
       <c r="C227" t="s">
         <v>154</v>
       </c>
-      <c r="D227">
+      <c r="E227">
         <v>1</v>
       </c>
-      <c r="E227" t="s">
+      <c r="F227" t="s">
         <v>34</v>
       </c>
-      <c r="F227" t="s">
+      <c r="G227" t="s">
         <v>177</v>
       </c>
-      <c r="G227" t="s">
+      <c r="H227" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>6</v>
       </c>
@@ -6990,20 +7014,20 @@
       <c r="C228" t="s">
         <v>173</v>
       </c>
-      <c r="D228">
-        <v>2</v>
-      </c>
-      <c r="E228" t="s">
+      <c r="E228">
+        <v>2</v>
+      </c>
+      <c r="F228" t="s">
         <v>35</v>
       </c>
-      <c r="F228" t="s">
+      <c r="G228" t="s">
         <v>177</v>
       </c>
-      <c r="G228" t="s">
+      <c r="H228" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>6</v>
       </c>
@@ -7013,20 +7037,20 @@
       <c r="C229" t="s">
         <v>153</v>
       </c>
-      <c r="D229">
-        <v>2</v>
-      </c>
-      <c r="E229" t="s">
+      <c r="E229">
+        <v>2</v>
+      </c>
+      <c r="F229" t="s">
         <v>36</v>
       </c>
-      <c r="F229" t="s">
+      <c r="G229" t="s">
         <v>177</v>
       </c>
-      <c r="G229" t="s">
+      <c r="H229" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>6</v>
       </c>
@@ -7036,20 +7060,20 @@
       <c r="C230" t="s">
         <v>144</v>
       </c>
-      <c r="D230">
+      <c r="E230">
         <v>1</v>
       </c>
-      <c r="E230" t="s">
+      <c r="F230" t="s">
         <v>37</v>
       </c>
-      <c r="F230" t="s">
+      <c r="G230" t="s">
         <v>177</v>
       </c>
-      <c r="G230" t="s">
+      <c r="H230" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>6</v>
       </c>
@@ -7059,20 +7083,20 @@
       <c r="C231" t="s">
         <v>18</v>
       </c>
-      <c r="D231">
-        <v>2</v>
-      </c>
-      <c r="E231" t="s">
+      <c r="E231">
+        <v>2</v>
+      </c>
+      <c r="F231" t="s">
         <v>38</v>
       </c>
-      <c r="F231" t="s">
+      <c r="G231" t="s">
         <v>177</v>
       </c>
-      <c r="G231" t="s">
+      <c r="H231" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>8</v>
       </c>
@@ -7082,20 +7106,20 @@
       <c r="C232" t="s">
         <v>26</v>
       </c>
-      <c r="D232">
-        <v>2</v>
-      </c>
-      <c r="E232" t="s">
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232" t="s">
         <v>33</v>
       </c>
-      <c r="F232" t="s">
+      <c r="G232" t="s">
         <v>409</v>
       </c>
-      <c r="G232" t="s">
+      <c r="H232" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>8</v>
       </c>
@@ -7105,20 +7129,20 @@
       <c r="C233" t="s">
         <v>28</v>
       </c>
-      <c r="D233">
-        <v>2</v>
-      </c>
-      <c r="E233" t="s">
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233" t="s">
         <v>34</v>
       </c>
-      <c r="F233" t="s">
+      <c r="G233" t="s">
         <v>409</v>
       </c>
-      <c r="G233" t="s">
+      <c r="H233" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>8</v>
       </c>
@@ -7128,20 +7152,20 @@
       <c r="C234" t="s">
         <v>22</v>
       </c>
-      <c r="D234">
-        <v>2</v>
-      </c>
-      <c r="E234" t="s">
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234" t="s">
         <v>35</v>
       </c>
-      <c r="F234" t="s">
+      <c r="G234" t="s">
         <v>409</v>
       </c>
-      <c r="G234" t="s">
+      <c r="H234" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>8</v>
       </c>
@@ -7151,20 +7175,20 @@
       <c r="C235" t="s">
         <v>26</v>
       </c>
-      <c r="D235">
-        <v>2</v>
-      </c>
-      <c r="E235" t="s">
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235" t="s">
         <v>36</v>
       </c>
-      <c r="F235" t="s">
+      <c r="G235" t="s">
         <v>409</v>
       </c>
-      <c r="G235" t="s">
+      <c r="H235" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>8</v>
       </c>
@@ -7174,20 +7198,20 @@
       <c r="C236" t="s">
         <v>25</v>
       </c>
-      <c r="D236">
-        <v>2</v>
-      </c>
-      <c r="E236" t="s">
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236" t="s">
         <v>37</v>
       </c>
-      <c r="F236" t="s">
+      <c r="G236" t="s">
         <v>409</v>
       </c>
-      <c r="G236" t="s">
+      <c r="H236" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>8</v>
       </c>
@@ -7197,20 +7221,20 @@
       <c r="C237" t="s">
         <v>25</v>
       </c>
-      <c r="D237">
-        <v>2</v>
-      </c>
-      <c r="E237" t="s">
+      <c r="E237">
+        <v>2</v>
+      </c>
+      <c r="F237" t="s">
         <v>38</v>
       </c>
-      <c r="F237" t="s">
+      <c r="G237" t="s">
         <v>409</v>
       </c>
-      <c r="G237" t="s">
+      <c r="H237" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>8</v>
       </c>
@@ -7220,20 +7244,20 @@
       <c r="C238" t="s">
         <v>23</v>
       </c>
-      <c r="D238">
-        <v>2</v>
-      </c>
-      <c r="E238" t="s">
+      <c r="E238">
+        <v>2</v>
+      </c>
+      <c r="F238" t="s">
         <v>39</v>
       </c>
-      <c r="F238" t="s">
+      <c r="G238" t="s">
         <v>409</v>
       </c>
-      <c r="G238" t="s">
+      <c r="H238" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>8</v>
       </c>
@@ -7243,20 +7267,20 @@
       <c r="C239" t="s">
         <v>25</v>
       </c>
-      <c r="D239">
-        <v>2</v>
-      </c>
-      <c r="E239" t="s">
+      <c r="E239">
+        <v>2</v>
+      </c>
+      <c r="F239" t="s">
         <v>40</v>
       </c>
-      <c r="F239" t="s">
+      <c r="G239" t="s">
         <v>409</v>
       </c>
-      <c r="G239" t="s">
+      <c r="H239" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>8</v>
       </c>
@@ -7266,20 +7290,20 @@
       <c r="C240" t="s">
         <v>25</v>
       </c>
-      <c r="D240">
-        <v>2</v>
-      </c>
-      <c r="E240" t="s">
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240" t="s">
         <v>41</v>
       </c>
-      <c r="F240" t="s">
+      <c r="G240" t="s">
         <v>409</v>
       </c>
-      <c r="G240" t="s">
+      <c r="H240" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>8</v>
       </c>
@@ -7289,20 +7313,20 @@
       <c r="C241" t="s">
         <v>21</v>
       </c>
-      <c r="D241">
-        <v>2</v>
-      </c>
-      <c r="E241" t="s">
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241" t="s">
         <v>42</v>
       </c>
-      <c r="F241" t="s">
+      <c r="G241" t="s">
         <v>409</v>
       </c>
-      <c r="G241" t="s">
+      <c r="H241" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>8</v>
       </c>
@@ -7312,20 +7336,20 @@
       <c r="C242" t="s">
         <v>22</v>
       </c>
-      <c r="D242">
-        <v>2</v>
-      </c>
-      <c r="E242" t="s">
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242" t="s">
         <v>130</v>
       </c>
-      <c r="F242" t="s">
+      <c r="G242" t="s">
         <v>409</v>
       </c>
-      <c r="G242" t="s">
+      <c r="H242" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>8</v>
       </c>
@@ -7335,20 +7359,20 @@
       <c r="C243" t="s">
         <v>25</v>
       </c>
-      <c r="D243">
-        <v>2</v>
-      </c>
-      <c r="E243" t="s">
+      <c r="E243">
+        <v>2</v>
+      </c>
+      <c r="F243" t="s">
         <v>131</v>
       </c>
-      <c r="F243" t="s">
+      <c r="G243" t="s">
         <v>409</v>
       </c>
-      <c r="G243" t="s">
+      <c r="H243" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>8</v>
       </c>
@@ -7358,20 +7382,20 @@
       <c r="C244" t="s">
         <v>30</v>
       </c>
-      <c r="D244">
-        <v>2</v>
-      </c>
-      <c r="E244" t="s">
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244" t="s">
         <v>116</v>
       </c>
-      <c r="F244" t="s">
+      <c r="G244" t="s">
         <v>409</v>
       </c>
-      <c r="G244" t="s">
+      <c r="H244" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>8</v>
       </c>
@@ -7381,20 +7405,20 @@
       <c r="C245" t="s">
         <v>22</v>
       </c>
-      <c r="D245">
-        <v>2</v>
-      </c>
-      <c r="E245" t="s">
+      <c r="E245">
+        <v>2</v>
+      </c>
+      <c r="F245" t="s">
         <v>117</v>
       </c>
-      <c r="F245" t="s">
+      <c r="G245" t="s">
         <v>409</v>
       </c>
-      <c r="G245" t="s">
+      <c r="H245" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>8</v>
       </c>
@@ -7404,20 +7428,20 @@
       <c r="C246" t="s">
         <v>25</v>
       </c>
-      <c r="D246">
-        <v>2</v>
-      </c>
-      <c r="E246" t="s">
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246" t="s">
         <v>118</v>
       </c>
-      <c r="F246" t="s">
+      <c r="G246" t="s">
         <v>409</v>
       </c>
-      <c r="G246" t="s">
+      <c r="H246" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>8</v>
       </c>
@@ -7427,20 +7451,20 @@
       <c r="C247" t="s">
         <v>27</v>
       </c>
-      <c r="D247">
+      <c r="E247">
         <v>1</v>
       </c>
-      <c r="E247" t="s">
+      <c r="F247" t="s">
         <v>119</v>
       </c>
-      <c r="F247" t="s">
+      <c r="G247" t="s">
         <v>409</v>
       </c>
-      <c r="G247" t="s">
+      <c r="H247" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>8</v>
       </c>
@@ -7450,20 +7474,20 @@
       <c r="C248" t="s">
         <v>25</v>
       </c>
-      <c r="D248">
-        <v>2</v>
-      </c>
-      <c r="E248" t="s">
+      <c r="E248">
+        <v>2</v>
+      </c>
+      <c r="F248" t="s">
         <v>120</v>
       </c>
-      <c r="F248" t="s">
+      <c r="G248" t="s">
         <v>409</v>
       </c>
-      <c r="G248" t="s">
+      <c r="H248" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>8</v>
       </c>
@@ -7473,20 +7497,20 @@
       <c r="C249" t="s">
         <v>28</v>
       </c>
-      <c r="D249">
-        <v>2</v>
-      </c>
-      <c r="E249" t="s">
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249" t="s">
         <v>121</v>
       </c>
-      <c r="F249" t="s">
+      <c r="G249" t="s">
         <v>409</v>
       </c>
-      <c r="G249" t="s">
+      <c r="H249" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>8</v>
       </c>
@@ -7496,20 +7520,20 @@
       <c r="C250" t="s">
         <v>21</v>
       </c>
-      <c r="D250">
+      <c r="E250">
         <v>1</v>
       </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
         <v>122</v>
       </c>
-      <c r="F250" t="s">
+      <c r="G250" t="s">
         <v>409</v>
       </c>
-      <c r="G250" t="s">
+      <c r="H250" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>8</v>
       </c>
@@ -7519,20 +7543,20 @@
       <c r="C251" t="s">
         <v>28</v>
       </c>
-      <c r="D251">
+      <c r="E251">
         <v>1</v>
       </c>
-      <c r="E251" t="s">
+      <c r="F251" t="s">
         <v>123</v>
       </c>
-      <c r="F251" t="s">
+      <c r="G251" t="s">
         <v>409</v>
       </c>
-      <c r="G251" t="s">
+      <c r="H251" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>8</v>
       </c>
@@ -7542,20 +7566,20 @@
       <c r="C252" t="s">
         <v>27</v>
       </c>
-      <c r="D252">
-        <v>2</v>
-      </c>
-      <c r="E252" t="s">
+      <c r="E252">
+        <v>2</v>
+      </c>
+      <c r="F252" t="s">
         <v>124</v>
       </c>
-      <c r="F252" t="s">
+      <c r="G252" t="s">
         <v>409</v>
       </c>
-      <c r="G252" t="s">
+      <c r="H252" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>8</v>
       </c>
@@ -7565,20 +7589,20 @@
       <c r="C253" t="s">
         <v>22</v>
       </c>
-      <c r="D253">
-        <v>2</v>
-      </c>
-      <c r="E253" t="s">
+      <c r="E253">
+        <v>2</v>
+      </c>
+      <c r="F253" t="s">
         <v>125</v>
       </c>
-      <c r="F253" t="s">
+      <c r="G253" t="s">
         <v>409</v>
       </c>
-      <c r="G253" t="s">
+      <c r="H253" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>8</v>
       </c>
@@ -7588,20 +7612,20 @@
       <c r="C254" t="s">
         <v>25</v>
       </c>
-      <c r="D254">
-        <v>2</v>
-      </c>
-      <c r="E254" t="s">
+      <c r="E254">
+        <v>2</v>
+      </c>
+      <c r="F254" t="s">
         <v>126</v>
       </c>
-      <c r="F254" t="s">
+      <c r="G254" t="s">
         <v>409</v>
       </c>
-      <c r="G254" t="s">
+      <c r="H254" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>8</v>
       </c>
@@ -7611,20 +7635,20 @@
       <c r="C255" t="s">
         <v>25</v>
       </c>
-      <c r="D255">
-        <v>2</v>
-      </c>
-      <c r="E255" t="s">
+      <c r="E255">
+        <v>2</v>
+      </c>
+      <c r="F255" t="s">
         <v>127</v>
       </c>
-      <c r="F255" t="s">
+      <c r="G255" t="s">
         <v>409</v>
       </c>
-      <c r="G255" t="s">
+      <c r="H255" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>8</v>
       </c>
@@ -7634,20 +7658,20 @@
       <c r="C256" t="s">
         <v>25</v>
       </c>
-      <c r="D256">
-        <v>2</v>
-      </c>
-      <c r="E256" t="s">
+      <c r="E256">
+        <v>2</v>
+      </c>
+      <c r="F256" t="s">
         <v>43</v>
       </c>
-      <c r="F256" t="s">
+      <c r="G256" t="s">
         <v>409</v>
       </c>
-      <c r="G256" t="s">
+      <c r="H256" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>8</v>
       </c>
@@ -7657,20 +7681,20 @@
       <c r="C257" t="s">
         <v>26</v>
       </c>
-      <c r="D257">
-        <v>2</v>
-      </c>
-      <c r="E257" t="s">
+      <c r="E257">
+        <v>2</v>
+      </c>
+      <c r="F257" t="s">
         <v>44</v>
       </c>
-      <c r="F257" t="s">
+      <c r="G257" t="s">
         <v>409</v>
       </c>
-      <c r="G257" t="s">
+      <c r="H257" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>8</v>
       </c>
@@ -7680,20 +7704,20 @@
       <c r="C258" t="s">
         <v>28</v>
       </c>
-      <c r="D258">
-        <v>2</v>
-      </c>
-      <c r="E258" t="s">
+      <c r="E258">
+        <v>2</v>
+      </c>
+      <c r="F258" t="s">
         <v>45</v>
       </c>
-      <c r="F258" t="s">
+      <c r="G258" t="s">
         <v>409</v>
       </c>
-      <c r="G258" t="s">
+      <c r="H258" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>8</v>
       </c>
@@ -7703,20 +7727,20 @@
       <c r="C259" t="s">
         <v>22</v>
       </c>
-      <c r="D259">
+      <c r="E259">
         <v>1</v>
       </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
         <v>46</v>
       </c>
-      <c r="F259" t="s">
+      <c r="G259" t="s">
         <v>409</v>
       </c>
-      <c r="G259" t="s">
+      <c r="H259" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>8</v>
       </c>
@@ -7726,20 +7750,20 @@
       <c r="C260" t="s">
         <v>22</v>
       </c>
-      <c r="D260">
-        <v>2</v>
-      </c>
-      <c r="E260" t="s">
+      <c r="E260">
+        <v>2</v>
+      </c>
+      <c r="F260" t="s">
         <v>47</v>
       </c>
-      <c r="F260" t="s">
+      <c r="G260" t="s">
         <v>409</v>
       </c>
-      <c r="G260" t="s">
+      <c r="H260" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>8</v>
       </c>
@@ -7749,20 +7773,20 @@
       <c r="C261" t="s">
         <v>26</v>
       </c>
-      <c r="D261">
-        <v>2</v>
-      </c>
-      <c r="E261" t="s">
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261" t="s">
         <v>48</v>
       </c>
-      <c r="F261" t="s">
+      <c r="G261" t="s">
         <v>409</v>
       </c>
-      <c r="G261" t="s">
+      <c r="H261" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>8</v>
       </c>
@@ -7772,20 +7796,20 @@
       <c r="C262" t="s">
         <v>22</v>
       </c>
-      <c r="D262">
-        <v>2</v>
-      </c>
-      <c r="E262" t="s">
+      <c r="E262">
+        <v>2</v>
+      </c>
+      <c r="F262" t="s">
         <v>49</v>
       </c>
-      <c r="F262" t="s">
+      <c r="G262" t="s">
         <v>409</v>
       </c>
-      <c r="G262" t="s">
+      <c r="H262" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>8</v>
       </c>
@@ -7795,20 +7819,20 @@
       <c r="C263" t="s">
         <v>28</v>
       </c>
-      <c r="D263">
-        <v>2</v>
-      </c>
-      <c r="E263" t="s">
+      <c r="E263">
+        <v>2</v>
+      </c>
+      <c r="F263" t="s">
         <v>50</v>
       </c>
-      <c r="F263" t="s">
+      <c r="G263" t="s">
         <v>409</v>
       </c>
-      <c r="G263" t="s">
+      <c r="H263" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>8</v>
       </c>
@@ -7818,20 +7842,20 @@
       <c r="C264" t="s">
         <v>26</v>
       </c>
-      <c r="D264">
-        <v>2</v>
-      </c>
-      <c r="E264" t="s">
+      <c r="E264">
+        <v>2</v>
+      </c>
+      <c r="F264" t="s">
         <v>51</v>
       </c>
-      <c r="F264" t="s">
+      <c r="G264" t="s">
         <v>409</v>
       </c>
-      <c r="G264" t="s">
+      <c r="H264" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>8</v>
       </c>
@@ -7841,20 +7865,20 @@
       <c r="C265" t="s">
         <v>22</v>
       </c>
-      <c r="D265">
-        <v>2</v>
-      </c>
-      <c r="E265" t="s">
+      <c r="E265">
+        <v>2</v>
+      </c>
+      <c r="F265" t="s">
         <v>52</v>
       </c>
-      <c r="F265" t="s">
+      <c r="G265" t="s">
         <v>409</v>
       </c>
-      <c r="G265" t="s">
+      <c r="H265" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>8</v>
       </c>
@@ -7864,20 +7888,20 @@
       <c r="C266" t="s">
         <v>30</v>
       </c>
-      <c r="D266">
-        <v>2</v>
-      </c>
-      <c r="E266" t="s">
+      <c r="E266">
+        <v>2</v>
+      </c>
+      <c r="F266" t="s">
         <v>53</v>
       </c>
-      <c r="F266" t="s">
+      <c r="G266" t="s">
         <v>409</v>
       </c>
-      <c r="G266" t="s">
+      <c r="H266" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>8</v>
       </c>
@@ -7887,20 +7911,20 @@
       <c r="C267" t="s">
         <v>26</v>
       </c>
-      <c r="D267">
-        <v>2</v>
-      </c>
-      <c r="E267" t="s">
+      <c r="E267">
+        <v>2</v>
+      </c>
+      <c r="F267" t="s">
         <v>54</v>
       </c>
-      <c r="F267" t="s">
+      <c r="G267" t="s">
         <v>409</v>
       </c>
-      <c r="G267" t="s">
+      <c r="H267" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>8</v>
       </c>
@@ -7910,20 +7934,20 @@
       <c r="C268" t="s">
         <v>30</v>
       </c>
-      <c r="D268">
-        <v>2</v>
-      </c>
-      <c r="E268" t="s">
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268" t="s">
         <v>55</v>
       </c>
-      <c r="F268" t="s">
+      <c r="G268" t="s">
         <v>409</v>
       </c>
-      <c r="G268" t="s">
+      <c r="H268" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>8</v>
       </c>
@@ -7933,20 +7957,20 @@
       <c r="C269" t="s">
         <v>25</v>
       </c>
-      <c r="D269">
-        <v>2</v>
-      </c>
-      <c r="E269" t="s">
+      <c r="E269">
+        <v>2</v>
+      </c>
+      <c r="F269" t="s">
         <v>56</v>
       </c>
-      <c r="F269" t="s">
+      <c r="G269" t="s">
         <v>409</v>
       </c>
-      <c r="G269" t="s">
+      <c r="H269" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>8</v>
       </c>
@@ -7956,20 +7980,20 @@
       <c r="C270" t="s">
         <v>27</v>
       </c>
-      <c r="D270">
-        <v>2</v>
-      </c>
-      <c r="E270" t="s">
+      <c r="E270">
+        <v>2</v>
+      </c>
+      <c r="F270" t="s">
         <v>57</v>
       </c>
-      <c r="F270" t="s">
+      <c r="G270" t="s">
         <v>409</v>
       </c>
-      <c r="G270" t="s">
+      <c r="H270" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>8</v>
       </c>
@@ -7979,20 +8003,20 @@
       <c r="C271" t="s">
         <v>23</v>
       </c>
-      <c r="D271">
-        <v>2</v>
-      </c>
-      <c r="E271" t="s">
+      <c r="E271">
+        <v>2</v>
+      </c>
+      <c r="F271" t="s">
         <v>58</v>
       </c>
-      <c r="F271" t="s">
+      <c r="G271" t="s">
         <v>409</v>
       </c>
-      <c r="G271" t="s">
+      <c r="H271" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>8</v>
       </c>
@@ -8002,20 +8026,20 @@
       <c r="C272" t="s">
         <v>28</v>
       </c>
-      <c r="D272">
-        <v>2</v>
-      </c>
-      <c r="E272" t="s">
+      <c r="E272">
+        <v>2</v>
+      </c>
+      <c r="F272" t="s">
         <v>59</v>
       </c>
-      <c r="F272" t="s">
+      <c r="G272" t="s">
         <v>409</v>
       </c>
-      <c r="G272" t="s">
+      <c r="H272" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>8</v>
       </c>
@@ -8025,20 +8049,20 @@
       <c r="C273" t="s">
         <v>22</v>
       </c>
-      <c r="D273">
-        <v>2</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="E273">
+        <v>2</v>
+      </c>
+      <c r="F273" t="s">
         <v>60</v>
       </c>
-      <c r="F273" t="s">
+      <c r="G273" t="s">
         <v>409</v>
       </c>
-      <c r="G273" t="s">
+      <c r="H273" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>8</v>
       </c>
@@ -8048,20 +8072,20 @@
       <c r="C274" t="s">
         <v>30</v>
       </c>
-      <c r="D274">
-        <v>2</v>
-      </c>
-      <c r="E274" t="s">
+      <c r="E274">
+        <v>2</v>
+      </c>
+      <c r="F274" t="s">
         <v>61</v>
       </c>
-      <c r="F274" t="s">
+      <c r="G274" t="s">
         <v>409</v>
       </c>
-      <c r="G274" t="s">
+      <c r="H274" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>8</v>
       </c>
@@ -8071,20 +8095,20 @@
       <c r="C275" t="s">
         <v>22</v>
       </c>
-      <c r="D275">
-        <v>2</v>
-      </c>
-      <c r="E275" t="s">
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="F275" t="s">
         <v>62</v>
       </c>
-      <c r="F275" t="s">
+      <c r="G275" t="s">
         <v>409</v>
       </c>
-      <c r="G275" t="s">
+      <c r="H275" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>8</v>
       </c>
@@ -8094,20 +8118,20 @@
       <c r="C276" t="s">
         <v>25</v>
       </c>
-      <c r="D276">
+      <c r="E276">
         <v>1</v>
       </c>
-      <c r="E276" t="s">
+      <c r="F276" t="s">
         <v>63</v>
       </c>
-      <c r="F276" t="s">
+      <c r="G276" t="s">
         <v>409</v>
       </c>
-      <c r="G276" t="s">
+      <c r="H276" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>8</v>
       </c>
@@ -8117,20 +8141,20 @@
       <c r="C277" t="s">
         <v>25</v>
       </c>
-      <c r="D277">
-        <v>2</v>
-      </c>
-      <c r="E277" t="s">
+      <c r="E277">
+        <v>2</v>
+      </c>
+      <c r="F277" t="s">
         <v>64</v>
       </c>
-      <c r="F277" t="s">
+      <c r="G277" t="s">
         <v>409</v>
       </c>
-      <c r="G277" t="s">
+      <c r="H277" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>8</v>
       </c>
@@ -8140,20 +8164,20 @@
       <c r="C278" t="s">
         <v>21</v>
       </c>
-      <c r="D278">
-        <v>2</v>
-      </c>
-      <c r="E278" t="s">
+      <c r="E278">
+        <v>2</v>
+      </c>
+      <c r="F278" t="s">
         <v>65</v>
       </c>
-      <c r="F278" t="s">
+      <c r="G278" t="s">
         <v>409</v>
       </c>
-      <c r="G278" t="s">
+      <c r="H278" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>8</v>
       </c>
@@ -8163,20 +8187,20 @@
       <c r="C279" t="s">
         <v>31</v>
       </c>
-      <c r="D279">
-        <v>2</v>
-      </c>
-      <c r="E279" t="s">
+      <c r="E279">
+        <v>2</v>
+      </c>
+      <c r="F279" t="s">
         <v>66</v>
       </c>
-      <c r="F279" t="s">
+      <c r="G279" t="s">
         <v>409</v>
       </c>
-      <c r="G279" t="s">
+      <c r="H279" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>8</v>
       </c>
@@ -8186,20 +8210,20 @@
       <c r="C280" t="s">
         <v>26</v>
       </c>
-      <c r="D280">
-        <v>2</v>
-      </c>
-      <c r="E280" t="s">
+      <c r="E280">
+        <v>2</v>
+      </c>
+      <c r="F280" t="s">
         <v>67</v>
       </c>
-      <c r="F280" t="s">
+      <c r="G280" t="s">
         <v>409</v>
       </c>
-      <c r="G280" t="s">
+      <c r="H280" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>8</v>
       </c>
@@ -8209,17 +8233,147 @@
       <c r="C281" t="s">
         <v>27</v>
       </c>
-      <c r="D281">
-        <v>2</v>
-      </c>
-      <c r="E281" t="s">
+      <c r="E281">
+        <v>2</v>
+      </c>
+      <c r="F281" t="s">
         <v>68</v>
       </c>
-      <c r="F281" t="s">
+      <c r="G281" t="s">
         <v>409</v>
       </c>
-      <c r="G281" t="s">
+      <c r="H281" t="s">
         <v>459</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>2</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C282" t="s">
+        <v>462</v>
+      </c>
+      <c r="D282">
+        <v>1.18</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282" t="s">
+        <v>116</v>
+      </c>
+      <c r="G282" t="s">
+        <v>177</v>
+      </c>
+      <c r="H282" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>2</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C283" t="s">
+        <v>26</v>
+      </c>
+      <c r="D283">
+        <v>0.77</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283" t="s">
+        <v>117</v>
+      </c>
+      <c r="G283" t="s">
+        <v>177</v>
+      </c>
+      <c r="H283" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>2</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C284" t="s">
+        <v>31</v>
+      </c>
+      <c r="D284">
+        <v>0.45</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" t="s">
+        <v>118</v>
+      </c>
+      <c r="G284" t="s">
+        <v>177</v>
+      </c>
+      <c r="H284" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>2</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C285" t="s">
+        <v>26</v>
+      </c>
+      <c r="D285">
+        <v>0.76</v>
+      </c>
+      <c r="E285">
+        <v>2</v>
+      </c>
+      <c r="F285" t="s">
+        <v>119</v>
+      </c>
+      <c r="G285" t="s">
+        <v>177</v>
+      </c>
+      <c r="H285" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>2</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C286" t="s">
+        <v>20</v>
+      </c>
+      <c r="D286">
+        <v>1.08</v>
+      </c>
+      <c r="E286">
+        <v>2</v>
+      </c>
+      <c r="F286" t="s">
+        <v>120</v>
+      </c>
+      <c r="G286" t="s">
+        <v>177</v>
+      </c>
+      <c r="H286" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A800D96-5EBA-4B50-9B19-B1266F3DBA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592896FF-CDAB-48A4-A90D-E89F46585A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="496">
   <si>
     <t>Species:</t>
   </si>
@@ -1426,12 +1426,102 @@
   </si>
   <si>
     <t>TCAO015</t>
+  </si>
+  <si>
+    <t>Mounted?</t>
+  </si>
+  <si>
+    <t>Sampled?</t>
+  </si>
+  <si>
+    <t>Ran?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TCAR014</t>
+  </si>
+  <si>
+    <t>TCAR015</t>
+  </si>
+  <si>
+    <t>TCAR016</t>
+  </si>
+  <si>
+    <t>TCAR017</t>
+  </si>
+  <si>
+    <t>TCAR018</t>
+  </si>
+  <si>
+    <t>TCAR019</t>
+  </si>
+  <si>
+    <t>TCAR020</t>
+  </si>
+  <si>
+    <t>TCAR021</t>
+  </si>
+  <si>
+    <t>TCAR022</t>
+  </si>
+  <si>
+    <t>TCAR023</t>
+  </si>
+  <si>
+    <t>TCAR024</t>
+  </si>
+  <si>
+    <t>TCAR025</t>
+  </si>
+  <si>
+    <t>99mm SL</t>
+  </si>
+  <si>
+    <t>101mm SL</t>
+  </si>
+  <si>
+    <t>TCAR026</t>
+  </si>
+  <si>
+    <t>TCAR027</t>
+  </si>
+  <si>
+    <t>TCAR028</t>
+  </si>
+  <si>
+    <t>TCAR029</t>
+  </si>
+  <si>
+    <t>TCAR030</t>
+  </si>
+  <si>
+    <t>TCAR031</t>
+  </si>
+  <si>
+    <t>TCAR032</t>
+  </si>
+  <si>
+    <t>TCAR033</t>
+  </si>
+  <si>
+    <t>117mm SL</t>
+  </si>
+  <si>
+    <t>108mm SL</t>
+  </si>
+  <si>
+    <t>106mm SL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000_ ;\-0.000\ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1483,10 +1573,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1767,10 +1858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H286"/>
+  <dimension ref="A1:N308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="76" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A286" sqref="A286"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L156" sqref="L156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1778,9 +1869,12 @@
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="4" width="12.88671875" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1805,8 +1899,17 @@
       <c r="H1" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -1829,7 +1932,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -1852,7 +1955,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -1875,7 +1978,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -1898,7 +2001,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -1921,7 +2024,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1944,7 +2047,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1967,7 +2070,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1990,7 +2093,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2013,7 +2116,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2036,7 +2139,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2059,7 +2162,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2082,7 +2185,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2105,7 +2208,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -2128,7 +2231,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -5095,7 +5198,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2</v>
       </c>
@@ -5118,7 +5221,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -5140,8 +5243,14 @@
       <c r="H146" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>470</v>
+      </c>
+      <c r="J146" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -5163,8 +5272,14 @@
       <c r="H147" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147" t="s">
+        <v>470</v>
+      </c>
+      <c r="J147" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -5186,8 +5301,14 @@
       <c r="H148" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148" t="s">
+        <v>470</v>
+      </c>
+      <c r="J148" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
@@ -5209,8 +5330,14 @@
       <c r="H149" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149" t="s">
+        <v>470</v>
+      </c>
+      <c r="J149" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
@@ -5232,8 +5359,14 @@
       <c r="H150" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150" t="s">
+        <v>470</v>
+      </c>
+      <c r="J150" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -5256,7 +5389,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
@@ -5278,8 +5411,14 @@
       <c r="H152" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152" t="s">
+        <v>470</v>
+      </c>
+      <c r="J152" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
@@ -5301,8 +5440,14 @@
       <c r="H153" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153" t="s">
+        <v>470</v>
+      </c>
+      <c r="J153" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
@@ -5324,8 +5469,14 @@
       <c r="H154" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154" t="s">
+        <v>470</v>
+      </c>
+      <c r="J154" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>6</v>
       </c>
@@ -5347,8 +5498,14 @@
       <c r="H155" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155" t="s">
+        <v>470</v>
+      </c>
+      <c r="J155" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6</v>
       </c>
@@ -5370,8 +5527,14 @@
       <c r="H156" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156" t="s">
+        <v>470</v>
+      </c>
+      <c r="J156" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6</v>
       </c>
@@ -5394,7 +5557,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6</v>
       </c>
@@ -5417,7 +5580,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5439,8 +5602,14 @@
       <c r="H159" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159" t="s">
+        <v>470</v>
+      </c>
+      <c r="J159" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5462,8 +5631,14 @@
       <c r="H160" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160" t="s">
+        <v>470</v>
+      </c>
+      <c r="J160" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5485,8 +5660,14 @@
       <c r="H161" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161" t="s">
+        <v>470</v>
+      </c>
+      <c r="J161" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5508,8 +5689,14 @@
       <c r="H162" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162" t="s">
+        <v>470</v>
+      </c>
+      <c r="J162" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5531,8 +5718,14 @@
       <c r="H163" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163" t="s">
+        <v>470</v>
+      </c>
+      <c r="J163" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5554,8 +5747,14 @@
       <c r="H164" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164" t="s">
+        <v>470</v>
+      </c>
+      <c r="J164" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5577,8 +5776,14 @@
       <c r="H165" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165" t="s">
+        <v>470</v>
+      </c>
+      <c r="J165" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -5600,8 +5805,14 @@
       <c r="H166" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166" t="s">
+        <v>470</v>
+      </c>
+      <c r="J166" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -5623,8 +5834,14 @@
       <c r="H167" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167" t="s">
+        <v>470</v>
+      </c>
+      <c r="J167" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5646,8 +5863,14 @@
       <c r="H168" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168" t="s">
+        <v>470</v>
+      </c>
+      <c r="J168" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -5669,8 +5892,14 @@
       <c r="H169" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169" t="s">
+        <v>470</v>
+      </c>
+      <c r="J169" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -5692,8 +5921,14 @@
       <c r="H170" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170" t="s">
+        <v>470</v>
+      </c>
+      <c r="J170" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -5715,8 +5950,14 @@
       <c r="H171" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171" t="s">
+        <v>470</v>
+      </c>
+      <c r="J171" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
@@ -5738,8 +5979,14 @@
       <c r="H172" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I172" t="s">
+        <v>470</v>
+      </c>
+      <c r="J172" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -5761,8 +6008,14 @@
       <c r="H173" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173" t="s">
+        <v>470</v>
+      </c>
+      <c r="J173" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -5785,7 +6038,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6</v>
       </c>
@@ -5808,7 +6061,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>6</v>
       </c>
@@ -6199,7 +6452,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>6</v>
       </c>
@@ -6222,7 +6475,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>6</v>
       </c>
@@ -6245,7 +6498,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>8</v>
       </c>
@@ -6268,7 +6521,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8</v>
       </c>
@@ -6291,7 +6544,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>8</v>
       </c>
@@ -6314,7 +6567,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>4</v>
       </c>
@@ -6336,8 +6589,14 @@
       <c r="H198" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I198" t="s">
+        <v>470</v>
+      </c>
+      <c r="J198" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>4</v>
       </c>
@@ -6359,8 +6618,14 @@
       <c r="H199" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I199" t="s">
+        <v>470</v>
+      </c>
+      <c r="J199" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>4</v>
       </c>
@@ -6382,8 +6647,14 @@
       <c r="H200" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I200" t="s">
+        <v>470</v>
+      </c>
+      <c r="J200" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>4</v>
       </c>
@@ -6405,8 +6676,14 @@
       <c r="H201" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I201" t="s">
+        <v>470</v>
+      </c>
+      <c r="J201" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>4</v>
       </c>
@@ -6428,8 +6705,14 @@
       <c r="H202" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I202" t="s">
+        <v>470</v>
+      </c>
+      <c r="J202" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>4</v>
       </c>
@@ -6451,8 +6734,14 @@
       <c r="H203" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I203" t="s">
+        <v>470</v>
+      </c>
+      <c r="J203" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>4</v>
       </c>
@@ -6474,8 +6763,14 @@
       <c r="H204" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I204" t="s">
+        <v>470</v>
+      </c>
+      <c r="J204" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4</v>
       </c>
@@ -6497,8 +6792,14 @@
       <c r="H205" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I205" t="s">
+        <v>470</v>
+      </c>
+      <c r="J205" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>4</v>
       </c>
@@ -6520,8 +6821,14 @@
       <c r="H206" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I206" t="s">
+        <v>470</v>
+      </c>
+      <c r="J206" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>4</v>
       </c>
@@ -6543,8 +6850,14 @@
       <c r="H207" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I207" t="s">
+        <v>470</v>
+      </c>
+      <c r="J207" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>4</v>
       </c>
@@ -6566,8 +6879,14 @@
       <c r="H208" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I208" t="s">
+        <v>470</v>
+      </c>
+      <c r="J208" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4</v>
       </c>
@@ -6589,8 +6908,14 @@
       <c r="H209" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I209" t="s">
+        <v>470</v>
+      </c>
+      <c r="J209" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>4</v>
       </c>
@@ -6612,8 +6937,14 @@
       <c r="H210" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I210" t="s">
+        <v>470</v>
+      </c>
+      <c r="J210" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>4</v>
       </c>
@@ -6635,8 +6966,14 @@
       <c r="H211" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I211" t="s">
+        <v>470</v>
+      </c>
+      <c r="J211" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4</v>
       </c>
@@ -6658,8 +6995,14 @@
       <c r="H212" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I212" t="s">
+        <v>470</v>
+      </c>
+      <c r="J212" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4</v>
       </c>
@@ -6681,8 +7024,14 @@
       <c r="H213" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I213" t="s">
+        <v>470</v>
+      </c>
+      <c r="J213" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>4</v>
       </c>
@@ -6704,8 +7053,14 @@
       <c r="H214" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I214" t="s">
+        <v>470</v>
+      </c>
+      <c r="J214" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>4</v>
       </c>
@@ -6727,8 +7082,14 @@
       <c r="H215" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I215" t="s">
+        <v>470</v>
+      </c>
+      <c r="J215" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>4</v>
       </c>
@@ -6750,8 +7111,14 @@
       <c r="H216" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I216" t="s">
+        <v>470</v>
+      </c>
+      <c r="J216" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4</v>
       </c>
@@ -6773,8 +7140,14 @@
       <c r="H217" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I217" t="s">
+        <v>470</v>
+      </c>
+      <c r="J217" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4</v>
       </c>
@@ -6796,8 +7169,14 @@
       <c r="H218" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I218" t="s">
+        <v>470</v>
+      </c>
+      <c r="J218" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4</v>
       </c>
@@ -6819,8 +7198,14 @@
       <c r="H219" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I219" t="s">
+        <v>470</v>
+      </c>
+      <c r="J219" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4</v>
       </c>
@@ -6842,8 +7227,14 @@
       <c r="H220" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I220" t="s">
+        <v>470</v>
+      </c>
+      <c r="J220" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4</v>
       </c>
@@ -6865,8 +7256,14 @@
       <c r="H221" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I221" t="s">
+        <v>470</v>
+      </c>
+      <c r="J221" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4</v>
       </c>
@@ -6888,8 +7285,14 @@
       <c r="H222" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I222" t="s">
+        <v>470</v>
+      </c>
+      <c r="J222" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>6</v>
       </c>
@@ -6912,7 +7315,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>6</v>
       </c>
@@ -8375,6 +8778,550 @@
       <c r="H286" t="s">
         <v>466</v>
       </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>2</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C287" t="s">
+        <v>160</v>
+      </c>
+      <c r="D287">
+        <v>1.5</v>
+      </c>
+      <c r="E287">
+        <v>2</v>
+      </c>
+      <c r="F287" t="s">
+        <v>55</v>
+      </c>
+      <c r="G287" t="s">
+        <v>177</v>
+      </c>
+      <c r="H287" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>2</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288">
+        <v>0.9</v>
+      </c>
+      <c r="E288">
+        <v>2</v>
+      </c>
+      <c r="F288" t="s">
+        <v>56</v>
+      </c>
+      <c r="G288" t="s">
+        <v>177</v>
+      </c>
+      <c r="H288" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>2</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C289" t="s">
+        <v>145</v>
+      </c>
+      <c r="D289">
+        <v>0.82</v>
+      </c>
+      <c r="E289">
+        <v>2</v>
+      </c>
+      <c r="F289" t="s">
+        <v>57</v>
+      </c>
+      <c r="G289" t="s">
+        <v>177</v>
+      </c>
+      <c r="H289" t="s">
+        <v>473</v>
+      </c>
+      <c r="N289" s="3"/>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>2</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C290" t="s">
+        <v>164</v>
+      </c>
+      <c r="D290">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E290">
+        <v>2</v>
+      </c>
+      <c r="F290" t="s">
+        <v>58</v>
+      </c>
+      <c r="G290" t="s">
+        <v>177</v>
+      </c>
+      <c r="H290" t="s">
+        <v>474</v>
+      </c>
+      <c r="N290" s="3"/>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>2</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C291" t="s">
+        <v>483</v>
+      </c>
+      <c r="D291">
+        <v>0.93</v>
+      </c>
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291" t="s">
+        <v>59</v>
+      </c>
+      <c r="G291" t="s">
+        <v>177</v>
+      </c>
+      <c r="H291" t="s">
+        <v>475</v>
+      </c>
+      <c r="N291" s="3"/>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>2</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C292" t="s">
+        <v>483</v>
+      </c>
+      <c r="D292">
+        <v>0.87</v>
+      </c>
+      <c r="E292">
+        <v>2</v>
+      </c>
+      <c r="F292" t="s">
+        <v>60</v>
+      </c>
+      <c r="G292" t="s">
+        <v>177</v>
+      </c>
+      <c r="H292" t="s">
+        <v>476</v>
+      </c>
+      <c r="N292" s="3"/>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>2</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C293" t="s">
+        <v>163</v>
+      </c>
+      <c r="D293">
+        <v>0.78</v>
+      </c>
+      <c r="E293">
+        <v>2</v>
+      </c>
+      <c r="F293" t="s">
+        <v>61</v>
+      </c>
+      <c r="G293" t="s">
+        <v>177</v>
+      </c>
+      <c r="H293" t="s">
+        <v>477</v>
+      </c>
+      <c r="N293" s="3"/>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>2</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C294" t="s">
+        <v>483</v>
+      </c>
+      <c r="D294">
+        <v>0.85</v>
+      </c>
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294" t="s">
+        <v>62</v>
+      </c>
+      <c r="G294" t="s">
+        <v>177</v>
+      </c>
+      <c r="H294" t="s">
+        <v>478</v>
+      </c>
+      <c r="N294" s="3"/>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>2</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C295" t="s">
+        <v>165</v>
+      </c>
+      <c r="D295">
+        <v>0.86</v>
+      </c>
+      <c r="E295">
+        <v>2</v>
+      </c>
+      <c r="F295" t="s">
+        <v>63</v>
+      </c>
+      <c r="G295" t="s">
+        <v>177</v>
+      </c>
+      <c r="H295" t="s">
+        <v>479</v>
+      </c>
+      <c r="N295" s="3"/>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>2</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C296" t="s">
+        <v>9</v>
+      </c>
+      <c r="D296">
+        <v>0.74</v>
+      </c>
+      <c r="E296">
+        <v>2</v>
+      </c>
+      <c r="F296" t="s">
+        <v>64</v>
+      </c>
+      <c r="G296" t="s">
+        <v>177</v>
+      </c>
+      <c r="H296" t="s">
+        <v>480</v>
+      </c>
+      <c r="N296" s="3"/>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>2</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C297" t="s">
+        <v>9</v>
+      </c>
+      <c r="D297">
+        <v>0.79</v>
+      </c>
+      <c r="E297">
+        <v>2</v>
+      </c>
+      <c r="F297" t="s">
+        <v>65</v>
+      </c>
+      <c r="G297" t="s">
+        <v>177</v>
+      </c>
+      <c r="H297" t="s">
+        <v>481</v>
+      </c>
+      <c r="N297" s="3"/>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>2</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C298" t="s">
+        <v>484</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298">
+        <v>2</v>
+      </c>
+      <c r="F298" t="s">
+        <v>66</v>
+      </c>
+      <c r="G298" t="s">
+        <v>177</v>
+      </c>
+      <c r="H298" t="s">
+        <v>482</v>
+      </c>
+      <c r="N298" s="3"/>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>2</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C299" t="s">
+        <v>145</v>
+      </c>
+      <c r="D299">
+        <v>0.84</v>
+      </c>
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299" t="s">
+        <v>67</v>
+      </c>
+      <c r="G299" t="s">
+        <v>177</v>
+      </c>
+      <c r="H299" t="s">
+        <v>485</v>
+      </c>
+      <c r="N299" s="3"/>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>2</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C300" t="s">
+        <v>5</v>
+      </c>
+      <c r="D300">
+        <v>0.77</v>
+      </c>
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300" t="s">
+        <v>68</v>
+      </c>
+      <c r="G300" t="s">
+        <v>177</v>
+      </c>
+      <c r="H300" t="s">
+        <v>486</v>
+      </c>
+      <c r="N300" s="3"/>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>2</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C301" t="s">
+        <v>132</v>
+      </c>
+      <c r="D301">
+        <v>0.6</v>
+      </c>
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301" t="s">
+        <v>69</v>
+      </c>
+      <c r="G301" t="s">
+        <v>177</v>
+      </c>
+      <c r="H301" t="s">
+        <v>487</v>
+      </c>
+      <c r="N301" s="3"/>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>2</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C302" t="s">
+        <v>145</v>
+      </c>
+      <c r="D302">
+        <v>0.83</v>
+      </c>
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302" t="s">
+        <v>70</v>
+      </c>
+      <c r="G302" t="s">
+        <v>177</v>
+      </c>
+      <c r="H302" t="s">
+        <v>488</v>
+      </c>
+      <c r="N302" s="3"/>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C303" t="s">
+        <v>493</v>
+      </c>
+      <c r="D303">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303" t="s">
+        <v>71</v>
+      </c>
+      <c r="G303" t="s">
+        <v>177</v>
+      </c>
+      <c r="H303" t="s">
+        <v>489</v>
+      </c>
+      <c r="N303" s="3"/>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>2</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C304" t="s">
+        <v>483</v>
+      </c>
+      <c r="D304">
+        <v>0.96</v>
+      </c>
+      <c r="E304">
+        <v>2</v>
+      </c>
+      <c r="F304" t="s">
+        <v>72</v>
+      </c>
+      <c r="G304" t="s">
+        <v>177</v>
+      </c>
+      <c r="H304" t="s">
+        <v>490</v>
+      </c>
+      <c r="N304" s="3"/>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>2</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C305" t="s">
+        <v>494</v>
+      </c>
+      <c r="D305">
+        <v>1.31</v>
+      </c>
+      <c r="E305">
+        <v>2</v>
+      </c>
+      <c r="F305" t="s">
+        <v>73</v>
+      </c>
+      <c r="G305" t="s">
+        <v>177</v>
+      </c>
+      <c r="H305" t="s">
+        <v>491</v>
+      </c>
+      <c r="N305" s="3"/>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>2</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C306" t="s">
+        <v>495</v>
+      </c>
+      <c r="D306">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E306">
+        <v>2</v>
+      </c>
+      <c r="F306" t="s">
+        <v>74</v>
+      </c>
+      <c r="G306" t="s">
+        <v>177</v>
+      </c>
+      <c r="H306" t="s">
+        <v>492</v>
+      </c>
+      <c r="N306" s="3"/>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N307" s="3"/>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N308" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592896FF-CDAB-48A4-A90D-E89F46585A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AA2F8F-DF85-4EEE-B66C-2738E9C0A9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TC22018" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="496">
   <si>
     <t>Species:</t>
   </si>
@@ -1860,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N308"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L156" sqref="L156"/>
+    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I287" sqref="I287:J306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8442,7 +8442,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>8</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>8</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>8</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>8</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>8</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>8</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>8</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>8</v>
       </c>
@@ -8626,7 +8626,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>8</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2</v>
       </c>
@@ -8804,8 +8804,14 @@
       <c r="H287" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I287" t="s">
+        <v>470</v>
+      </c>
+      <c r="J287" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2</v>
       </c>
@@ -8830,6 +8836,12 @@
       <c r="H288" t="s">
         <v>472</v>
       </c>
+      <c r="I288" t="s">
+        <v>470</v>
+      </c>
+      <c r="J288" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289">
@@ -8856,6 +8868,12 @@
       <c r="H289" t="s">
         <v>473</v>
       </c>
+      <c r="I289" t="s">
+        <v>470</v>
+      </c>
+      <c r="J289" t="s">
+        <v>470</v>
+      </c>
       <c r="N289" s="3"/>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.3">
@@ -8883,6 +8901,12 @@
       <c r="H290" t="s">
         <v>474</v>
       </c>
+      <c r="I290" t="s">
+        <v>470</v>
+      </c>
+      <c r="J290" t="s">
+        <v>470</v>
+      </c>
       <c r="N290" s="3"/>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.3">
@@ -8910,6 +8934,12 @@
       <c r="H291" t="s">
         <v>475</v>
       </c>
+      <c r="I291" t="s">
+        <v>470</v>
+      </c>
+      <c r="J291" t="s">
+        <v>470</v>
+      </c>
       <c r="N291" s="3"/>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.3">
@@ -8937,6 +8967,12 @@
       <c r="H292" t="s">
         <v>476</v>
       </c>
+      <c r="I292" t="s">
+        <v>470</v>
+      </c>
+      <c r="J292" t="s">
+        <v>470</v>
+      </c>
       <c r="N292" s="3"/>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.3">
@@ -8964,6 +9000,12 @@
       <c r="H293" t="s">
         <v>477</v>
       </c>
+      <c r="I293" t="s">
+        <v>470</v>
+      </c>
+      <c r="J293" t="s">
+        <v>470</v>
+      </c>
       <c r="N293" s="3"/>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.3">
@@ -8991,6 +9033,12 @@
       <c r="H294" t="s">
         <v>478</v>
       </c>
+      <c r="I294" t="s">
+        <v>470</v>
+      </c>
+      <c r="J294" t="s">
+        <v>470</v>
+      </c>
       <c r="N294" s="3"/>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.3">
@@ -9018,6 +9066,12 @@
       <c r="H295" t="s">
         <v>479</v>
       </c>
+      <c r="I295" t="s">
+        <v>470</v>
+      </c>
+      <c r="J295" t="s">
+        <v>470</v>
+      </c>
       <c r="N295" s="3"/>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.3">
@@ -9045,6 +9099,12 @@
       <c r="H296" t="s">
         <v>480</v>
       </c>
+      <c r="I296" t="s">
+        <v>470</v>
+      </c>
+      <c r="J296" t="s">
+        <v>470</v>
+      </c>
       <c r="N296" s="3"/>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.3">
@@ -9072,6 +9132,12 @@
       <c r="H297" t="s">
         <v>481</v>
       </c>
+      <c r="I297" t="s">
+        <v>470</v>
+      </c>
+      <c r="J297" t="s">
+        <v>470</v>
+      </c>
       <c r="N297" s="3"/>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.3">
@@ -9099,6 +9165,12 @@
       <c r="H298" t="s">
         <v>482</v>
       </c>
+      <c r="I298" t="s">
+        <v>470</v>
+      </c>
+      <c r="J298" t="s">
+        <v>470</v>
+      </c>
       <c r="N298" s="3"/>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.3">
@@ -9126,6 +9198,12 @@
       <c r="H299" t="s">
         <v>485</v>
       </c>
+      <c r="I299" t="s">
+        <v>470</v>
+      </c>
+      <c r="J299" t="s">
+        <v>470</v>
+      </c>
       <c r="N299" s="3"/>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.3">
@@ -9153,6 +9231,12 @@
       <c r="H300" t="s">
         <v>486</v>
       </c>
+      <c r="I300" t="s">
+        <v>470</v>
+      </c>
+      <c r="J300" t="s">
+        <v>470</v>
+      </c>
       <c r="N300" s="3"/>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.3">
@@ -9180,6 +9264,12 @@
       <c r="H301" t="s">
         <v>487</v>
       </c>
+      <c r="I301" t="s">
+        <v>470</v>
+      </c>
+      <c r="J301" t="s">
+        <v>470</v>
+      </c>
       <c r="N301" s="3"/>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.3">
@@ -9207,6 +9297,12 @@
       <c r="H302" t="s">
         <v>488</v>
       </c>
+      <c r="I302" t="s">
+        <v>470</v>
+      </c>
+      <c r="J302" t="s">
+        <v>470</v>
+      </c>
       <c r="N302" s="3"/>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.3">
@@ -9234,6 +9330,12 @@
       <c r="H303" t="s">
         <v>489</v>
       </c>
+      <c r="I303" t="s">
+        <v>470</v>
+      </c>
+      <c r="J303" t="s">
+        <v>470</v>
+      </c>
       <c r="N303" s="3"/>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.3">
@@ -9261,6 +9363,12 @@
       <c r="H304" t="s">
         <v>490</v>
       </c>
+      <c r="I304" t="s">
+        <v>470</v>
+      </c>
+      <c r="J304" t="s">
+        <v>470</v>
+      </c>
       <c r="N304" s="3"/>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.3">
@@ -9288,6 +9396,12 @@
       <c r="H305" t="s">
         <v>491</v>
       </c>
+      <c r="I305" t="s">
+        <v>470</v>
+      </c>
+      <c r="J305" t="s">
+        <v>470</v>
+      </c>
       <c r="N305" s="3"/>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.3">
@@ -9314,6 +9428,12 @@
       </c>
       <c r="H306" t="s">
         <v>492</v>
+      </c>
+      <c r="I306" t="s">
+        <v>470</v>
+      </c>
+      <c r="J306" t="s">
+        <v>470</v>
       </c>
       <c r="N306" s="3"/>
     </row>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AA2F8F-DF85-4EEE-B66C-2738E9C0A9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9200C31A-D93E-4282-A6D0-F4849DA8070E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="514">
   <si>
     <t>Species:</t>
   </si>
@@ -1513,6 +1513,60 @@
   </si>
   <si>
     <t>106mm SL</t>
+  </si>
+  <si>
+    <t>TCMM214</t>
+  </si>
+  <si>
+    <t>TCMM215</t>
+  </si>
+  <si>
+    <t>TCMM216</t>
+  </si>
+  <si>
+    <t>TCMM217</t>
+  </si>
+  <si>
+    <t>TCMM218</t>
+  </si>
+  <si>
+    <t>TCMM219</t>
+  </si>
+  <si>
+    <t>TCMM220</t>
+  </si>
+  <si>
+    <t>TCMM221</t>
+  </si>
+  <si>
+    <t>TCMM222</t>
+  </si>
+  <si>
+    <t>TCMM223</t>
+  </si>
+  <si>
+    <t>TCMM224</t>
+  </si>
+  <si>
+    <t>TCMM225</t>
+  </si>
+  <si>
+    <t>TCAO016</t>
+  </si>
+  <si>
+    <t>61mm SL</t>
+  </si>
+  <si>
+    <t>TCAO017</t>
+  </si>
+  <si>
+    <t>TCAO018</t>
+  </si>
+  <si>
+    <t>TCAO019</t>
+  </si>
+  <si>
+    <t>80mm SL</t>
   </si>
 </sst>
 </file>
@@ -1858,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N308"/>
+  <dimension ref="A1:N322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I287" sqref="I287:J306"/>
+    <sheetView tabSelected="1" topLeftCell="A308" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H322" sqref="H322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9438,10 +9492,422 @@
       <c r="N306" s="3"/>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>5</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" t="s">
+        <v>144</v>
+      </c>
+      <c r="D307">
+        <v>1.65</v>
+      </c>
+      <c r="E307">
+        <v>2</v>
+      </c>
+      <c r="F307" t="s">
+        <v>79</v>
+      </c>
+      <c r="G307" t="s">
+        <v>409</v>
+      </c>
+      <c r="H307" t="s">
+        <v>496</v>
+      </c>
       <c r="N307" s="3"/>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>5</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C308" t="s">
+        <v>152</v>
+      </c>
+      <c r="D308">
+        <v>1.18</v>
+      </c>
+      <c r="E308">
+        <v>2</v>
+      </c>
+      <c r="F308" t="s">
+        <v>80</v>
+      </c>
+      <c r="G308" t="s">
+        <v>409</v>
+      </c>
+      <c r="H308" t="s">
+        <v>497</v>
+      </c>
       <c r="N308" s="3"/>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>5</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" t="s">
+        <v>173</v>
+      </c>
+      <c r="D309">
+        <v>1.45</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309" t="s">
+        <v>81</v>
+      </c>
+      <c r="G309" t="s">
+        <v>409</v>
+      </c>
+      <c r="H309" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>5</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C310" t="s">
+        <v>149</v>
+      </c>
+      <c r="D310">
+        <v>1.48</v>
+      </c>
+      <c r="E310">
+        <v>2</v>
+      </c>
+      <c r="F310" t="s">
+        <v>82</v>
+      </c>
+      <c r="G310" t="s">
+        <v>409</v>
+      </c>
+      <c r="H310" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>5</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C311" t="s">
+        <v>154</v>
+      </c>
+      <c r="D311">
+        <v>1.21</v>
+      </c>
+      <c r="E311">
+        <v>2</v>
+      </c>
+      <c r="F311" t="s">
+        <v>83</v>
+      </c>
+      <c r="G311" t="s">
+        <v>409</v>
+      </c>
+      <c r="H311" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>5</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" t="s">
+        <v>174</v>
+      </c>
+      <c r="D312">
+        <v>2.21</v>
+      </c>
+      <c r="E312">
+        <v>2</v>
+      </c>
+      <c r="F312" t="s">
+        <v>84</v>
+      </c>
+      <c r="G312" t="s">
+        <v>409</v>
+      </c>
+      <c r="H312" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>5</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" t="s">
+        <v>149</v>
+      </c>
+      <c r="D313">
+        <v>1.3</v>
+      </c>
+      <c r="E313">
+        <v>2</v>
+      </c>
+      <c r="F313" t="s">
+        <v>85</v>
+      </c>
+      <c r="G313" t="s">
+        <v>409</v>
+      </c>
+      <c r="H313" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>5</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" t="s">
+        <v>154</v>
+      </c>
+      <c r="D314">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E314">
+        <v>2</v>
+      </c>
+      <c r="F314" t="s">
+        <v>86</v>
+      </c>
+      <c r="G314" t="s">
+        <v>409</v>
+      </c>
+      <c r="H314" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>5</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C315" t="s">
+        <v>152</v>
+      </c>
+      <c r="D315">
+        <v>1.37</v>
+      </c>
+      <c r="E315">
+        <v>2</v>
+      </c>
+      <c r="F315" t="s">
+        <v>87</v>
+      </c>
+      <c r="G315" t="s">
+        <v>409</v>
+      </c>
+      <c r="H315" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>5</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" t="s">
+        <v>149</v>
+      </c>
+      <c r="D316">
+        <v>1.53</v>
+      </c>
+      <c r="E316">
+        <v>2</v>
+      </c>
+      <c r="F316" t="s">
+        <v>88</v>
+      </c>
+      <c r="G316" t="s">
+        <v>409</v>
+      </c>
+      <c r="H316" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>5</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C317" t="s">
+        <v>149</v>
+      </c>
+      <c r="D317">
+        <v>1.42</v>
+      </c>
+      <c r="E317">
+        <v>2</v>
+      </c>
+      <c r="F317" t="s">
+        <v>89</v>
+      </c>
+      <c r="G317" t="s">
+        <v>409</v>
+      </c>
+      <c r="H317" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>5</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C318" t="s">
+        <v>154</v>
+      </c>
+      <c r="D318">
+        <v>1.22</v>
+      </c>
+      <c r="E318">
+        <v>2</v>
+      </c>
+      <c r="F318" t="s">
+        <v>90</v>
+      </c>
+      <c r="G318" t="s">
+        <v>409</v>
+      </c>
+      <c r="H318" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>2</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C319" t="s">
+        <v>172</v>
+      </c>
+      <c r="D319">
+        <v>3.03</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319" t="s">
+        <v>121</v>
+      </c>
+      <c r="G319" t="s">
+        <v>177</v>
+      </c>
+      <c r="H319" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>2</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C320" t="s">
+        <v>509</v>
+      </c>
+      <c r="D320">
+        <v>5.43</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320" t="s">
+        <v>122</v>
+      </c>
+      <c r="G320" t="s">
+        <v>177</v>
+      </c>
+      <c r="H320" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>2</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C321" t="s">
+        <v>170</v>
+      </c>
+      <c r="D321">
+        <v>7.43</v>
+      </c>
+      <c r="E321">
+        <v>2</v>
+      </c>
+      <c r="F321" t="s">
+        <v>123</v>
+      </c>
+      <c r="G321" t="s">
+        <v>177</v>
+      </c>
+      <c r="H321" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>2</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C322" t="s">
+        <v>513</v>
+      </c>
+      <c r="D322">
+        <v>13.13</v>
+      </c>
+      <c r="E322">
+        <v>2</v>
+      </c>
+      <c r="F322" t="s">
+        <v>124</v>
+      </c>
+      <c r="G322" t="s">
+        <v>177</v>
+      </c>
+      <c r="H322" t="s">
+        <v>512</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9200C31A-D93E-4282-A6D0-F4849DA8070E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2BD28-F740-4EAA-8C31-637891F1405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="516">
   <si>
     <t>Species:</t>
   </si>
@@ -1567,6 +1567,12 @@
   </si>
   <si>
     <t>80mm SL</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Used as voucher</t>
   </si>
 </sst>
 </file>
@@ -1914,8 +1920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H322" sqref="H322"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="81" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B196" sqref="B196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1928,7 +1934,7 @@
     <col min="10" max="10" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1962,8 +1968,11 @@
       <c r="K1" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -1985,8 +1994,14 @@
       <c r="H2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -2008,8 +2023,14 @@
       <c r="H3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>470</v>
+      </c>
+      <c r="J3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -2031,8 +2052,14 @@
       <c r="H4" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>470</v>
+      </c>
+      <c r="J4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -2054,8 +2081,14 @@
       <c r="H5" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>470</v>
+      </c>
+      <c r="J5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2077,8 +2110,14 @@
       <c r="H6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>470</v>
+      </c>
+      <c r="J6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2100,8 +2139,14 @@
       <c r="H7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>470</v>
+      </c>
+      <c r="J7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2123,8 +2168,14 @@
       <c r="H8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>470</v>
+      </c>
+      <c r="J8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2146,8 +2197,14 @@
       <c r="H9" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>470</v>
+      </c>
+      <c r="J9" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2170,7 +2227,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2193,7 +2250,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2216,7 +2273,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2239,7 +2296,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2262,7 +2319,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -2285,7 +2342,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -6114,6 +6171,9 @@
       <c r="H175" t="s">
         <v>352</v>
       </c>
+      <c r="I175" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
@@ -6137,8 +6197,11 @@
       <c r="H176" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I176" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>6</v>
       </c>
@@ -6160,8 +6223,11 @@
       <c r="H177" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>6</v>
       </c>
@@ -6183,8 +6249,11 @@
       <c r="H178" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>6</v>
       </c>
@@ -6206,8 +6275,11 @@
       <c r="H179" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I179" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>6</v>
       </c>
@@ -6229,8 +6301,11 @@
       <c r="H180" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>6</v>
       </c>
@@ -6252,8 +6327,11 @@
       <c r="H181" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>6</v>
       </c>
@@ -6276,7 +6354,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>6</v>
       </c>
@@ -6299,7 +6377,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>6</v>
       </c>
@@ -6321,8 +6399,11 @@
       <c r="H184" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>6</v>
       </c>
@@ -6344,8 +6425,11 @@
       <c r="H185" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I185" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>6</v>
       </c>
@@ -6367,8 +6451,11 @@
       <c r="H186" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>6</v>
       </c>
@@ -6390,8 +6477,11 @@
       <c r="H187" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>6</v>
       </c>
@@ -6413,8 +6503,11 @@
       <c r="H188" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I188" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>6</v>
       </c>
@@ -6436,8 +6529,11 @@
       <c r="H189" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I189" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>6</v>
       </c>
@@ -6459,8 +6555,11 @@
       <c r="H190" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I190" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>6</v>
       </c>
@@ -6482,8 +6581,11 @@
       <c r="H191" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I191" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>6</v>
       </c>
@@ -6505,8 +6607,11 @@
       <c r="H192" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I192" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>6</v>
       </c>
@@ -6529,7 +6634,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>6</v>
       </c>
@@ -6551,8 +6656,11 @@
       <c r="H194" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I194" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>8</v>
       </c>
@@ -6575,7 +6683,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8</v>
       </c>
@@ -6598,7 +6706,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>8</v>
       </c>
@@ -6621,7 +6729,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>4</v>
       </c>
@@ -6650,7 +6758,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>4</v>
       </c>
@@ -6679,7 +6787,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>4</v>
       </c>
@@ -6708,7 +6816,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>4</v>
       </c>
@@ -6737,7 +6845,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>4</v>
       </c>
@@ -6766,7 +6874,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>4</v>
       </c>
@@ -6795,7 +6903,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>4</v>
       </c>
@@ -6823,8 +6931,11 @@
       <c r="J204" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L204" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4</v>
       </c>
@@ -6853,7 +6964,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>4</v>
       </c>
@@ -6882,7 +6993,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>4</v>
       </c>
@@ -6911,7 +7022,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>4</v>
       </c>
@@ -7392,7 +7503,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>6</v>
       </c>
@@ -7414,8 +7525,11 @@
       <c r="H225" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L225" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>6</v>
       </c>
@@ -7438,7 +7552,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>6</v>
       </c>
@@ -7461,7 +7575,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>6</v>
       </c>
@@ -7483,8 +7597,11 @@
       <c r="H228" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L228" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>6</v>
       </c>
@@ -7507,7 +7624,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>6</v>
       </c>
@@ -7530,7 +7647,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>6</v>
       </c>
@@ -7553,7 +7670,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>8</v>
       </c>
@@ -7576,7 +7693,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>8</v>
       </c>
@@ -7599,7 +7716,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>8</v>
       </c>
@@ -7622,7 +7739,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>8</v>
       </c>
@@ -7645,7 +7762,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>8</v>
       </c>
@@ -7668,7 +7785,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>8</v>
       </c>
@@ -7691,7 +7808,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>8</v>
       </c>
@@ -7714,7 +7831,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>8</v>
       </c>
@@ -7737,7 +7854,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>8</v>
       </c>
@@ -8960,6 +9077,9 @@
       </c>
       <c r="J290" t="s">
         <v>470</v>
+      </c>
+      <c r="L290" t="s">
+        <v>515</v>
       </c>
       <c r="N290" s="3"/>
     </row>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B2BD28-F740-4EAA-8C31-637891F1405D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31236F97-F9E0-461C-B8A9-4320398821B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1794" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="519">
   <si>
     <t>Species:</t>
   </si>
@@ -1551,9 +1551,6 @@
     <t>TCMM225</t>
   </si>
   <si>
-    <t>TCAO016</t>
-  </si>
-  <si>
     <t>61mm SL</t>
   </si>
   <si>
@@ -1573,6 +1570,31 @@
   </si>
   <si>
     <t>Used as voucher</t>
+  </si>
+  <si>
+    <t>RESAMPLE</t>
+  </si>
+  <si>
+    <t>Argyropelecus aculeatus</t>
+  </si>
+  <si>
+    <t>TCAA001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Originally identified as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A. olfersii</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1920,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="81" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L320" sqref="L320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,7 +1991,7 @@
         <v>469</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2139,11 +2161,8 @@
       <c r="H7" t="s">
         <v>184</v>
       </c>
-      <c r="I7" t="s">
-        <v>470</v>
-      </c>
-      <c r="J7" t="s">
-        <v>470</v>
+      <c r="L7" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -5309,7 +5328,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2</v>
       </c>
@@ -5332,7 +5351,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -5361,7 +5380,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -5390,7 +5409,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -5419,7 +5438,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
@@ -5448,7 +5467,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
@@ -5477,7 +5496,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -5500,7 +5519,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
@@ -5529,7 +5548,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
@@ -5558,7 +5577,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
@@ -5587,7 +5606,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>6</v>
       </c>
@@ -5616,7 +5635,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6</v>
       </c>
@@ -5645,7 +5664,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6</v>
       </c>
@@ -5668,7 +5687,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6</v>
       </c>
@@ -5691,7 +5710,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5720,7 +5739,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5742,14 +5761,11 @@
       <c r="H160" t="s">
         <v>337</v>
       </c>
-      <c r="I160" t="s">
-        <v>470</v>
-      </c>
-      <c r="J160" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L160" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5771,14 +5787,11 @@
       <c r="H161" t="s">
         <v>338</v>
       </c>
-      <c r="I161" t="s">
-        <v>470</v>
-      </c>
-      <c r="J161" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L161" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5800,14 +5813,11 @@
       <c r="H162" t="s">
         <v>339</v>
       </c>
-      <c r="I162" t="s">
-        <v>470</v>
-      </c>
-      <c r="J162" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L162" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5836,7 +5846,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5858,14 +5868,11 @@
       <c r="H164" t="s">
         <v>341</v>
       </c>
-      <c r="I164" t="s">
-        <v>470</v>
-      </c>
-      <c r="J164" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L164" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5894,7 +5901,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -5923,7 +5930,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -5945,14 +5952,11 @@
       <c r="H167" t="s">
         <v>344</v>
       </c>
-      <c r="I167" t="s">
-        <v>470</v>
-      </c>
-      <c r="J167" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L167" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5981,7 +5985,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -6003,14 +6007,11 @@
       <c r="H169" t="s">
         <v>346</v>
       </c>
-      <c r="I169" t="s">
-        <v>470</v>
-      </c>
-      <c r="J169" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L169" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -6032,14 +6033,11 @@
       <c r="H170" t="s">
         <v>347</v>
       </c>
-      <c r="I170" t="s">
-        <v>470</v>
-      </c>
-      <c r="J170" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L170" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -6068,7 +6066,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
@@ -6090,14 +6088,11 @@
       <c r="H172" t="s">
         <v>349</v>
       </c>
-      <c r="I172" t="s">
-        <v>470</v>
-      </c>
-      <c r="J172" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L172" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -6126,7 +6121,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -6148,8 +6143,11 @@
       <c r="H174" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L174" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6</v>
       </c>
@@ -6175,7 +6173,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>6</v>
       </c>
@@ -6809,11 +6807,8 @@
       <c r="H200" t="s">
         <v>377</v>
       </c>
-      <c r="I200" t="s">
-        <v>470</v>
-      </c>
-      <c r="J200" t="s">
-        <v>470</v>
+      <c r="L200" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
@@ -6867,11 +6862,8 @@
       <c r="H202" t="s">
         <v>379</v>
       </c>
-      <c r="I202" t="s">
-        <v>470</v>
-      </c>
-      <c r="J202" t="s">
-        <v>470</v>
+      <c r="L202" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -6896,11 +6888,8 @@
       <c r="H203" t="s">
         <v>380</v>
       </c>
-      <c r="I203" t="s">
-        <v>470</v>
-      </c>
-      <c r="J203" t="s">
-        <v>470</v>
+      <c r="L203" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
@@ -6925,14 +6914,8 @@
       <c r="H204" t="s">
         <v>381</v>
       </c>
-      <c r="I204" t="s">
-        <v>470</v>
-      </c>
-      <c r="J204" t="s">
-        <v>470</v>
-      </c>
       <c r="L204" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -6957,11 +6940,8 @@
       <c r="H205" t="s">
         <v>382</v>
       </c>
-      <c r="I205" t="s">
-        <v>470</v>
-      </c>
-      <c r="J205" t="s">
-        <v>470</v>
+      <c r="L205" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -7015,11 +6995,8 @@
       <c r="H207" t="s">
         <v>384</v>
       </c>
-      <c r="I207" t="s">
-        <v>470</v>
-      </c>
-      <c r="J207" t="s">
-        <v>470</v>
+      <c r="L207" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -7051,7 +7028,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4</v>
       </c>
@@ -7080,7 +7057,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>4</v>
       </c>
@@ -7109,7 +7086,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>4</v>
       </c>
@@ -7138,7 +7115,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4</v>
       </c>
@@ -7160,14 +7137,11 @@
       <c r="H212" t="s">
         <v>389</v>
       </c>
-      <c r="I212" t="s">
-        <v>470</v>
-      </c>
-      <c r="J212" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L212" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4</v>
       </c>
@@ -7189,14 +7163,11 @@
       <c r="H213" t="s">
         <v>390</v>
       </c>
-      <c r="I213" t="s">
-        <v>470</v>
-      </c>
-      <c r="J213" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L213" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>4</v>
       </c>
@@ -7225,7 +7196,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>4</v>
       </c>
@@ -7247,14 +7218,11 @@
       <c r="H215" t="s">
         <v>392</v>
       </c>
-      <c r="I215" t="s">
-        <v>470</v>
-      </c>
-      <c r="J215" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L215" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>4</v>
       </c>
@@ -7276,14 +7244,11 @@
       <c r="H216" t="s">
         <v>393</v>
       </c>
-      <c r="I216" t="s">
-        <v>470</v>
-      </c>
-      <c r="J216" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L216" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4</v>
       </c>
@@ -7312,7 +7277,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4</v>
       </c>
@@ -7341,7 +7306,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4</v>
       </c>
@@ -7363,14 +7328,11 @@
       <c r="H219" t="s">
         <v>396</v>
       </c>
-      <c r="I219" t="s">
-        <v>470</v>
-      </c>
-      <c r="J219" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L219" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4</v>
       </c>
@@ -7399,7 +7361,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4</v>
       </c>
@@ -7428,7 +7390,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4</v>
       </c>
@@ -7457,7 +7419,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>6</v>
       </c>
@@ -7480,7 +7442,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>6</v>
       </c>
@@ -7526,7 +7488,7 @@
         <v>402</v>
       </c>
       <c r="L225" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
@@ -7598,7 +7560,7 @@
         <v>405</v>
       </c>
       <c r="L228" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
@@ -9079,7 +9041,7 @@
         <v>470</v>
       </c>
       <c r="L290" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N290" s="3"/>
     </row>
@@ -9108,11 +9070,8 @@
       <c r="H291" t="s">
         <v>475</v>
       </c>
-      <c r="I291" t="s">
-        <v>470</v>
-      </c>
-      <c r="J291" t="s">
-        <v>470</v>
+      <c r="L291" t="s">
+        <v>515</v>
       </c>
       <c r="N291" s="3"/>
     </row>
@@ -9930,7 +9889,7 @@
         <v>2</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>138</v>
+        <v>516</v>
       </c>
       <c r="C319" t="s">
         <v>172</v>
@@ -9948,7 +9907,10 @@
         <v>177</v>
       </c>
       <c r="H319" t="s">
-        <v>508</v>
+        <v>517</v>
+      </c>
+      <c r="L319" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.3">
@@ -9959,7 +9921,7 @@
         <v>138</v>
       </c>
       <c r="C320" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D320">
         <v>5.43</v>
@@ -9974,7 +9936,7 @@
         <v>177</v>
       </c>
       <c r="H320" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
@@ -10000,7 +9962,7 @@
         <v>177</v>
       </c>
       <c r="H321" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -10011,7 +9973,7 @@
         <v>138</v>
       </c>
       <c r="C322" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D322">
         <v>13.13</v>
@@ -10026,7 +9988,7 @@
         <v>177</v>
       </c>
       <c r="H322" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31236F97-F9E0-461C-B8A9-4320398821B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D904D276-AFFA-4B12-B951-B7349DE6D41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="530">
   <si>
     <t>Species:</t>
   </si>
@@ -1595,6 +1595,52 @@
       </rPr>
       <t>A. olfersii</t>
     </r>
+  </si>
+  <si>
+    <t>Resampled</t>
+  </si>
+  <si>
+    <t>Resample failed</t>
+  </si>
+  <si>
+    <t>Vateritic/pathological</t>
+  </si>
+  <si>
+    <t>Muscles sampled but not matched</t>
+  </si>
+  <si>
+    <t>Weighed?</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dual treatment)</t>
+    </r>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Left = Whole</t>
+  </si>
+  <si>
+    <t>Right = Whole crushed</t>
   </si>
 </sst>
 </file>
@@ -1940,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N322"/>
+  <dimension ref="A1:O322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L320" sqref="L320"/>
+    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M235" sqref="M235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1953,10 +1999,10 @@
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
+    <col min="10" max="11" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1988,13 +2034,16 @@
         <v>468</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>7</v>
       </c>
@@ -2023,7 +2072,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -2052,7 +2101,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>7</v>
       </c>
@@ -2081,7 +2130,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>7</v>
       </c>
@@ -2110,7 +2159,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2139,7 +2188,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2161,11 +2210,17 @@
       <c r="H7" t="s">
         <v>184</v>
       </c>
-      <c r="L7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>470</v>
+      </c>
+      <c r="J7" t="s">
+        <v>470</v>
+      </c>
+      <c r="M7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2194,7 +2249,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2223,7 +2278,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2245,8 +2300,14 @@
       <c r="H10" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>470</v>
+      </c>
+      <c r="J10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2268,8 +2329,14 @@
       <c r="H11" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>470</v>
+      </c>
+      <c r="J11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2291,8 +2358,14 @@
       <c r="H12" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2314,8 +2387,14 @@
       <c r="H13" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>470</v>
+      </c>
+      <c r="J13" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2337,8 +2416,14 @@
       <c r="H14" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>470</v>
+      </c>
+      <c r="J14" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -2360,8 +2445,14 @@
       <c r="H15" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>470</v>
+      </c>
+      <c r="J15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -2383,8 +2474,14 @@
       <c r="H16" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>470</v>
+      </c>
+      <c r="J16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2406,8 +2503,14 @@
       <c r="H17" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>470</v>
+      </c>
+      <c r="J17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2429,8 +2532,14 @@
       <c r="H18" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>470</v>
+      </c>
+      <c r="J18" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2452,8 +2561,14 @@
       <c r="H19" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>470</v>
+      </c>
+      <c r="J19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2476,7 +2591,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2499,7 +2614,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2522,7 +2637,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2545,7 +2660,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2568,7 +2683,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2591,7 +2706,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2614,7 +2729,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2637,7 +2752,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2660,7 +2775,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2683,7 +2798,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2706,7 +2821,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2729,7 +2844,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -4960,7 +5075,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2</v>
       </c>
@@ -4983,7 +5098,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2</v>
       </c>
@@ -5006,7 +5121,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2</v>
       </c>
@@ -5029,7 +5144,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2</v>
       </c>
@@ -5052,7 +5167,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2</v>
       </c>
@@ -5074,8 +5189,11 @@
       <c r="H133" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M133" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2</v>
       </c>
@@ -5097,8 +5215,11 @@
       <c r="H134" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M134" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2</v>
       </c>
@@ -5120,8 +5241,11 @@
       <c r="H135" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M135" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2</v>
       </c>
@@ -5143,8 +5267,11 @@
       <c r="H136" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M136" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2</v>
       </c>
@@ -5166,8 +5293,11 @@
       <c r="H137" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M137" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2</v>
       </c>
@@ -5189,8 +5319,11 @@
       <c r="H138" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M138" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2</v>
       </c>
@@ -5212,8 +5345,11 @@
       <c r="H139" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M139" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2</v>
       </c>
@@ -5235,8 +5371,11 @@
       <c r="H140" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M140" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2</v>
       </c>
@@ -5258,8 +5397,11 @@
       <c r="H141" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M141" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2</v>
       </c>
@@ -5281,8 +5423,11 @@
       <c r="H142" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M142" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>7</v>
       </c>
@@ -5305,7 +5450,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>7</v>
       </c>
@@ -5328,7 +5473,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2</v>
       </c>
@@ -5351,7 +5496,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>6</v>
       </c>
@@ -5380,7 +5525,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>6</v>
       </c>
@@ -5409,7 +5554,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>6</v>
       </c>
@@ -5438,7 +5583,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>6</v>
       </c>
@@ -5467,7 +5612,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>6</v>
       </c>
@@ -5496,7 +5641,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>6</v>
       </c>
@@ -5519,7 +5664,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>6</v>
       </c>
@@ -5548,7 +5693,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>6</v>
       </c>
@@ -5577,7 +5722,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>6</v>
       </c>
@@ -5606,7 +5751,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>6</v>
       </c>
@@ -5635,7 +5780,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>6</v>
       </c>
@@ -5664,7 +5809,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>6</v>
       </c>
@@ -5687,7 +5832,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>6</v>
       </c>
@@ -5710,7 +5855,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5739,7 +5884,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5761,11 +5906,11 @@
       <c r="H160" t="s">
         <v>337</v>
       </c>
-      <c r="L160" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M160" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5787,11 +5932,17 @@
       <c r="H161" t="s">
         <v>338</v>
       </c>
-      <c r="L161" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I161" t="s">
+        <v>470</v>
+      </c>
+      <c r="J161" t="s">
+        <v>470</v>
+      </c>
+      <c r="M161" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5813,11 +5964,17 @@
       <c r="H162" t="s">
         <v>339</v>
       </c>
-      <c r="L162" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I162" t="s">
+        <v>470</v>
+      </c>
+      <c r="J162" t="s">
+        <v>470</v>
+      </c>
+      <c r="M162" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5846,7 +6003,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5868,11 +6025,17 @@
       <c r="H164" t="s">
         <v>341</v>
       </c>
-      <c r="L164" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I164" t="s">
+        <v>470</v>
+      </c>
+      <c r="J164" t="s">
+        <v>470</v>
+      </c>
+      <c r="M164" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5901,7 +6064,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1</v>
       </c>
@@ -5930,7 +6093,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1</v>
       </c>
@@ -5952,11 +6115,17 @@
       <c r="H167" t="s">
         <v>344</v>
       </c>
-      <c r="L167" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I167" t="s">
+        <v>470</v>
+      </c>
+      <c r="J167" t="s">
+        <v>470</v>
+      </c>
+      <c r="M167" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5985,7 +6154,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1</v>
       </c>
@@ -6007,11 +6176,11 @@
       <c r="H169" t="s">
         <v>346</v>
       </c>
-      <c r="L169" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M169" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1</v>
       </c>
@@ -6033,11 +6202,17 @@
       <c r="H170" t="s">
         <v>347</v>
       </c>
-      <c r="L170" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I170" t="s">
+        <v>470</v>
+      </c>
+      <c r="J170" t="s">
+        <v>470</v>
+      </c>
+      <c r="M170" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1</v>
       </c>
@@ -6066,7 +6241,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1</v>
       </c>
@@ -6088,11 +6263,11 @@
       <c r="H172" t="s">
         <v>349</v>
       </c>
-      <c r="L172" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M172" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1</v>
       </c>
@@ -6121,7 +6296,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1</v>
       </c>
@@ -6143,11 +6318,17 @@
       <c r="H174" t="s">
         <v>351</v>
       </c>
-      <c r="L174" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I174" t="s">
+        <v>470</v>
+      </c>
+      <c r="J174" t="s">
+        <v>470</v>
+      </c>
+      <c r="M174" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>6</v>
       </c>
@@ -6172,8 +6353,11 @@
       <c r="I175" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J175" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>6</v>
       </c>
@@ -6198,8 +6382,11 @@
       <c r="I176" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>6</v>
       </c>
@@ -6224,8 +6411,11 @@
       <c r="I177" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>6</v>
       </c>
@@ -6250,8 +6440,11 @@
       <c r="I178" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>6</v>
       </c>
@@ -6276,8 +6469,11 @@
       <c r="I179" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>6</v>
       </c>
@@ -6302,8 +6498,11 @@
       <c r="I180" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>6</v>
       </c>
@@ -6328,8 +6527,11 @@
       <c r="I181" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>6</v>
       </c>
@@ -6352,7 +6554,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>6</v>
       </c>
@@ -6375,7 +6577,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>6</v>
       </c>
@@ -6400,8 +6602,11 @@
       <c r="I184" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>6</v>
       </c>
@@ -6426,8 +6631,11 @@
       <c r="I185" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>6</v>
       </c>
@@ -6452,8 +6660,11 @@
       <c r="I186" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>6</v>
       </c>
@@ -6479,7 +6690,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>6</v>
       </c>
@@ -6505,7 +6716,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>6</v>
       </c>
@@ -6531,7 +6742,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>6</v>
       </c>
@@ -6557,7 +6768,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>6</v>
       </c>
@@ -6583,7 +6794,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>6</v>
       </c>
@@ -6609,7 +6820,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>6</v>
       </c>
@@ -6632,7 +6843,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>6</v>
       </c>
@@ -6658,7 +6869,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>8</v>
       </c>
@@ -6681,7 +6892,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>8</v>
       </c>
@@ -6704,7 +6915,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>8</v>
       </c>
@@ -6727,7 +6938,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>4</v>
       </c>
@@ -6756,7 +6967,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>4</v>
       </c>
@@ -6785,7 +6996,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>4</v>
       </c>
@@ -6807,11 +7018,17 @@
       <c r="H200" t="s">
         <v>377</v>
       </c>
-      <c r="L200" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I200" t="s">
+        <v>470</v>
+      </c>
+      <c r="J200" t="s">
+        <v>470</v>
+      </c>
+      <c r="M200" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>4</v>
       </c>
@@ -6840,7 +7057,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>4</v>
       </c>
@@ -6862,11 +7079,17 @@
       <c r="H202" t="s">
         <v>379</v>
       </c>
-      <c r="L202" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I202" t="s">
+        <v>470</v>
+      </c>
+      <c r="J202" t="s">
+        <v>470</v>
+      </c>
+      <c r="M202" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>4</v>
       </c>
@@ -6888,11 +7111,17 @@
       <c r="H203" t="s">
         <v>380</v>
       </c>
-      <c r="L203" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I203" t="s">
+        <v>470</v>
+      </c>
+      <c r="J203" t="s">
+        <v>470</v>
+      </c>
+      <c r="M203" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>4</v>
       </c>
@@ -6914,11 +7143,11 @@
       <c r="H204" t="s">
         <v>381</v>
       </c>
-      <c r="L204" t="s">
+      <c r="M204" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4</v>
       </c>
@@ -6940,11 +7169,17 @@
       <c r="H205" t="s">
         <v>382</v>
       </c>
-      <c r="L205" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I205" t="s">
+        <v>470</v>
+      </c>
+      <c r="J205" t="s">
+        <v>470</v>
+      </c>
+      <c r="M205" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>4</v>
       </c>
@@ -6973,7 +7208,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>4</v>
       </c>
@@ -6995,11 +7230,11 @@
       <c r="H207" t="s">
         <v>384</v>
       </c>
-      <c r="L207" t="s">
+      <c r="M207" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>4</v>
       </c>
@@ -7028,7 +7263,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>4</v>
       </c>
@@ -7057,7 +7292,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>4</v>
       </c>
@@ -7086,7 +7321,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>4</v>
       </c>
@@ -7115,7 +7350,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>4</v>
       </c>
@@ -7137,11 +7372,11 @@
       <c r="H212" t="s">
         <v>389</v>
       </c>
-      <c r="L212" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M212" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>4</v>
       </c>
@@ -7163,11 +7398,17 @@
       <c r="H213" t="s">
         <v>390</v>
       </c>
-      <c r="L213" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I213" t="s">
+        <v>470</v>
+      </c>
+      <c r="J213" t="s">
+        <v>470</v>
+      </c>
+      <c r="M213" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>4</v>
       </c>
@@ -7196,7 +7437,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>4</v>
       </c>
@@ -7218,11 +7459,11 @@
       <c r="H215" t="s">
         <v>392</v>
       </c>
-      <c r="L215" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M215" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>4</v>
       </c>
@@ -7244,11 +7485,17 @@
       <c r="H216" t="s">
         <v>393</v>
       </c>
-      <c r="L216" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I216" t="s">
+        <v>470</v>
+      </c>
+      <c r="J216" t="s">
+        <v>470</v>
+      </c>
+      <c r="M216" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>4</v>
       </c>
@@ -7277,7 +7524,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>4</v>
       </c>
@@ -7306,7 +7553,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>4</v>
       </c>
@@ -7328,11 +7575,11 @@
       <c r="H219" t="s">
         <v>396</v>
       </c>
-      <c r="L219" t="s">
+      <c r="M219" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>4</v>
       </c>
@@ -7361,7 +7608,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>4</v>
       </c>
@@ -7390,7 +7637,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>4</v>
       </c>
@@ -7419,7 +7666,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>6</v>
       </c>
@@ -7442,7 +7689,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>6</v>
       </c>
@@ -7465,7 +7712,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>6</v>
       </c>
@@ -7487,11 +7734,11 @@
       <c r="H225" t="s">
         <v>402</v>
       </c>
-      <c r="L225" t="s">
+      <c r="M225" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>6</v>
       </c>
@@ -7514,7 +7761,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>6</v>
       </c>
@@ -7537,7 +7784,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>6</v>
       </c>
@@ -7559,11 +7806,11 @@
       <c r="H228" t="s">
         <v>405</v>
       </c>
-      <c r="L228" t="s">
+      <c r="M228" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>6</v>
       </c>
@@ -7586,7 +7833,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>6</v>
       </c>
@@ -7609,7 +7856,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>6</v>
       </c>
@@ -7632,7 +7879,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>8</v>
       </c>
@@ -7654,8 +7901,17 @@
       <c r="H232" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I232" t="s">
+        <v>525</v>
+      </c>
+      <c r="J232" t="s">
+        <v>526</v>
+      </c>
+      <c r="M232" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>8</v>
       </c>
@@ -7677,8 +7933,17 @@
       <c r="H233" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I233" t="s">
+        <v>525</v>
+      </c>
+      <c r="J233" t="s">
+        <v>526</v>
+      </c>
+      <c r="M233" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>8</v>
       </c>
@@ -7700,8 +7965,17 @@
       <c r="H234" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I234" t="s">
+        <v>525</v>
+      </c>
+      <c r="J234" t="s">
+        <v>527</v>
+      </c>
+      <c r="M234" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>8</v>
       </c>
@@ -7723,8 +7997,14 @@
       <c r="H235" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I235" t="s">
+        <v>525</v>
+      </c>
+      <c r="J235" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>8</v>
       </c>
@@ -7746,8 +8026,14 @@
       <c r="H236" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I236" t="s">
+        <v>525</v>
+      </c>
+      <c r="J236" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>8</v>
       </c>
@@ -7769,8 +8055,14 @@
       <c r="H237" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I237" t="s">
+        <v>525</v>
+      </c>
+      <c r="J237" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>8</v>
       </c>
@@ -7792,8 +8084,14 @@
       <c r="H238" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I238" t="s">
+        <v>525</v>
+      </c>
+      <c r="J238" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>8</v>
       </c>
@@ -7815,8 +8113,14 @@
       <c r="H239" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I239" t="s">
+        <v>525</v>
+      </c>
+      <c r="J239" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>8</v>
       </c>
@@ -7838,8 +8142,14 @@
       <c r="H240" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I240" t="s">
+        <v>525</v>
+      </c>
+      <c r="J240" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>8</v>
       </c>
@@ -7861,8 +8171,14 @@
       <c r="H241" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I241" t="s">
+        <v>525</v>
+      </c>
+      <c r="J241" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>8</v>
       </c>
@@ -7884,8 +8200,14 @@
       <c r="H242" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I242" t="s">
+        <v>527</v>
+      </c>
+      <c r="J242" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>8</v>
       </c>
@@ -7907,8 +8229,14 @@
       <c r="H243" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I243" t="s">
+        <v>525</v>
+      </c>
+      <c r="J243" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>8</v>
       </c>
@@ -7930,8 +8258,14 @@
       <c r="H244" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I244" t="s">
+        <v>525</v>
+      </c>
+      <c r="J244" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>8</v>
       </c>
@@ -7953,8 +8287,14 @@
       <c r="H245" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I245" t="s">
+        <v>525</v>
+      </c>
+      <c r="J245" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>8</v>
       </c>
@@ -7976,8 +8316,14 @@
       <c r="H246" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I246" t="s">
+        <v>525</v>
+      </c>
+      <c r="J246" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>8</v>
       </c>
@@ -7999,8 +8345,14 @@
       <c r="H247" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I247" t="s">
+        <v>527</v>
+      </c>
+      <c r="J247" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>8</v>
       </c>
@@ -8022,8 +8374,14 @@
       <c r="H248" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I248" t="s">
+        <v>525</v>
+      </c>
+      <c r="J248" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>8</v>
       </c>
@@ -8045,8 +8403,14 @@
       <c r="H249" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I249" t="s">
+        <v>525</v>
+      </c>
+      <c r="J249" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>8</v>
       </c>
@@ -8068,8 +8432,14 @@
       <c r="H250" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I250" t="s">
+        <v>525</v>
+      </c>
+      <c r="J250" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>8</v>
       </c>
@@ -8091,8 +8461,14 @@
       <c r="H251" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I251" t="s">
+        <v>525</v>
+      </c>
+      <c r="J251" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>8</v>
       </c>
@@ -8114,8 +8490,14 @@
       <c r="H252" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I252" t="s">
+        <v>525</v>
+      </c>
+      <c r="J252" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>8</v>
       </c>
@@ -8137,8 +8519,14 @@
       <c r="H253" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I253" t="s">
+        <v>525</v>
+      </c>
+      <c r="J253" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>8</v>
       </c>
@@ -8160,8 +8548,14 @@
       <c r="H254" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I254" t="s">
+        <v>525</v>
+      </c>
+      <c r="J254" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>8</v>
       </c>
@@ -8183,8 +8577,14 @@
       <c r="H255" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I255" t="s">
+        <v>525</v>
+      </c>
+      <c r="J255" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>8</v>
       </c>
@@ -8976,7 +9376,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2</v>
       </c>
@@ -9007,9 +9407,9 @@
       <c r="J289" t="s">
         <v>470</v>
       </c>
-      <c r="N289" s="3"/>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O289" s="3"/>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2</v>
       </c>
@@ -9040,12 +9440,12 @@
       <c r="J290" t="s">
         <v>470</v>
       </c>
-      <c r="L290" t="s">
+      <c r="M290" t="s">
         <v>514</v>
       </c>
-      <c r="N290" s="3"/>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O290" s="3"/>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2</v>
       </c>
@@ -9070,12 +9470,12 @@
       <c r="H291" t="s">
         <v>475</v>
       </c>
-      <c r="L291" t="s">
+      <c r="M291" t="s">
         <v>515</v>
       </c>
-      <c r="N291" s="3"/>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O291" s="3"/>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2</v>
       </c>
@@ -9106,9 +9506,9 @@
       <c r="J292" t="s">
         <v>470</v>
       </c>
-      <c r="N292" s="3"/>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O292" s="3"/>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2</v>
       </c>
@@ -9139,9 +9539,9 @@
       <c r="J293" t="s">
         <v>470</v>
       </c>
-      <c r="N293" s="3"/>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O293" s="3"/>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2</v>
       </c>
@@ -9172,9 +9572,9 @@
       <c r="J294" t="s">
         <v>470</v>
       </c>
-      <c r="N294" s="3"/>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O294" s="3"/>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2</v>
       </c>
@@ -9205,9 +9605,9 @@
       <c r="J295" t="s">
         <v>470</v>
       </c>
-      <c r="N295" s="3"/>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O295" s="3"/>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2</v>
       </c>
@@ -9238,9 +9638,9 @@
       <c r="J296" t="s">
         <v>470</v>
       </c>
-      <c r="N296" s="3"/>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O296" s="3"/>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2</v>
       </c>
@@ -9271,9 +9671,9 @@
       <c r="J297" t="s">
         <v>470</v>
       </c>
-      <c r="N297" s="3"/>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O297" s="3"/>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2</v>
       </c>
@@ -9304,9 +9704,9 @@
       <c r="J298" t="s">
         <v>470</v>
       </c>
-      <c r="N298" s="3"/>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O298" s="3"/>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2</v>
       </c>
@@ -9337,9 +9737,9 @@
       <c r="J299" t="s">
         <v>470</v>
       </c>
-      <c r="N299" s="3"/>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O299" s="3"/>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2</v>
       </c>
@@ -9370,9 +9770,9 @@
       <c r="J300" t="s">
         <v>470</v>
       </c>
-      <c r="N300" s="3"/>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O300" s="3"/>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2</v>
       </c>
@@ -9403,9 +9803,9 @@
       <c r="J301" t="s">
         <v>470</v>
       </c>
-      <c r="N301" s="3"/>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O301" s="3"/>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2</v>
       </c>
@@ -9436,9 +9836,9 @@
       <c r="J302" t="s">
         <v>470</v>
       </c>
-      <c r="N302" s="3"/>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O302" s="3"/>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2</v>
       </c>
@@ -9469,9 +9869,9 @@
       <c r="J303" t="s">
         <v>470</v>
       </c>
-      <c r="N303" s="3"/>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O303" s="3"/>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2</v>
       </c>
@@ -9502,9 +9902,9 @@
       <c r="J304" t="s">
         <v>470</v>
       </c>
-      <c r="N304" s="3"/>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O304" s="3"/>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2</v>
       </c>
@@ -9535,9 +9935,9 @@
       <c r="J305" t="s">
         <v>470</v>
       </c>
-      <c r="N305" s="3"/>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O305" s="3"/>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2</v>
       </c>
@@ -9568,9 +9968,9 @@
       <c r="J306" t="s">
         <v>470</v>
       </c>
-      <c r="N306" s="3"/>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O306" s="3"/>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>5</v>
       </c>
@@ -9595,9 +9995,15 @@
       <c r="H307" t="s">
         <v>496</v>
       </c>
-      <c r="N307" s="3"/>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I307" t="s">
+        <v>470</v>
+      </c>
+      <c r="J307" t="s">
+        <v>470</v>
+      </c>
+      <c r="O307" s="3"/>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>5</v>
       </c>
@@ -9622,9 +10028,15 @@
       <c r="H308" t="s">
         <v>497</v>
       </c>
-      <c r="N308" s="3"/>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I308" t="s">
+        <v>470</v>
+      </c>
+      <c r="J308" t="s">
+        <v>470</v>
+      </c>
+      <c r="O308" s="3"/>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>5</v>
       </c>
@@ -9649,8 +10061,14 @@
       <c r="H309" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I309" t="s">
+        <v>470</v>
+      </c>
+      <c r="J309" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>5</v>
       </c>
@@ -9675,8 +10093,14 @@
       <c r="H310" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I310" t="s">
+        <v>470</v>
+      </c>
+      <c r="J310" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>5</v>
       </c>
@@ -9701,8 +10125,14 @@
       <c r="H311" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I311" t="s">
+        <v>470</v>
+      </c>
+      <c r="J311" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>5</v>
       </c>
@@ -9727,8 +10157,14 @@
       <c r="H312" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I312" t="s">
+        <v>470</v>
+      </c>
+      <c r="J312" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>5</v>
       </c>
@@ -9753,8 +10189,14 @@
       <c r="H313" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I313" t="s">
+        <v>470</v>
+      </c>
+      <c r="J313" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>5</v>
       </c>
@@ -9779,8 +10221,14 @@
       <c r="H314" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I314" t="s">
+        <v>470</v>
+      </c>
+      <c r="J314" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>5</v>
       </c>
@@ -9805,8 +10253,14 @@
       <c r="H315" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I315" t="s">
+        <v>470</v>
+      </c>
+      <c r="J315" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>5</v>
       </c>
@@ -9831,8 +10285,14 @@
       <c r="H316" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I316" t="s">
+        <v>470</v>
+      </c>
+      <c r="J316" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>5</v>
       </c>
@@ -9857,8 +10317,14 @@
       <c r="H317" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I317" t="s">
+        <v>470</v>
+      </c>
+      <c r="J317" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>5</v>
       </c>
@@ -9883,8 +10349,14 @@
       <c r="H318" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I318" t="s">
+        <v>470</v>
+      </c>
+      <c r="J318" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2</v>
       </c>
@@ -9909,11 +10381,11 @@
       <c r="H319" t="s">
         <v>517</v>
       </c>
-      <c r="L319" t="s">
+      <c r="M319" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2</v>
       </c>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D904D276-AFFA-4B12-B951-B7349DE6D41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F1321B-2286-489A-9C22-ED5C119BC825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1916" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="530">
   <si>
     <t>Species:</t>
   </si>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M235" sqref="M235"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J264" sqref="J264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8606,8 +8606,14 @@
       <c r="H256" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I256" t="s">
+        <v>525</v>
+      </c>
+      <c r="J256" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>8</v>
       </c>
@@ -8629,8 +8635,14 @@
       <c r="H257" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I257" t="s">
+        <v>525</v>
+      </c>
+      <c r="J257" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>8</v>
       </c>
@@ -8652,8 +8664,14 @@
       <c r="H258" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I258" t="s">
+        <v>525</v>
+      </c>
+      <c r="J258" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>8</v>
       </c>
@@ -8675,8 +8693,14 @@
       <c r="H259" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I259" t="s">
+        <v>527</v>
+      </c>
+      <c r="J259" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>8</v>
       </c>
@@ -8698,8 +8722,14 @@
       <c r="H260" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I260" t="s">
+        <v>527</v>
+      </c>
+      <c r="J260" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>8</v>
       </c>
@@ -8721,8 +8751,14 @@
       <c r="H261" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I261" t="s">
+        <v>525</v>
+      </c>
+      <c r="J261" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>8</v>
       </c>
@@ -8744,8 +8780,14 @@
       <c r="H262" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I262" t="s">
+        <v>525</v>
+      </c>
+      <c r="J262" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>8</v>
       </c>
@@ -8767,8 +8809,14 @@
       <c r="H263" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I263" t="s">
+        <v>527</v>
+      </c>
+      <c r="J263" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>8</v>
       </c>
@@ -8790,8 +8838,14 @@
       <c r="H264" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I264" t="s">
+        <v>525</v>
+      </c>
+      <c r="J264" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>8</v>
       </c>
@@ -8814,7 +8868,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>8</v>
       </c>
@@ -8837,7 +8891,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>8</v>
       </c>
@@ -8860,7 +8914,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>8</v>
       </c>
@@ -8883,7 +8937,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>8</v>
       </c>
@@ -8906,7 +8960,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>8</v>
       </c>
@@ -8929,7 +8983,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>8</v>
       </c>
@@ -8952,7 +9006,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>8</v>
       </c>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F1321B-2286-489A-9C22-ED5C119BC825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEB856C-D13C-45DE-A01C-52A7287D9DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="530">
   <si>
     <t>Species:</t>
   </si>
@@ -1988,8 +1988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J264" sqref="J264"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J196" sqref="J196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6689,6 +6689,9 @@
       <c r="I187" t="s">
         <v>470</v>
       </c>
+      <c r="J187" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
@@ -6715,6 +6718,9 @@
       <c r="I188" t="s">
         <v>470</v>
       </c>
+      <c r="J188" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
@@ -6741,6 +6747,9 @@
       <c r="I189" t="s">
         <v>470</v>
       </c>
+      <c r="J189" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
@@ -6767,6 +6776,9 @@
       <c r="I190" t="s">
         <v>470</v>
       </c>
+      <c r="J190" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
@@ -6793,6 +6805,9 @@
       <c r="I191" t="s">
         <v>470</v>
       </c>
+      <c r="J191" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
@@ -6819,6 +6834,9 @@
       <c r="I192" t="s">
         <v>470</v>
       </c>
+      <c r="J192" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
@@ -6866,6 +6884,9 @@
         <v>371</v>
       </c>
       <c r="I194" t="s">
+        <v>470</v>
+      </c>
+      <c r="J194" t="s">
         <v>470</v>
       </c>
     </row>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEB856C-D13C-45DE-A01C-52A7287D9DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDBD31E-3279-49E2-B94D-6A6A9730492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC22018" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1941" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="530">
   <si>
     <t>Species:</t>
   </si>
@@ -1986,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O322"/>
+  <dimension ref="A1:Q322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J196" sqref="J196"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K141" sqref="K141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2129,6 +2138,9 @@
       <c r="J4" t="s">
         <v>470</v>
       </c>
+      <c r="K4" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2158,6 +2170,9 @@
       <c r="J5" t="s">
         <v>470</v>
       </c>
+      <c r="K5" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2187,6 +2202,9 @@
       <c r="J6" t="s">
         <v>470</v>
       </c>
+      <c r="K6" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2216,6 +2234,9 @@
       <c r="J7" t="s">
         <v>470</v>
       </c>
+      <c r="K7" t="s">
+        <v>470</v>
+      </c>
       <c r="M7" t="s">
         <v>519</v>
       </c>
@@ -5189,6 +5210,15 @@
       <c r="H133" t="s">
         <v>310</v>
       </c>
+      <c r="I133" t="s">
+        <v>470</v>
+      </c>
+      <c r="J133" t="s">
+        <v>470</v>
+      </c>
+      <c r="K133" t="s">
+        <v>470</v>
+      </c>
       <c r="M133" t="s">
         <v>522</v>
       </c>
@@ -5267,6 +5297,15 @@
       <c r="H136" t="s">
         <v>313</v>
       </c>
+      <c r="I136" t="s">
+        <v>470</v>
+      </c>
+      <c r="J136" t="s">
+        <v>470</v>
+      </c>
+      <c r="K136" t="s">
+        <v>470</v>
+      </c>
       <c r="M136" t="s">
         <v>522</v>
       </c>
@@ -5319,6 +5358,15 @@
       <c r="H138" t="s">
         <v>315</v>
       </c>
+      <c r="I138" t="s">
+        <v>470</v>
+      </c>
+      <c r="J138" t="s">
+        <v>470</v>
+      </c>
+      <c r="K138" t="s">
+        <v>470</v>
+      </c>
       <c r="M138" t="s">
         <v>522</v>
       </c>
@@ -5370,6 +5418,15 @@
       </c>
       <c r="H140" t="s">
         <v>317</v>
+      </c>
+      <c r="I140" t="s">
+        <v>470</v>
+      </c>
+      <c r="J140" t="s">
+        <v>470</v>
+      </c>
+      <c r="K140" t="s">
+        <v>470</v>
       </c>
       <c r="M140" t="s">
         <v>522</v>
@@ -5553,6 +5610,9 @@
       <c r="J147" t="s">
         <v>470</v>
       </c>
+      <c r="K147" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
@@ -5582,6 +5642,9 @@
       <c r="J148" t="s">
         <v>470</v>
       </c>
+      <c r="K148" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
@@ -5721,6 +5784,9 @@
       <c r="J153" t="s">
         <v>470</v>
       </c>
+      <c r="K153" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
@@ -5750,6 +5816,9 @@
       <c r="J154" t="s">
         <v>470</v>
       </c>
+      <c r="K154" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
@@ -5779,6 +5848,9 @@
       <c r="J155" t="s">
         <v>470</v>
       </c>
+      <c r="K155" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
@@ -5808,6 +5880,9 @@
       <c r="J156" t="s">
         <v>470</v>
       </c>
+      <c r="K156" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
@@ -5854,6 +5929,15 @@
       <c r="H158" t="s">
         <v>335</v>
       </c>
+      <c r="I158" t="s">
+        <v>470</v>
+      </c>
+      <c r="J158" t="s">
+        <v>470</v>
+      </c>
+      <c r="K158" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
@@ -5938,6 +6022,9 @@
       <c r="J161" t="s">
         <v>470</v>
       </c>
+      <c r="K161" t="s">
+        <v>470</v>
+      </c>
       <c r="M161" t="s">
         <v>519</v>
       </c>
@@ -6063,6 +6150,9 @@
       <c r="J165" t="s">
         <v>470</v>
       </c>
+      <c r="K165" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
@@ -7228,6 +7318,9 @@
       <c r="J206" t="s">
         <v>470</v>
       </c>
+      <c r="K206" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
@@ -7312,6 +7405,9 @@
       <c r="J209" t="s">
         <v>470</v>
       </c>
+      <c r="K209" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
@@ -7341,6 +7437,9 @@
       <c r="J210" t="s">
         <v>470</v>
       </c>
+      <c r="K210" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
@@ -7457,6 +7556,9 @@
       <c r="J214" t="s">
         <v>470</v>
       </c>
+      <c r="K214" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
@@ -7544,6 +7646,9 @@
       <c r="J217" t="s">
         <v>470</v>
       </c>
+      <c r="K217" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
@@ -7573,6 +7678,9 @@
       <c r="J218" t="s">
         <v>470</v>
       </c>
+      <c r="K218" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
@@ -7657,6 +7765,9 @@
       <c r="J221" t="s">
         <v>470</v>
       </c>
+      <c r="K221" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
@@ -9050,7 +9161,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>8</v>
       </c>
@@ -9073,7 +9184,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>8</v>
       </c>
@@ -9096,7 +9207,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>8</v>
       </c>
@@ -9119,7 +9230,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>8</v>
       </c>
@@ -9142,7 +9253,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>8</v>
       </c>
@@ -9165,7 +9276,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>8</v>
       </c>
@@ -9188,7 +9299,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>8</v>
       </c>
@@ -9211,7 +9322,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>8</v>
       </c>
@@ -9234,7 +9345,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>8</v>
       </c>
@@ -9257,7 +9368,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2</v>
       </c>
@@ -9283,7 +9394,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2</v>
       </c>
@@ -9309,7 +9420,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2</v>
       </c>
@@ -9335,7 +9446,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2</v>
       </c>
@@ -9361,7 +9472,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2</v>
       </c>
@@ -9387,7 +9498,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2</v>
       </c>
@@ -9419,7 +9530,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2</v>
       </c>
@@ -9450,8 +9561,11 @@
       <c r="J288" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K288" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2</v>
       </c>
@@ -9482,9 +9596,12 @@
       <c r="J289" t="s">
         <v>470</v>
       </c>
+      <c r="K289" t="s">
+        <v>470</v>
+      </c>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2</v>
       </c>
@@ -9520,7 +9637,7 @@
       </c>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2</v>
       </c>
@@ -9550,7 +9667,7 @@
       </c>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2</v>
       </c>
@@ -9583,7 +9700,7 @@
       </c>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2</v>
       </c>
@@ -9616,7 +9733,7 @@
       </c>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2</v>
       </c>
@@ -9649,7 +9766,7 @@
       </c>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2</v>
       </c>
@@ -9680,9 +9797,12 @@
       <c r="J295" t="s">
         <v>470</v>
       </c>
+      <c r="K295" t="s">
+        <v>470</v>
+      </c>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2</v>
       </c>
@@ -9715,7 +9835,7 @@
       </c>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2</v>
       </c>
@@ -9746,9 +9866,12 @@
       <c r="J297" t="s">
         <v>470</v>
       </c>
+      <c r="K297" t="s">
+        <v>470</v>
+      </c>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2</v>
       </c>
@@ -9779,9 +9902,12 @@
       <c r="J298" t="s">
         <v>470</v>
       </c>
+      <c r="K298" t="s">
+        <v>470</v>
+      </c>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2</v>
       </c>
@@ -9814,7 +9940,7 @@
       </c>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2</v>
       </c>
@@ -9847,7 +9973,7 @@
       </c>
       <c r="O300" s="3"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2</v>
       </c>
@@ -9878,9 +10004,18 @@
       <c r="J301" t="s">
         <v>470</v>
       </c>
+      <c r="K301" t="s">
+        <v>470</v>
+      </c>
       <c r="O301" s="3"/>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P301">
+        <v>37</v>
+      </c>
+      <c r="Q301">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2</v>
       </c>
@@ -9912,8 +10047,14 @@
         <v>470</v>
       </c>
       <c r="O302" s="3"/>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P302">
+        <v>30</v>
+      </c>
+      <c r="Q302">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2</v>
       </c>
@@ -9944,9 +10085,18 @@
       <c r="J303" t="s">
         <v>470</v>
       </c>
+      <c r="K303" t="s">
+        <v>470</v>
+      </c>
       <c r="O303" s="3"/>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P303">
+        <v>25</v>
+      </c>
+      <c r="Q303">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2</v>
       </c>
@@ -9978,8 +10128,14 @@
         <v>470</v>
       </c>
       <c r="O304" s="3"/>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P304">
+        <v>30</v>
+      </c>
+      <c r="Q304">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2</v>
       </c>
@@ -10010,9 +10166,18 @@
       <c r="J305" t="s">
         <v>470</v>
       </c>
+      <c r="K305" t="s">
+        <v>470</v>
+      </c>
       <c r="O305" s="3"/>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P305">
+        <v>34</v>
+      </c>
+      <c r="Q305">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2</v>
       </c>
@@ -10043,9 +10208,18 @@
       <c r="J306" t="s">
         <v>470</v>
       </c>
+      <c r="K306" t="s">
+        <v>470</v>
+      </c>
       <c r="O306" s="3"/>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P306">
+        <v>61</v>
+      </c>
+      <c r="Q306">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>5</v>
       </c>
@@ -10077,8 +10251,14 @@
         <v>470</v>
       </c>
       <c r="O307" s="3"/>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P307">
+        <v>63</v>
+      </c>
+      <c r="Q307">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>5</v>
       </c>
@@ -10110,8 +10290,14 @@
         <v>470</v>
       </c>
       <c r="O308" s="3"/>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P308">
+        <v>80</v>
+      </c>
+      <c r="Q308">
+        <v>13.13</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>5</v>
       </c>
@@ -10143,7 +10329,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>5</v>
       </c>
@@ -10175,7 +10361,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>5</v>
       </c>
@@ -10207,7 +10393,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>5</v>
       </c>
@@ -10239,7 +10425,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>5</v>
       </c>
@@ -10271,7 +10457,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>5</v>
       </c>
@@ -10303,7 +10489,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>5</v>
       </c>
@@ -10335,7 +10521,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>5</v>
       </c>
@@ -10367,7 +10553,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>5</v>
       </c>
@@ -10399,7 +10585,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>5</v>
       </c>
@@ -10431,7 +10617,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2</v>
       </c>
@@ -10460,7 +10646,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2</v>
       </c>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDBD31E-3279-49E2-B94D-6A6A9730492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ABEE70-4982-47CE-9D27-DF40B3F8E171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1984" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="530">
   <si>
     <t>Species:</t>
   </si>
@@ -1997,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K141" sqref="K141"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N199" sqref="N199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,6 +2080,12 @@
       <c r="J2" t="s">
         <v>470</v>
       </c>
+      <c r="K2" t="s">
+        <v>527</v>
+      </c>
+      <c r="L2" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2109,6 +2115,9 @@
       <c r="J3" t="s">
         <v>470</v>
       </c>
+      <c r="M3" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -6182,6 +6191,9 @@
       <c r="J166" t="s">
         <v>470</v>
       </c>
+      <c r="M166" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
@@ -7077,6 +7089,9 @@
       <c r="J198" t="s">
         <v>470</v>
       </c>
+      <c r="M198" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
@@ -7106,6 +7121,9 @@
       <c r="J199" t="s">
         <v>470</v>
       </c>
+      <c r="M199" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
@@ -7286,6 +7304,12 @@
       <c r="J205" t="s">
         <v>470</v>
       </c>
+      <c r="K205" t="s">
+        <v>527</v>
+      </c>
+      <c r="L205" t="s">
+        <v>527</v>
+      </c>
       <c r="M205" t="s">
         <v>519</v>
       </c>
@@ -7376,6 +7400,9 @@
       <c r="J208" t="s">
         <v>470</v>
       </c>
+      <c r="M208" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
@@ -7440,6 +7467,9 @@
       <c r="K210" t="s">
         <v>470</v>
       </c>
+      <c r="M210" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
@@ -7469,6 +7499,9 @@
       <c r="J211" t="s">
         <v>470</v>
       </c>
+      <c r="M211" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
@@ -9698,6 +9731,9 @@
       <c r="J292" t="s">
         <v>470</v>
       </c>
+      <c r="M292" t="s">
+        <v>519</v>
+      </c>
       <c r="O292" s="3"/>
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.3">
@@ -9937,6 +9973,9 @@
       </c>
       <c r="J299" t="s">
         <v>470</v>
+      </c>
+      <c r="M299" t="s">
+        <v>519</v>
       </c>
       <c r="O299" s="3"/>
     </row>

--- a/TCOtoliths.xlsx
+++ b/TCOtoliths.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Desktop\Job Hunting\Clive Trueman Job\Mesopelagic FMR Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HulloThere\Documents\Constraining FMR Mesopelagic\Metadata\Sample Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22ABEE70-4982-47CE-9D27-DF40B3F8E171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D283A5-D791-49F4-93F3-F4D0C5B1E020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1966" uniqueCount="537">
   <si>
     <t>Species:</t>
   </si>
@@ -1650,6 +1650,27 @@
   </si>
   <si>
     <t>Right = Whole crushed</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TCMA021</t>
+  </si>
+  <si>
+    <t>TCMA022</t>
+  </si>
+  <si>
+    <t>TCMA023</t>
+  </si>
+  <si>
+    <t>TCMA024</t>
+  </si>
+  <si>
+    <t>TCMA025</t>
+  </si>
+  <si>
+    <t>78mm SL</t>
   </si>
 </sst>
 </file>
@@ -1995,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q322"/>
+  <dimension ref="A1:Q327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A183" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N199" sqref="N199"/>
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E328" sqref="E328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2080,12 +2101,6 @@
       <c r="J2" t="s">
         <v>470</v>
       </c>
-      <c r="K2" t="s">
-        <v>527</v>
-      </c>
-      <c r="L2" t="s">
-        <v>527</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -2115,9 +2130,6 @@
       <c r="J3" t="s">
         <v>470</v>
       </c>
-      <c r="M3" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -2147,9 +2159,6 @@
       <c r="J4" t="s">
         <v>470</v>
       </c>
-      <c r="K4" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -2179,9 +2188,6 @@
       <c r="J5" t="s">
         <v>470</v>
       </c>
-      <c r="K5" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -2211,9 +2217,6 @@
       <c r="J6" t="s">
         <v>470</v>
       </c>
-      <c r="K6" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -2243,9 +2246,6 @@
       <c r="J7" t="s">
         <v>470</v>
       </c>
-      <c r="K7" t="s">
-        <v>470</v>
-      </c>
       <c r="M7" t="s">
         <v>519</v>
       </c>
@@ -5219,15 +5219,6 @@
       <c r="H133" t="s">
         <v>310</v>
       </c>
-      <c r="I133" t="s">
-        <v>470</v>
-      </c>
-      <c r="J133" t="s">
-        <v>470</v>
-      </c>
-      <c r="K133" t="s">
-        <v>470</v>
-      </c>
       <c r="M133" t="s">
         <v>522</v>
       </c>
@@ -5306,15 +5297,6 @@
       <c r="H136" t="s">
         <v>313</v>
       </c>
-      <c r="I136" t="s">
-        <v>470</v>
-      </c>
-      <c r="J136" t="s">
-        <v>470</v>
-      </c>
-      <c r="K136" t="s">
-        <v>470</v>
-      </c>
       <c r="M136" t="s">
         <v>522</v>
       </c>
@@ -5367,15 +5349,6 @@
       <c r="H138" t="s">
         <v>315</v>
       </c>
-      <c r="I138" t="s">
-        <v>470</v>
-      </c>
-      <c r="J138" t="s">
-        <v>470</v>
-      </c>
-      <c r="K138" t="s">
-        <v>470</v>
-      </c>
       <c r="M138" t="s">
         <v>522</v>
       </c>
@@ -5427,15 +5400,6 @@
       </c>
       <c r="H140" t="s">
         <v>317</v>
-      </c>
-      <c r="I140" t="s">
-        <v>470</v>
-      </c>
-      <c r="J140" t="s">
-        <v>470</v>
-      </c>
-      <c r="K140" t="s">
-        <v>470</v>
       </c>
       <c r="M140" t="s">
         <v>522</v>
@@ -5619,9 +5583,6 @@
       <c r="J147" t="s">
         <v>470</v>
       </c>
-      <c r="K147" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
@@ -5651,9 +5612,6 @@
       <c r="J148" t="s">
         <v>470</v>
       </c>
-      <c r="K148" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
@@ -5793,9 +5751,6 @@
       <c r="J153" t="s">
         <v>470</v>
       </c>
-      <c r="K153" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
@@ -5825,9 +5780,6 @@
       <c r="J154" t="s">
         <v>470</v>
       </c>
-      <c r="K154" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
@@ -5857,9 +5809,6 @@
       <c r="J155" t="s">
         <v>470</v>
       </c>
-      <c r="K155" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
@@ -5889,9 +5838,6 @@
       <c r="J156" t="s">
         <v>470</v>
       </c>
-      <c r="K156" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
@@ -5938,15 +5884,6 @@
       <c r="H158" t="s">
         <v>335</v>
       </c>
-      <c r="I158" t="s">
-        <v>470</v>
-      </c>
-      <c r="J158" t="s">
-        <v>470</v>
-      </c>
-      <c r="K158" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
@@ -6031,9 +5968,6 @@
       <c r="J161" t="s">
         <v>470</v>
       </c>
-      <c r="K161" t="s">
-        <v>470</v>
-      </c>
       <c r="M161" t="s">
         <v>519</v>
       </c>
@@ -6159,9 +6093,6 @@
       <c r="J165" t="s">
         <v>470</v>
       </c>
-      <c r="K165" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
@@ -6191,9 +6122,6 @@
       <c r="J166" t="s">
         <v>470</v>
       </c>
-      <c r="M166" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
@@ -7089,9 +7017,6 @@
       <c r="J198" t="s">
         <v>470</v>
       </c>
-      <c r="M198" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
@@ -7121,9 +7046,6 @@
       <c r="J199" t="s">
         <v>470</v>
       </c>
-      <c r="M199" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
@@ -7304,12 +7226,6 @@
       <c r="J205" t="s">
         <v>470</v>
       </c>
-      <c r="K205" t="s">
-        <v>527</v>
-      </c>
-      <c r="L205" t="s">
-        <v>527</v>
-      </c>
       <c r="M205" t="s">
         <v>519</v>
       </c>
@@ -7342,9 +7258,6 @@
       <c r="J206" t="s">
         <v>470</v>
       </c>
-      <c r="K206" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
@@ -7400,9 +7313,6 @@
       <c r="J208" t="s">
         <v>470</v>
       </c>
-      <c r="M208" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
@@ -7432,9 +7342,6 @@
       <c r="J209" t="s">
         <v>470</v>
       </c>
-      <c r="K209" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
@@ -7464,12 +7371,6 @@
       <c r="J210" t="s">
         <v>470</v>
       </c>
-      <c r="K210" t="s">
-        <v>470</v>
-      </c>
-      <c r="M210" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
@@ -7499,9 +7400,6 @@
       <c r="J211" t="s">
         <v>470</v>
       </c>
-      <c r="M211" t="s">
-        <v>519</v>
-      </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
@@ -7589,9 +7487,6 @@
       <c r="J214" t="s">
         <v>470</v>
       </c>
-      <c r="K214" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
@@ -7679,9 +7574,6 @@
       <c r="J217" t="s">
         <v>470</v>
       </c>
-      <c r="K217" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
@@ -7711,9 +7603,6 @@
       <c r="J218" t="s">
         <v>470</v>
       </c>
-      <c r="K218" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
@@ -7798,9 +7687,6 @@
       <c r="J221" t="s">
         <v>470</v>
       </c>
-      <c r="K221" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
@@ -9194,7 +9080,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>8</v>
       </c>
@@ -9217,7 +9103,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>8</v>
       </c>
@@ -9240,7 +9126,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>8</v>
       </c>
@@ -9263,7 +9149,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>8</v>
       </c>
@@ -9286,7 +9172,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>8</v>
       </c>
@@ -9309,7 +9195,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>8</v>
       </c>
@@ -9332,7 +9218,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>8</v>
       </c>
@@ -9355,7 +9241,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>8</v>
       </c>
@@ -9378,7 +9264,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>8</v>
       </c>
@@ -9401,7 +9287,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2</v>
       </c>
@@ -9427,7 +9313,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2</v>
       </c>
@@ -9453,7 +9339,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2</v>
       </c>
@@ -9479,7 +9365,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2</v>
       </c>
@@ -9505,7 +9391,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2</v>
       </c>
@@ -9531,7 +9417,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2</v>
       </c>
@@ -9563,7 +9449,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2</v>
       </c>
@@ -9594,9 +9480,6 @@
       <c r="J288" t="s">
         <v>470</v>
       </c>
-      <c r="K288" t="s">
-        <v>470</v>
-      </c>
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A289">
@@ -9629,9 +9512,6 @@
       <c r="J289" t="s">
         <v>470</v>
       </c>
-      <c r="K289" t="s">
-        <v>470</v>
-      </c>
       <c r="O289" s="3"/>
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.3">
@@ -9731,9 +9611,6 @@
       <c r="J292" t="s">
         <v>470</v>
       </c>
-      <c r="M292" t="s">
-        <v>519</v>
-      </c>
       <c r="O292" s="3"/>
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.3">
@@ -9833,9 +9710,6 @@
       <c r="J295" t="s">
         <v>470</v>
       </c>
-      <c r="K295" t="s">
-        <v>470</v>
-      </c>
       <c r="O295" s="3"/>
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.3">
@@ -9902,9 +9776,6 @@
       <c r="J297" t="s">
         <v>470</v>
       </c>
-      <c r="K297" t="s">
-        <v>470</v>
-      </c>
       <c r="O297" s="3"/>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.3">
@@ -9938,9 +9809,6 @@
       <c r="J298" t="s">
         <v>470</v>
       </c>
-      <c r="K298" t="s">
-        <v>470</v>
-      </c>
       <c r="O298" s="3"/>
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.3">
@@ -9974,9 +9842,6 @@
       <c r="J299" t="s">
         <v>470</v>
       </c>
-      <c r="M299" t="s">
-        <v>519</v>
-      </c>
       <c r="O299" s="3"/>
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.3">
@@ -10041,9 +9906,6 @@
         <v>470</v>
       </c>
       <c r="J301" t="s">
-        <v>470</v>
-      </c>
-      <c r="K301" t="s">
         <v>470</v>
       </c>
       <c r="O301" s="3"/>
@@ -10124,9 +9986,6 @@
       <c r="J303" t="s">
         <v>470</v>
       </c>
-      <c r="K303" t="s">
-        <v>470</v>
-      </c>
       <c r="O303" s="3"/>
       <c r="P303">
         <v>25</v>
@@ -10205,9 +10064,6 @@
       <c r="J305" t="s">
         <v>470</v>
       </c>
-      <c r="K305" t="s">
-        <v>470</v>
-      </c>
       <c r="O305" s="3"/>
       <c r="P305">
         <v>34</v>
@@ -10247,9 +10103,6 @@
       <c r="J306" t="s">
         <v>470</v>
       </c>
-      <c r="K306" t="s">
-        <v>470</v>
-      </c>
       <c r="O306" s="3"/>
       <c r="P306">
         <v>61</v>
@@ -10761,6 +10614,136 @@
       </c>
       <c r="H322" t="s">
         <v>511</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>2</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C323" t="s">
+        <v>133</v>
+      </c>
+      <c r="D323">
+        <v>0.36</v>
+      </c>
+      <c r="E323">
+        <v>2</v>
+      </c>
+      <c r="F323" t="s">
+        <v>33</v>
+      </c>
+      <c r="G323" t="s">
+        <v>530</v>
+      </c>
+      <c r="H323" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>2</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C324" t="s">
+        <v>133</v>
+      </c>
+      <c r="D324">
+        <v>0.46</v>
+      </c>
+      <c r="E324">
+        <v>2</v>
+      </c>
+      <c r="F324" t="s">
+        <v>34</v>
+      </c>
+      <c r="G324" t="s">
+        <v>530</v>
+      </c>
+      <c r="H324" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>2</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C325" t="s">
+        <v>536</v>
+      </c>
+      <c r="D325">
+        <v>0.52</v>
+      </c>
+      <c r="E325">
+        <v>2</v>
+      </c>
+      <c r="F325" t="s">
+        <v>35</v>
+      </c>
+      <c r="G325" t="s">
+        <v>530</v>
+      </c>
+      <c r="H325" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>2</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C326" t="s">
+        <v>512</v>
+      </c>
+      <c r="D326">
+        <v>0.46</v>
+      </c>
+      <c r="E326">
+        <v>2</v>
+      </c>
+      <c r="F326" t="s">
+        <v>36</v>
+      </c>
+      <c r="G326" t="s">
+        <v>530</v>
+      </c>
+      <c r="H326" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>2</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C327" t="s">
+        <v>161</v>
+      </c>
+      <c r="D327">
+        <v>2.06</v>
+      </c>
+      <c r="E327">
+        <v>2</v>
+      </c>
+      <c r="F327" t="s">
+        <v>37</v>
+      </c>
+      <c r="G327" t="s">
+        <v>530</v>
+      </c>
+      <c r="H327" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
